--- a/result.xlsx
+++ b/result.xlsx
@@ -3,32 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lapa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,26 +52,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -156,10 +139,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -197,71 +180,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -289,7 +272,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -312,11 +295,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -325,13 +308,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -341,7 +324,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -350,7 +333,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -359,7 +342,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -367,10 +350,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -440,55 +423,61 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.862142857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="56.005" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="23.71928571428571" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="17.71928571428571" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="17.14785714285714" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
-    <col width="48.005" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="5.140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="37.140625" customWidth="1" min="2" max="2"/>
+    <col width="23.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="17.140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="73.28515625" customWidth="1" min="6" max="6"/>
+    <col width="31.42578125" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Nr</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Virsraksts</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Uzņēmums</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Atrašanās vieta</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Alga</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Apraksts</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Atjaunots/Publicēts | Beidzas</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" ht="30" customHeight="1">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -512,19 +501,50 @@
           <t>€ 1400 – 2800</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 stundas | Beidzas: 06.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Working closely with global brands and creating impressive websites is challenging and rewarding.
+scandiweb has collaborated with many well-known brands, such as Ford, Hyundai, BMW, Jaguar, Happy Socks, Lancome, L'Oreal, Puma, the MET, and more, to develop the best eCommerce solutions for their specific needs.
+Our diverse team of professionals from 50+ countries provides expertise in various areas, including Business Development, UX Design, Web Development, Project Management, Quality Assurance, and Digital Marketing.
+As the leading eCommerce Agency worldwide, we continuously strive to push boundaries and stay ahead. Join us and become part of our ambitious journey!
+Tailoring ads to the correct customers involves collaborating with various advertising channels. PPC experts consistently monitor and adjust strategies to achieve optimal engagement. As the team continues its growth, they are enthusiastic about having you join on board!
+What are the goals and responsibilities of a PPC Specialist?
+As a PPC Specialist, you will manage developing comprehensive paid search strategies and plans for new and existing clients in the US and Europe. Your duties will entail overseeing all facets of multiple search campaigns, starting from conceptualization and extending through execution and reporting, with an accurate emphasis on quality and precision within Google and Bing platforms.
+You will be tasked with continuous monitoring, optimization, A/B testing, and thorough reporting to ensure that key performance indicators (KPIs) exceed. Crafting persuasive Ad copy geared towards driving conversions will be a focal point.
+Moreover, you will be consistently on the lookout for new approaches to magnify and enhance paid search performance for clients, collaborating closely with analytics, UX, and CRO teams, as well as copywriters. Compiling monthly reports on paid search activity, accompanied by an insightful analysis of account performance, will be part of your routine.
+Additionally, you will keep a vigilant watch on, propose, and experiment with the latest digital marketing tactics.
+What do we expect from you?
+We are seeking an individual with prior work experience in constructing and overseeing campaigns within Google Ads and Microsoft Ads. Proficiency in web analytics tools, particularly Google Analytics, is essential.
+A strong enthusiasm for self-driven learning is highly valued, as is the ability to manage multiple projects concurrently. As a self-initiator, you thrive without continual supervision and possess exceptional communication skills, functioning seamlessly within a team setting. You should also be confident in English and Latvian, both for effective communication and writing.
+An added advantage would be expertise in eCommerce marketing, along with a background in qualitative research. Familiarity with Conversion Rate Optimization (CRO) and Search Engine Optimization (SEO) would also be a valuable asset.
+Please note that if you are joining scandiweb remotely, you will need to have your own hardware setup. After the probation period, it is possible to arrange a hardware upgrade.
+How to apply?
+Complete the necessary details, and we will promptly get back to you with the next steps. 
+The next steps typically involve a test assignment and an interview.
+Benefits
+Get the best PPC experience at the world's leading eCommerce Agency. 
+Work on the most challenging and largest projects worldwide. 
+Join a multinational team that delivers to customers in over 70 countries. 
+Experience our online office, where everyone is connected regardless of their location. 
+Receive support for hardware upgrades.  
+Benefit from health insurance. 
+Access certifications, events, and many other opportunities!
+</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 1 diena | Beidzas: 06.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Data Privacy Specialist</t>
+          <t>Legal Specialist</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,22 +559,50 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>€ 1600 – 2400</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 15.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
+          <t>€ 1000 – 2000</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Working closely with big brands and building powerful websites is challenging and rewarding! 
+Scandiweb has worked with various world-known brands like Ford, Hyundai, BMW, Jaguar, Happy Socks, Lancome, L'Oreal, Puma, the MET, and more, building beautiful solutions for their eCommerce needs. 
+Our global team of 50+ different countries covers multiple levels of expertise in Digital Marketing, UX Design, Web Development, Business Development, and more. 
+We are the #1 eCommerce Agency in the world, and it takes a lot to push the boundaries and stay ahead! Join us and be part of the ambitious journey!
+What do we expect from a Legal Specialist?
+scandiweb seeks a Legal Specialist who demonstrates a robust foundation in legal studies by possessing a Bachelor's degree in Law. An added advantage would be a proven track record in ISO 27001 certification, showcasing a nuanced understanding of information security management systems.
+Previous experience in Corporate Law will be beneficial for proficiency in contracting principles, law regulations, and procedural knowledge. Also, a key requirement for enabling the identification, reporting, and resolution of contract issues.
+You will need strong organizational and writing skills, coupled with a keen eye for detail and accuracy. A proactive approach, self-motivation, and a commitment to continuous learning are essential attributes for this position as well.
+Fluency in both written and spoken English and Latvian at an advanced level is expected for this role.
+What are the goals and responsibilities of a Legal Specialist?
+The role involves diverse responsibilities, including drafting legal documents and agreements, creating and maintaining all facets of ISO 27001 certification, and suggesting and developing contract modifications. 
+Additionally, the position entails the administration of company contracts, including the preparation of contract files, electronic documents, and reports. The person in this role will play a key part in finding and discussing risks and terms in contracts and helping with closing out contracts. 
+Beyond contractual duties, there is a collaborative aspect to the role, involving support for colleagues in daily legal matters. This entails drafting and submitting legal documents to clients, suppliers, and local authorities. 
+Also, an important part of the job is following the rules within the company to make sure contracts are done in a consistent way with set standards.
+How to apply?
+Complete the necessary details, and we will promptly get back to you with the next steps. 
+The next steps typically involve a test assignment and an interview.
+Benefits
+Join a multinational team that delivers to customers in over 70 countries. 
+Experience our online office, where everyone is connected regardless of their location. 
+Benefit from health insurance.
+Possibility to work remotely.
+Access certifications, events, and many other opportunities!
+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 1 diena | Beidzas: 20.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>eCommerce Solutions Specialist (Business Developer)</t>
+          <t>Data Privacy Specialist</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,22 +617,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>€ 1500 – 2500</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 15.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
+          <t>€ 1600 – 2400</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Working closely with global brands and creating impressive websites is challenging and rewarding.
+scandiweb has collaborated with many well-known brands, such as Ford, Hyundai, BMW, Jaguar, Happy Socks, Lancome, L'Oreal, Puma, the MET, and more, to develop the best eCommerce solutions for their specific needs.
+Our diverse team of professionals from 50+ countries provides expertise in various areas, including Business Development, UX Design, Web Development, Project Management, Quality Assurance, and Digital Marketing.
+As the leading eCommerce Agency worldwide, we continuously strive to push boundaries and stay ahead. Join us and become part of our ambitious journey!
+We are seeking a meticulous and proactive Data Privacy Specialist to join our team. The ideal candidate will be responsible for overseeing and managing data privacy and compliance across multiple projects, ensuring that our eCommerce solutions adhere to GDPR, as well as other relevant data protection regulations in the markets our clients operate in. 
+What are the goals and responsibilities of a Data Privacy Specialist?
+As a Data Privacy Specialist, you will conduct thorough privacy regulation inspections for cookie consent, data collection, and direct marketing strategies across various client eCommerce stores operating in the EU, the UK, the USA, Canada, the Middle East, and beyond.
+Your tasks will entail researching and implementing best practices for direct marketing, cookie consent, and data analytics in compliance with international privacy laws. To do that, you will use such tools as CookieBot, OneTrust, CookiePro, and Amasty GDPR.
+We expect you to collaborate with cross-functional teams to align privacy services with client needs, including adjustments to marketing strategies and cookie banner implementations. Communication with clients will take place to understand their needs and present tailored Data Privacy solutions. You will act as the primary point of contact for clients, addressing any issues or concerns they may have related to Data Privacy.
+Also, your responsibilities will include managing and updating privacy-related content, including creating and maintaining a privacy glossary, banner repository, and FAQ pages. You will ensure professional development in the field of data privacy and data protection, staying up-to-date with the latest trends, regulations, and best practices. 
+What do we expect from a Data Privacy Specialist?
+To successfully apply for this position, you must have a bachelor's degree in Law, Information Technology, or a related field. Including understanding and knowledge of data protection and privacy laws and regulations (EU-GDPR, US-CCPA/CPRA, VCDPA, CPA, Canada-PIPEDA, etc.).
+We expect you to have strong communication skills, with proficiency in English. If you are proficient in additional European languages, we will consider it as a plus.
+High organizational skills will come in handy to do your research, take notes, and document everything. Project management skills will serve beneficially, as well as willingness and dedication to learn new things to grow professionally and personally.
+The following skills are not necessarily required, but we will consider it a bonus if you have experience with privacy impact assessments and implementing privacy by design. Also, nice to have familiarity with tools like CookieBot, OneTrust, CookiePro, and Amasty GDPR.
+Since scandiweb is an eCommerce agency that works with multiple clients, previous experience in an agency or a client-facing role will be helpful, as well as a detail-oriented personality with the ability to manage multiple tasks simultaneously.
+How to apply?
+Complete the necessary details, and we will promptly get back to you with the next steps. 
+The next steps typically involve a test assignment and an interview.
+Benefits
+Get the best data management experience at the world's leading eCommerce Agency. 
+Work on the most challenging and largest projects worldwide. 
+Join a multinational team that delivers to customers in over 70 countries. 
+Experience our online office, where everyone is connected regardless of their location. 
+Receive support for hardware upgrades. 
+Benefit from health insurance.
+Access certifications, events, and many other opportunities!
+</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 6 dienas | Beidzas: 15.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Legal Specialist</t>
+          <t>eCommerce Solutions Specialist (Business Developer)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,16 +679,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>€ 1000 – 2000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 9 stundas | Beidzas: 20.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
+          <t>€ 1500 – 2500</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Working closely with global brands and creating impressive websites is challenging and rewarding.
+scandiweb has collaborated with many well-known brands, such as Ford, Hyundai, BMW, Jaguar, Happy Socks, Lancome, L'Oreal, Puma, the MET, and more, to develop the best eCommerce solutions for their specific needs.
+Our diverse team of professionals from 50+ countries provides expertise in various areas, including Digital Marketing, UX Design, Web Development, Project Management, Quality Assurance, and Business Development.
+As the leading eCommerce Agency worldwide, we continuously strive to push boundaries and stay ahead. Join us and become part of our ambitious journey!
+Business Development is crucial for growing the company's client base, allowing it to stay competitive in the industry. Our Business Development Team is currently looking for a colleague who is enthusiastic about exploring new possibilities and serving as a strategic advisor to build strong relationships with brands that can take advantage of our eCommerce services.
+What are the goals and responsibilities of a Business Developer?
+You will begin by conducting thorough research across networks, ecosystems, companies, industries, and individuals to discover business objectives and identify exciting opportunities in the eCommerce field. Building strong and positive relationships with new customers is essential, as it involves understanding their needs and business goals.
+As a Business Developer, you will serve as a trusted advisor, working closely with our extended eCommerce team to develop strategic opportunities that align with our customers' objectives. Precisely scoping eCommerce projects will ensure we identify key performance indicators (KPIs), collaborate effectively with stakeholders, consider dependencies, and fully grasp project requirements. Collaboration with our customers is crucial as we aim to create a shared plan that outlines how scandiweb can contribute to their business transformation.
+Following up on leads generated by our marketing team is a key aspect of maximizing conversion opportunities. Acquiring and maintaining comprehensive knowledge of essential systems like Magento, AdobeCommerce, Shopify, BigCommerce, Akeno, or PimCore.
+If possible, being available for travel to various locations, including Europe, the Middle East, and the US, will allow you to engage with potential clients and establish valuable connections. You will also be responsible for preparing compelling business presentations and proposals that are tailored to the specific needs of prospective clients.
+What do we expect from you?
+The core prior experience we are looking for is eCommerce. Whether as a Project Manager, B2B Sales Specialist, or Account Manager. Familiarity with platforms such as Magento/AdobeCommerce, Shopify, BigCommerce, Akeno, or PimCore would be beneficial. It is important to have a technical understanding of eCommerce components and structure.
+scandiweb is seeking a self-motivated individual who is driven by achieving results and has a strong desire to succeed. Innovation is valued, as we encourage creative thinking to identify and address business needs effectively.
+Strong communication skills are essential, with confident skills in English and the ability to express oneself well in written, verbal, and presentation formats. Additionally, the ability to learn new frameworks, and systems, and obtain certifications is important in this role.
+Please note: The requirements mentioned in this job description should be considered guidelines rather than strict rules. We are specifically looking for prior eCommerce experience and a business mindset; however, it is not necessary to match every requirement or meet all the qualifications listed.
+If you are joining scandiweb remotely, you will need to have your own hardware setup. After the probation period, a hardware upgrade can be discussed and agreed upon.
+How to apply?
+Complete the necessary details, and we will promptly get back to you with the next steps. 
+The next steps typically involve a test assignment and an interview.
+Benefits
+Get the best business development experience at the world's leading eCommerce Agency. 
+Work on the most challenging and largest projects worldwide. 
+Join a multinational team that delivers to customers in over 70 countries. 
+Experience our online office, where everyone is connected regardless of their location. 
+Receive support for hardware upgrades.  
+Benefit from health insurance. 
+Access certifications, events, and many other opportunities!
+</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 6 dienas | Beidzas: 15.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -632,13 +744,45 @@
           <t>€ 700 – 1400</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 stundas | Beidzas: 06.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Working closely with global brands and creating impressive websites is challenging and rewarding.
+scandiweb has collaborated with many well-known brands, such as Ford, Hyundai, BMW, Jaguar, Happy Socks, Lancome, L'Oreal, Puma, the MET, and more, to develop the best eCommerce solutions for their specific needs.
+Our diverse team of professionals from 50+ countries provides expertise in various areas, including Business Development, UX Design, Web Development, Project Management, Quality Assurance, and Digital Marketing.
+As the leading eCommerce Agency worldwide, we continuously strive to push boundaries and stay ahead. Join us and become part of our ambitious journey!
+Tailoring ads to the correct customers involves collaborating with various advertising channels. PPC experts consistently monitor and adjust strategies to achieve optimal engagement. As the team continues its growth, they are enthusiastic about having you join on board!
+What are the goals and responsibilities of a Junior PPC Specialist?
+As a junior specialist, you will be part of our active team and have an important role in making campaigns better on different advertising websites.
+Your job will involve working together with account managers to handle daily campaign tasks. This includes changing keywords, targeting the right audiences, creating ad text, and keeping an eye on how well ads make people take action.
+As a PPC Specialist, you will help your team make sure campaigns start well on websites like Google Ads, Bing Ads, and other places like Meta Ads, TikTok, and LinkedIn.
+You will also be part of checking how well our ads are doing on different websites and finding ways to make them work even better. And, you will help create and test creative ads to get more people interested and get better results.
+This is a fantastic opportunity to work in a fast-paced environment and gain hands-on experience in digital advertising. If you are passionate about marketing and eager to make an impact, we want to hear from you.
+What do we expect from you?
+We are looking for a specialist who has some previous experience in constructing and overseeing campaigns within Google, Meta, and Microsoft Ads. We will appreciate a true interest in digital marketing and a genuine interest in human psychology and how people make decisions. However, skills in web analytics tools, particularly Google Analytics, are essential.
+You will have a key role in our team, and it is important that you can work independently. But don't worry, the team will be here to support you when needed. Being open to constructive feedback will help you learn and grow for future opportunities.
+This position requires strong organizational skills, including note-taking and thorough documentation. You should also be confident in English and Latvian, both for effective communication and writing.
+It will be considered as a bonus if you have previous experience in digital advertising, skills in statistical data analysis, knowledge of media planning, and proficiency in Excel. But don't worry if you don't have all of these we are open to fast learners who are up for the challenge.
+How to apply?
+Complete the necessary details, and we will promptly get back to you with the next steps. 
+The next steps typically involve a test assignment and an interview.
+Benefits
+Get the best PPC experience at the world's leading eCommerce Agency. 
+Work on the most challenging and largest projects worldwide. 
+Join a multinational team that delivers to customers in over 70 countries. 
+Experience our online office, where everyone is connected regardless of their location. 
+Receive support for hardware upgrades. 
+Benefit from health insurance.
+Access certifications, events, and many other opportunities!
+</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 1 diena | Beidzas: 06.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -662,13 +806,41 @@
           <t>€ 700 – 1800</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 stundas | Beidzas: 06.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Working closely with global brands and creating impressive websites is challenging and rewarding.
+scandiweb has collaborated with many well-known brands, such as Ford, Hyundai, BMW, Jaguar, Happy Socks, Lancome, L'Oreal, Puma, the MET, and more, to develop the best eCommerce solutions for their specific needs.
+Our diverse team of professionals from 50+ countries provides expertise in various areas, including Digital Marketing, UX Design, Web Development, Project Management, Quality Assurance, Business and Sales Development.
+As the leading eCommerce Agency worldwide, we continuously strive to push boundaries and stay ahead. Join us and become part of our ambitious journey!
+Our Sales team is seeking a new colleague who is open-minded and ready to embrace new, advanced approaches to help grow scandiweb's client portfolio even further.
+In this role, you will have a variety of tasks to tackle, and you will be constantly learning along the way. While sales demand confidence in proven methods, they also offer ample room for creativity. Join our sales team and gain valuable international experience with well-known brands!
+What are the goals and responsibilities of a Sales Development Specialist?
+At our Sales team, we believe that with determination, anything is possible. As part of our team, you will work with advanced sales funnels to convert strangers into potential customers interested in eCommerce services. Building effective strategies is a key aspect of sales, and at scandiweb, you will have the chance to learn and apply the latest approaches and best practices.
+Sales specialists often use LinkedIn as a valuable tool. You will also use it for generating leads, creating compelling e-mail messages, and communicating with potential customers through platforms like WhatsApp and HubSpot CRM. It all starts with a friendly conversation that paves the way for a successful deal.
+What do we expect from you?
+We expect you to have experience with LinkedIn and know how to use it for sales. Being skilled in Google tools like Sheets and Docs is highly valued. Good written and spoken English skills will be necessary for effective e-mail communication.
+Moreover, previous experience in B2B sales, understanding sales funnels, and eCommerce development will be considered a bonus. Familiarity with tools like HubSpot and Pipedrive, along with automation tools like Zapier and Keyboard Maestro, is highly appreciated.
+Although not mandatory, any experience in web data scraping, cold calling, and script creation would be an advantage.
+Please note that if you are joining scandiweb remotely, you will need to have your own hardware setup. After the probation period, it is possible to arrange a hardware upgrade.
+Benefits
+Get the best sales training at the world's leading eCommerce Agency. 
+Work on the most challenging and largest projects worldwide. 
+Join a multinational team that delivers to customers in over 70 countries. 
+Experience our online office, where everyone is connected regardless of their location. 
+Meet customers abroad to work together.
+Receive support for hardware upgrades. 
+Benefit from health insurance.
+Access certifications, events, and many other opportunities!
+</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 1 diena | Beidzas: 06.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -692,13 +864,53 @@
           <t>€ 4000 – 6500</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 1 diena | Beidzas: 05.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The role is advertised for: Cembra Technologies SIA, LV 40203462827
+Cembra Technologies SIA is a new set-up in Riga, company registered in April 2023, as a software development hub for Cembra Pay AG.
+Cembra Technologies SIA provides nearshore support, such as Software Development and Management, Application Management and Administration to the partner organizations: Cembra Pay AG providing Buy now Pay, later (BNPL) solutions/ and its mother company Cembra, a Swiss bank.
+Cembra is not a bank in the traditional sense, but a financial services provider and provider of innovative, digital payment solutions. Cembra offers its customers simple and uncomplicated financing solutions for all life situations, such as personal loans, leasing and credit cards.
+Web / Full Stack Software Engineer
+(all genders)
+Being a member of the Customer &amp; Partner Solutions team of Cembra, you will actively participate in all stages of the software development lifecycle mainly focusing on requirements engineering, software design and development activities for the Banks existing and new web and mobile applications. If you are a self-starter with a strong desire to increase efficiency and make an impact to the Banks vision towards digital transformation, we look forward to receiving your application.
+JOB DESCRIPTION:
+Work with experienced engineers to design and develop web applications and backend services.
+Integrate with the existing applications portfolio as well as third parties software.
+Contribute towards the timely completion of development tasks for change initiatives and projects.
+Liaise with production support and operations teams for Troubleshooting of production software and bug fixing (level 3 support).
+Continually learn and apply relevant software development practices, patterns, tools and technologies and actively contribute to the Banks technical selections/decisions.
+REQUIREMENTS FOR THE ROLE:
+Master or Bachelor degree in computer science (or equivalent).
+5+ years working experience with JavaScript/TypeScript frameworks, preferably React.
+Hands on experience in developing Spring Boot backend services.
+Experience with Web technologies (SOAP, REST) and Microservice Architecture; strong understanding of software design patterns, object oriented principles and modern software engineering practices.
+Strong understanding of software design patterns, object-oriented principles and modern software engineering practices.
+Fluent in English is a must, German is a plus.
+COMPANY OFFERS:
+A chance to become the part of a dynamic and growing and very friendly environment.
+Travel possibility to Swiss office, international environment, remote and on-site teams.
+Modern, well-equipped office in emerging Skanstes area.
+Health insurance competitive package.
+Mental health support program.
+3 supplementary days in order to support wellbeing of our employees.
+Birthday gifts for employees.
+Regular office events and team building support activities.
+Office: Riga, Place 11
+Working conditions: Hybrid mode
+Parking place: will be provided if employee works most of the days from office.
+Working hours: regular, from 9AM to 6PM on business days.
+Salary: 4000 - 6500 EUR Gross Monthly
+If you really interested in the role, but feel that salary range or some role requirements is an issue, we encourage you to get in touch with us.
+</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 2 dienas | Beidzas: 05.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -722,13 +934,49 @@
           <t>€ 1700 – 3500</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 15 dienas | Beidzas: 18.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prasības kandidātiem
+Iepriekšēja pieredze projektu vadīšanā (vismaz 1 gads);
+Atbildība (ownership);
+Loģiskā un kritiskā domāšana;
+Spēja būt organizētam un strukturētam;
+Labas komunikācijas spējas (rakstība un saruna);
+Izpratne un interese par web izstrādi, uzņēmuma digitālo tēlu un izstrādes procesiem;
+Pieredze pielietot projektu plānošanas rīkus;
+Vēlamas labas latviešu un angļu vai krievu valodas zināšanas;
+Vēlme mācīties un attīstīties.
+Darba pienākumu apraksts
+Jāveic komunikācija ar klientiem un jāapkopo klienta vēlmes un biznesa prasības prasību dokumentā;
+Jāplāno programmētāju un dizainera darba plūsma (jāplāno resurss);
+Jākomunicē, jākoordinē un jāseko līdzi projektu izstrādes gaitai komandā;
+Jārealizē projektu iekļaujoties laikā un budžetā;
+Jātestē un jāpārliecinās par piegādātā produkta kvalitāti vai to izdarīs asistents / testētājs, ja būsi pārāk aizņemts / -a;
+Jāapkopo informācija par paša un komandas paveikto;
+Jāanalizē un jāuzlabo izstrādes procesi.
+Mēs būtu priecīgi, ja Tu darītu zināmu vai Tev ir iepriekšēja pieredze vai liela vēlme izpausties kādās no zemāk esošajām tēmām:
+piedalīties mājaslapu satura stratēģijas izstrādē;
+uzņēmuma digitālās mārketinga stratēģijas izstrāde (vai tikai kādi posmi);  
+uzņēmuma tēla veidošanu (CSR, ESG vai vizuālā puse);
+ir bijusi pieredze iepirkumu dokumentācijas sagatavošanā; 
+iepriekšēja pieredze pārdošanā. 
+Mēs piedāvājam
+Darbu 10+ cilvēku komandā;
+Darba datoru un iespēju izvēlēties darbam nepieciešamo tehniku un platformu (Linux, Mac vai Windows);
+Darbu klātienē birojā Rīgā vai hibrīdā;
+Vietēja mēroga un ārzemju projektus;
+Elastīgu darba grafiku pēc nepieciešamības (parasti strādājam 09.00-18.00);
+Atbilstošu atalgojumu + bonusus atkarībā no slodzes un rezultātiem. Tas atkarīgs no tavām zināšanām, prasmēm un pieredzes.
+</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 16 dienas | Beidzas: 18.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -752,13 +1000,14 @@
           <t>€ 2300 – 4400</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 1 diena | Beidzas: 02.02.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 2 dienas | Beidzas: 03.02.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -782,13 +1031,14 @@
           <t>€ 1000 – 1400</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 12 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 13 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
       <c r="A12" t="n">
         <v>11</v>
       </c>
@@ -812,79 +1062,110 @@
           <t>€ 850 – 1500</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 6 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
       <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Senior Data &amp; AI Engineer (Python, PowerBI)</t>
+          <t>Vecākais/-ā WEB platformas programmētājs/-ja</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Arvato Systems Latvia SIA</t>
+          <t>Tet SIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rīga</t>
+          <t>Rīga /  Attālināti</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>€ 3800 – 4800</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 10 stundas | Beidzas: 20.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
+          <t>€ 3400</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 3 stundas | Beidzas: 28.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
       <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Scrum Master</t>
+          <t>Senior Data &amp; AI Engineer (Python, PowerBI)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Swedbank AS</t>
+          <t>Arvato Systems Latvia SIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rīga /  Attālināti</t>
+          <t>Rīga</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>€ 2700 – 4100</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 05.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
+          <t>€ 3800 – 4800</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">General responsibilities
+ Work in project teams using agile and traditional project approaches.
+Identify customer needs and develop innovative data integration scenarios in modern cloud and on-premises environments.
+Analyze and optimize ETL/ELT processes in hybrid system landscapes.
+Develop solutions for various industries for generative AI, hyper-automation, computer vision, or IoT.
+Design and model data architectures, develop ETL/ELT processes and data pipelines, and create reports, dashboards, and ad-hoc analyses.
+ Ensure the quality of work results in terms of functionality, code quality, and documentation, and support the operation of solutions through bug fixing, optimization, and monitoring. 
+Job requirements
+Minimum of 5 years of experience in AI development, with strong programming skills in object-oriented Python, SQL, and DAX
+Experience in developing data warehouse and business intelligence projects, knowledge of database systems, and data competencies in Cloud technologies (Azure, GCP, AWS)
+Proficiency in data tool stacks for creating data processes by using ADF, Synapse pipelines, Databricks, and data visualization with PowerBI
+Experience in designing and implementing efficient data workflows in the cloud and building data pipelines with e.g., Apache Airflow, Argo Workflow, or Databricks
+Python skills specifically for generative AI and prompt engineering.
+Focus on code quality, write testable and maintainable code that scales, and have experience in building CI/CD pipelines (e.g., GitHub Actions)
+We Offer
+Monthly gross salary from 3800 to 4800 EUR, depending on your level of expertise. 
+Hybrid way of working with cozy office space in the center of Riga, when needed, and flexible working hours opportunities, based on your own preferences. 
+Family-oriented company values and healthy attitude towards work and life balance - granting additional 4 vacation days, birthday leave, "Happy Land" space in the office for children, etc. 
+Individual development and learning plan, including yearly budget for external training. 
+Necessary essentials health insurance with dental services and sports coverage. 
+Possibility to work in mutual trust and positive team environment, to be creative and improve working flows by self-initiatives. 
+Friendly, multicultural and cooperation orientated colleagues. 
+We look forward to receiving your application.
+Received application information is treated as highly confidential and will only be used for recruitment process of this position. Data submitted will be secured and processed only for the purpose of recruitment and shall be deleted after its conclusion.
+</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 1 diena | Beidzas: 20.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
       <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Scrum Master to Group Business Intelligence</t>
+          <t>Scrum Master</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,22 +1180,105 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>€ 2700 – 4200</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 6 stundas | Beidzas: 07.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
+          <t>€ 2700 – 4100</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Are you looking for challenges in the IT area where you could utilize your agile skills?
+In Swedbank you have the opportunity to:
+Be part of a cross functional Team in the Agile Release Train, working together to build and maintain high quality controlling and financial reporting services for Group Strategy, Planning &amp; Control and Group Finance
+Coaching the team in self-organization and cross functionality
+Help the Agile Teams to create high value
+Remove impediments during daily work
+Facilitate daily stand-up meetings, PI planning sessions, retrospectives
+Support Product Owner in backlog management
+Support release management and synchronization
+Continuously improve the way of working using SAFe methodology
+Dealing with ad hoc issues and questions
+What is needed in this role:
+Relevant university degree or a great reason for not having one
+Previous work experience with SAFe or SCRUM methodology
+Previous work experience within IT or Financial industry
+Ability to coach, support and coordinate the development team
+Experience working with Atlassian products (JIRA, Confluence)
+Demonstrated leadership and excellent communication skills
+Scrum Master / SAFe certification would be an advantage
+Proficient English, spoken &amp; written, in addition, Swedish is a big plus
+What we offer when you join us:
+An open, simple and caring culture
+Opportunity to create the best experience for our customers
+An international, sustainable and inclusive work environment
+Development opportunities and advancement in your career
+Flexible working options
+Access to Group performance program, company pension plan, optional health insurance, and other benefits
+"Join our team and...
+contribute with your engagement and your knowledge in our teams area of responsibility. Our team works together with Group Strategy, Planning &amp; Control and Group Finance. We develop and maintain controlling and financial reporting services for both areas.
+We are a dynamic team who takes on challenges with a great deal of energy, passion, and innovation. As a Scrum Master you will be an important member of the team. We strive to achieve a good work/life balance and we are always open to new ideas and thoughts helping us to improve as a team. Besides hard work, we always try to find a way to have fun together. In this team you will get your own responsibilities and at the same time have support from your colleagues. Your colleagues are in both Stockholm and Riga." Elita Grigaroviča, your future leader 
+We look forward to your application at 05.01.2024. the latest.
+Location: Sundbyberg, Riga
+Contacts
+Recruiting manager: Elita Grigaroviča, elita.grigarovica@swedbank.lv
+Please expect prolonged recruitment process due to winter holiday vacation season.
+We have made our choice regarding recruitment media and therefore kindly decline contact with ad sellers or sellers of other recruitment services.
+If you are to be employed in Latvia, please note that the salary offered for this position ranges from 2700-4100 EUR gross i.e. before taxes. Read more here.
+Swedbank does not discriminate anybody based on gender, age, sexual orientation or sexual identity, ethnicity, religion or disability – everybody is welcome.
+#LI-OB1 #LI-Hybrid
+Are you looking for challenges in the IT area where you could utilize your agile skills?
+In Swedbank you have the opportunity to:
+Be part of a cross functional Team in the Agile Release Train, working together to build and maintain high quality controlling and financial reporting services for Group Strategy, Planning &amp; Control and Group Finance
+Coaching the team in self-organization and cross functionality
+Help the Agile Teams to create high value
+Remove impediments during daily work
+Facilitate daily stand-up meetings, PI planning sessions, retrospectives
+Support Product Owner in backlog management
+Support release management and synchronization
+Continuously improve the way of working using SAFe methodology
+Dealing with ad hoc issues and questions
+What is needed in this role:
+Relevant university degree or a great reason for not having one
+Previous work experience with SAFe or SCRUM methodology
+Previous work experience within IT or Financial industry
+Ability to coach, support and coordinate the development team
+Experience working with Atlassian products (JIRA, Confluence)
+Demonstrated leadership and excellent communication skills
+Scrum Master / SAFe certification would be an advantage
+Proficient English, spoken &amp; written, in addition, Swedish is a big plus
+What we offer when you join us:
+An open, simple and caring culture
+Opportunity to create the best experience for our customers
+An international, sustainable and inclusive work environment
+Development opportunities and advancement in your career
+Flexible working options
+Access to Group performance program, company pension plan, optional health insurance, and other benefits
+"Join our team and...
+contribute with your engagement and your knowledge in our teams area of responsibility. Our team works together with Group Strategy, Planning &amp; Control and Group Finance. We develop and maintain controlling and financial reporting services for both areas.
+We are a dynamic team who takes on challenges with a great deal of energy, passion, and innovation. As a Scrum Master you will be an important member of the team. We strive to achieve a good work/life balance and we are always open to new ideas and thoughts helping us to improve as a team. Besides hard work, we always try to find a way to have fun together. In this team you will get your own responsibilities and at the same time have support from your colleagues. Your colleagues are in both Stockholm and Riga." Elita Grigaroviča, your future leader 
+We look forward to your application at 05.01.2024. the latest.
+Location: Sundbyberg, Riga
+Contacts
+Recruiting manager: Elita Grigaroviča, elita.grigarovica@swedbank.lv
+Please expect prolonged recruitment process due to winter holiday vacation season.
+We have made our choice regarding recruitment media and therefore kindly decline contact with ad sellers or sellers of other recruitment services.
+If you are to be employed in Latvia, please note that the salary offered for this position ranges from 2700-4100 EUR gross i.e. before taxes. Read more here.
+Swedbank does not discriminate anybody based on gender, age, sexual orientation or sexual identity, ethnicity, religion or disability – everybody is welcome.
+#LI-OB1 #LI-Hybrid
+</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 6 dienas | Beidzas: 05.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
       <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IT Business Analyst</t>
+          <t>Scrum Master to Group Business Intelligence</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -929,22 +1293,101 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>€ 2700 – 4100</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 05.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
+          <t>€ 2700 – 4200</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Are you passionate about improving Agile ways of working?
+We want to welcome a talented and motivated team player to join our team in Group Business Intelligence! We wish you to guide the team in SAFe practices and values, support &amp; coach the team through servant leadership style. You will be able to share your ideas, experiment with new techniques and find innovative ways of solving impediments allowing you to make a lasting impact.
+In Swedbank you have the opportunity to:
+Be part of a cross functional agile team (containing software engineers, business analysts, product owner) in the Agile Release Train, working together to build and maintain high quality solutions;
+Help to facilitate change and take our development team to the next level;
+Implement and adapt agile principles and practices in the team;
+Work in a modern and dynamic international environment;
+Learn and self-develop through our training programs;
+Be involved in and contribute towards our Scrum Masters community;
+Learn from each other by sharing your knowledge and best practices.
+What is needed in this role:
+Relevant university degree or previous work experience within IT;
+Experience as a Scrum Master / Team Coach;
+Ability to coach, support and coordinate the development team, to make things happen;
+Being self-driven, giving and taking responsibility;
+Demonstrated leadership experience and excellent communication skills (to both technical and non-technical audiences);
+SAFe certification would be an advantage;
+Experience working with Atlassian products (JIRA, Confluence);
+Fluency in written and oral English;
+To be a strong team member and like to solve impediments together with your colleagues; on the same note, we believe you have good communication skills and experience in Agile way of working;
+If you have worked within the financial industry within business units is beneficial;
+You are self-motivated and have a can-do attitude and you can work both individually and with other people from different parts of Swedbank.
+What we offer when you join us:
+An open, simple and caring culture.
+Opportunity to create the best experience for our customers.
+An international, sustainable and inclusive work environment.
+Development opportunities and advancement in your career.
+Flexible working options.
+Access to Group performance program, company pension plan, optional health insurance, and other benefits.
+"Join our team and...
+be a part of an international team of professionals, who are jointly delivering challenging projects, maximizing customer value, and increasing Swedbanks competitive advantage. As a manager I am open, transparent, trusting and demanding. I give a lot of freedom combined with responsibility and I expect a self-driven working style towards expected results. My role as a manager is to create a positive and collaborative working environment and provide you the needed context and managerial direction. To be successful, our team requires an open mind to learning new things and be ready to challenge the norm and change old ways of doing things." 
+We look forward to your application at 07.01.2024 the latest.
+We may begin the selection during the application period, so we welcome your application as soon as possible.
+We have made our choice regarding recruitment media and therefore kindly decline contact with ad sellers or sellers of other recruitment services.
+If you are to be employed in Latvia, please note that the salary offered for this position ranges from 2 700 - 4 200 EUR gross i.e. before taxes. Read more here.
+If you are to be employed in Lithuania, please note that the salary offered for this position ranges from 3 600 - 5 200 EUR gross i.e. before taxes. Read more here.
+If you are to be employed in Estonia, please note that the salary offered for this...
+Are you passionate about improving Agile ways of working?
+We want to welcome a talented and motivated team player to join our team in Group Business Intelligence! We wish you to guide the team in SAFe practices and values, support &amp; coach the team through servant leadership style. You will be able to share your ideas, experiment with new techniques and find innovative ways of solving impediments allowing you to make a lasting impact.
+In Swedbank you have the opportunity to:
+Be part of a cross functional agile team (containing software engineers, business analysts, product owner) in the Agile Release Train, working together to build and maintain high quality solutions;
+Help to facilitate change and take our development team to the next level;
+Implement and adapt agile principles and practices in the team;
+Work in a modern and dynamic international environment;
+Learn and self-develop through our training programs;
+Be involved in and contribute towards our Scrum Masters community;
+Learn from each other by sharing your knowledge and best practices.
+What is needed in this role:
+Relevant university degree or previous work experience within IT;
+Experience as a Scrum Master / Team Coach;
+Ability to coach, support and coordinate the development team, to make things happen;
+Being self-driven, giving and taking responsibility;
+Demonstrated leadership experience and excellent communication skills (to both technical and non-technical audiences);
+SAFe certification would be an advantage;
+Experience working with Atlassian products (JIRA, Confluence);
+Fluency in written and oral English;
+To be a strong team member and like to solve impediments together with your colleagues; on the same note, we believe you have good communication skills and experience in Agile way of working;
+If you have worked within the financial industry within business units is beneficial;
+You are self-motivated and have a can-do attitude and you can work both individually and with other people from different parts of Swedbank.
+What we offer when you join us:
+An open, simple and caring culture.
+Opportunity to create the best experience for our customers.
+An international, sustainable and inclusive work environment.
+Development opportunities and advancement in your career.
+Flexible working options.
+Access to Group performance program, company pension plan, optional health insurance, and other benefits.
+"Join our team and...
+be a part of an international team of professionals, who are jointly delivering challenging projects, maximizing customer value, and increasing Swedbanks competitive advantage. As a manager I am open, transparent, trusting and demanding. I give a lot of freedom combined with responsibility and I expect a self-driven working style towards expected results. My role as a manager is to create a positive and collaborative working environment and provide you the needed context and managerial direction. To be successful, our team requires an open mind to learning new things and be ready to challenge the norm and change old ways of doing things." 
+We look forward to your application at 07.01.2024 the latest.
+We may begin the selection during the application period, so we welcome your application as soon as possible.
+We have made our choice regarding recruitment media and therefore kindly decline contact with ad sellers or sellers of other recruitment services.
+If you are to be employed in Latvia, please note that the salary offered for this position ranges from 2 700 - 4 200 EUR gross i.e. before taxes. Read more here.
+If you are to be employed in Lithuania, please note that the salary offered for this position ranges from 3 600 - 5 200 EUR gross i.e. before taxes. Read more here.
+If you are to be employed in Estonia, please note that the salary offered for this...
+</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 1 diena | Beidzas: 07.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1">
       <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ART Architect (Production Platform Services)</t>
+          <t>IT Business Analyst</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -959,27 +1402,106 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>€ 3800 – 5700</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 6 dienas | Beidzas: 03.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
+          <t>€ 2700 – 4100</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Are you looking for challenges in the IT area where you could utilize your analytical skills and gain new business analyses and technical knowledge? 
+ Then this is an opportunity for you - we are looking for an IT Business Analyst with technical knowledge (initial focus to services built on IBM Planning Analytics and then focus could shift to BEPS 2.0 / Tax Pillar 2).
+  In Swedbank you have the opportunity to:
+Work as the main contact person between cross-functional teams, stakeholders, and users, by applying knowledge of the business domain and IT
+Contribute in all areas: to analyze, design, test, and maintain services delivered by Agile teams
+Participate and/or lead the work of gathering requirements from the business
+Be responsible and express Product Backlog in terms of Jira User stories with acceptance criteria and other required details
+Support colleagues in explaining customer needs and business requirements, by applying business and product knowledge
+Work closely with stakeholders, architects and other team members to define and document business rules and detailed requirements
+Participate in production support activities: investigate issues, provide consultations to the business users, assist to end-user trainings
+Have, and continue to gain, good knowledge of the business
+What is needed in this role:
+Bachelor's or Master's degree in a related field, or a great reason for not having one
+Previous work experience as Business Analyst
+Financial business knowledge combined with a technical understanding
+Experience in Finance domain and very good knowledge on Financial Closing process
+Excellent communication and cooperation skills, ability to visualize and document requirements
+Strong Excel skills
+Experience with Cognos Consolidation solution will be considered as an advantage
+Understanding SQL will be considered as an advantage
+Experience of integrations and data sourcing will be considered as an advantage
+You are fluent in English. Swedish language will be considered as an advantage
+What we offer when you join us:
+An open, simple and caring culture
+Opportunity to create the best experience for our customers
+An international, sustainable and inclusive work environment
+Development opportunities and advancement in your career
+Flexible working options
+Access to Group performance program, company pension plan, optional health insurance, and other benefits
+"Join our team and...
+contribute with your engagement and your knowledge in our teams area of responsibility. We are a dynamic team who takes on challenges with a great deal of energy, passion, and innovation. As a Business Analyst you will be an important member of the team. We strive to achieve a good work/life balance and we are always open to new ideas and thoughts helping us to improve as a team. Besides hard work, we always try to find a way to have fun together. In this team you will get your own responsibilities and at the same time have support from your colleagues. Your colleagues are in both Stockholm and Riga" Elita Grigaroviča, your future leader.
+We look forward to your application at 05.01.2024. the latest.
+Location: Riga or Stockholm
+Please expect prolonged recruitment process due to winter holiday vacation season.
+If you are to be employed in Latvia, please note that the salary offered for this position ranges from 2700-4100 EUR gross i.e. before taxes and depends on the level of competence and the experience of the candidate. Read more here.
+Swedbank does not discriminate anybody based on gender, age, sexual orientation or sexual identity, ethnicity, religion or disability – everybody is welcome.
+#LI-OB1 #LI-Hybrid
+Are you looking for challenges in the IT area where you could utilize your analytical skills and gain new business analyses and technical knowledge? 
+ Then this is an opportunity for you - we are looking for an IT Business Analyst with technical knowledge (initial focus to services built on IBM Planning Analytics and then focus could shift to BEPS 2.0 / Tax Pillar 2).
+  In Swedbank you have the opportunity to:
+Work as the main contact person between cross-functional teams, stakeholders, and users, by applying knowledge of the business domain and IT
+Contribute in all areas: to analyze, design, test, and maintain services delivered by Agile teams
+Participate and/or lead the work of gathering requirements from the business
+Be responsible and express Product Backlog in terms of Jira User stories with acceptance criteria and other required details
+Support colleagues in explaining customer needs and business requirements, by applying business and product knowledge
+Work closely with stakeholders, architects and other team members to define and document business rules and detailed requirements
+Participate in production support activities: investigate issues, provide consultations to the business users, assist to end-user trainings
+Have, and continue to gain, good knowledge of the business
+What is needed in this role:
+Bachelor's or Master's degree in a related field, or a great reason for not having one
+Previous work experience as Business Analyst
+Financial business knowledge combined with a technical understanding
+Experience in Finance domain and very good knowledge on Financial Closing process
+Excellent communication and cooperation skills, ability to visualize and document requirements
+Strong Excel skills
+Experience with Cognos Consolidation solution will be considered as an advantage
+Understanding SQL will be considered as an advantage
+Experience of integrations and data sourcing will be considered as an advantage
+You are fluent in English. Swedish language will be considered as an advantage
+What we offer when you join us:
+An open, simple and caring culture
+Opportunity to create the best experience for our customers
+An international, sustainable and inclusive work environment
+Development opportunities and advancement in your career
+Flexible working options
+Access to Group performance program, company pension plan, optional health insurance, and other benefits
+"Join our team and...
+contribute with your engagement and your knowledge in our teams area of responsibility. We are a dynamic team who takes on challenges with a great deal of energy, passion, and innovation. As a Business Analyst you will be an important member of the team. We strive to achieve a good work/life balance and we are always open to new ideas and thoughts helping us to improve as a team. Besides hard work, we always try to find a way to have fun together. In this team you will get your own responsibilities and at the same time have support from your colleagues. Your colleagues are in both Stockholm and Riga" Elita Grigaroviča, your future leader.
+We look forward to your application at 05.01.2024. the latest.
+Location: Riga or Stockholm
+Please expect prolonged recruitment process due to winter holiday vacation season.
+If you are to be employed in Latvia, please note that the salary offered for this position ranges from 2700-4100 EUR gross i.e. before taxes and depends on the level of competence and the experience of the candidate. Read more here.
+Swedbank does not discriminate anybody based on gender, age, sexual orientation or sexual identity, ethnicity, religion or disability – everybody is welcome.
+#LI-OB1 #LI-Hybrid
+</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 6 dienas | Beidzas: 05.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1">
       <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Programmētājs/-a</t>
+          <t>Software Engineer for Monitoring area</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SAF TEHNIKA AS</t>
+          <t>Swedbank AS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,27 +1511,106 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>€ 2200 – 2800</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 16 dienas | Beidzas: 18.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
+          <t>€ 3650 – 5450</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Are you passionate about developing innovative solutions, thinking outside of the box and building predictive monitoring for complex and distributed IT systems?
+ With us you have the opportunity to:
+Create new monitoring and observability solutions for the bank's 4 home markets and maintain them;
+Collaborate with other agile engineers working on different layers of the Infrastructure Services &amp; Transformation department to make sure our IT Services are up and running 24/7;
+Write high quality code that contributes to compliant, reliable and stable software that is used by a number of internal users;
+Assist other cross-functional teams in End-To-End monitoring implementation;
+Grow and strengthen yourself and teams knowledge in our Infrastructure as Code and Cloud implementations within the monitoring area;
+Be part of a cross-functional team based in Tallinn, Riga and Stockholm.
+What you need in this role:
+Good working experience with Elastic stack.
+Demonstrated development experience in any of the following languages: Java (Spring Boot), Python, TypeScript, Angular, Shell.
+Knowledge of REST APIs.
+Comfortable working with RHEL/CentOS to perform installations, upgrades, and troubleshoot problems for the OS and installed application stacks.
+An understanding in how to generate value for an organization through monitoring and observability.
+Good spoken and written English.
+Higher education in IT field or relevant previous work experience.
+Considered as an advantage, if you have:
+Experience with infrastructure configuration as code (Ansible);
+DevOps oriented mindset utilizing CI/CD tools (Jenkins, Azure DevOps).
+ What we offer when you join us:
+An open, simple and caring culture.
+Opportunity to create the best experience for our customers.
+An international, sustainable and inclusive work environment.
+Development opportunities and advancement in your career.
+Flexible working options.
+Access to Group performance program, company pension plan, optional health insurance, and other benefits.
+"Join our team and...
+ be a part of an international team of high professionals, who are jointly delivering challenging projects, maximizing customer value and increasing Swedbanks competitive advantage." Kersti Risti, your future leader 
+We look forward to your application at 21.01.2024 the latest.
+Contacts
+ Recruiting manager: Kersti Risti (kersti.risti@swedbank.ee) 
+We may begin the selection during the application period, so we welcome your application as soon as possible.
+If you are to be employed in Latvia, please note that the salary offered for this position ranges from 3650-5450 € gross i.e. before taxes. Read more here.
+If you are to be employed in Lithuania, please note that the salary offered for this position ranges from 4650-6950 € gross i.e. before taxes. Read more here.
+If you are to be employed in Estonia, please note that the salary offered for this position ranges from 4150-6250 € gross i.e. before taxes. Read more here.
+Swedbank does not discriminate anybody based on gender, age, sexual orientation or sexual identity, ethnicity, religion or disability – everybody is welcome.
+#LI-Hybrid #LI-LK3
+Are you passionate about developing innovative solutions, thinking outside of the box and building predictive monitoring for complex and distributed IT systems?
+ With us you have the opportunity to:
+Create new monitoring and observability solutions for the bank's 4 home markets and maintain them;
+Collaborate with other agile engineers working on different layers of the Infrastructure Services &amp; Transformation department to make sure our IT Services are up and running 24/7;
+Write high quality code that contributes to compliant, reliable and stable software that is used by a number of internal users;
+Assist other cross-functional teams in End-To-End monitoring implementation;
+Grow and strengthen yourself and teams knowledge in our Infrastructure as Code and Cloud implementations within the monitoring area;
+Be part of a cross-functional team based in Tallinn, Riga and Stockholm.
+What you need in this role:
+Good working experience with Elastic stack.
+Demonstrated development experience in any of the following languages: Java (Spring Boot), Python, TypeScript, Angular, Shell.
+Knowledge of REST APIs.
+Comfortable working with RHEL/CentOS to perform installations, upgrades, and troubleshoot problems for the OS and installed application stacks.
+An understanding in how to generate value for an organization through monitoring and observability.
+Good spoken and written English.
+Higher education in IT field or relevant previous work experience.
+Considered as an advantage, if you have:
+Experience with infrastructure configuration as code (Ansible);
+DevOps oriented mindset utilizing CI/CD tools (Jenkins, Azure DevOps).
+ What we offer when you join us:
+An open, simple and caring culture.
+Opportunity to create the best experience for our customers.
+An international, sustainable and inclusive work environment.
+Development opportunities and advancement in your career.
+Flexible working options.
+Access to Group performance program, company pension plan, optional health insurance, and other benefits.
+"Join our team and...
+ be a part of an international team of high professionals, who are jointly delivering challenging projects, maximizing customer value and increasing Swedbanks competitive advantage." Kersti Risti, your future leader 
+We look forward to your application at 21.01.2024 the latest.
+Contacts
+ Recruiting manager: Kersti Risti (kersti.risti@swedbank.ee) 
+We may begin the selection during the application period, so we welcome your application as soon as possible.
+If you are to be employed in Latvia, please note that the salary offered for this position ranges from 3650-5450 € gross i.e. before taxes. Read more here.
+If you are to be employed in Lithuania, please note that the salary offered for this position ranges from 4650-6950 € gross i.e. before taxes. Read more here.
+If you are to be employed in Estonia, please note that the salary offered for this position ranges from 4150-6250 € gross i.e. before taxes. Read more here.
+Swedbank does not discriminate anybody based on gender, age, sexual orientation or sexual identity, ethnicity, religion or disability – everybody is welcome.
+#LI-Hybrid #LI-LK3
+</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 4 stundas | Beidzas: 21.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1">
       <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Microsoft Dynamics 365 Business Central izstrādātājs/-a</t>
+          <t>Programmētājs/-a</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CV-Online Recruitment</t>
+          <t>SAF TEHNIKA AS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1019,27 +1620,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>€ 3000 – 4500</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 14 stundas | Beidzas: 15.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
+          <t>€ 2200 – 2800</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 17 dienas | Beidzas: 18.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1">
       <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Norwegian Speaking Customer Service Specialist</t>
+          <t>Microsoft Dynamics 365 Business Central izstrādātājs/-a</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Transcom WorldWide Latvia SIA</t>
+          <t>CV-Online Recruitment</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1049,42 +1651,44 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>€ 1400 – 1750</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 27 dienas | Beidzas: 07.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
+          <t>€ 3000 – 4500</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 16 stundas | Beidzas: 15.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1">
       <c r="A21" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Full Stack Engineer</t>
+          <t>Sr. Data &amp; AI Engineer (Python, Power BI) / Vecākais/-ā datu un AI inženieris/-e (Python, Power BI)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GoCardless</t>
+          <t>WorkingDay Latvia</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rīga</t>
+          <t>Rīga /  Attālināti</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>€ 3200 – 5100</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 2 dienas | Beidzas: 11.01.2024</t>
+          <t>€ 3800 – 4800</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 9 stundas | Beidzas: 04.02.2024</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -3,32 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lapa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,26 +52,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -156,10 +142,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -197,71 +183,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -289,7 +275,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -312,11 +298,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -325,13 +311,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -341,7 +327,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -350,7 +336,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -359,7 +345,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -367,10 +353,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -440,96 +426,103 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.862142857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="56.005" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="23.71928571428571" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="17.71928571428571" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="17.14785714285714" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
-    <col width="48.005" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="5.140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="37.140625" customWidth="1" min="2" max="2"/>
+    <col width="23.7109375" customWidth="1" min="3" max="3"/>
+    <col width="16.140625" customWidth="1" min="4" max="4"/>
+    <col width="14.7109375" customWidth="1" min="5" max="5"/>
+    <col width="150" customWidth="1" min="6" max="6"/>
+    <col width="44.42578125" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Nr</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Virsraksts</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Uzņēmums</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Atrašanās vieta</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Alga</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Apraksts</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Atjaunots/Publicēts | Beidzas</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" hidden="1" ht="150" customHeight="1">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PPC Specialist</t>
+          <t>SAP Commerce Back-end Developer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>scandiweb</t>
+          <t xml:space="preserve">Accenture </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rīga /  Attālināti</t>
+          <t>Rīga</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>€ 1400 – 2800</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 stundas | Beidzas: 06.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
+          <t>€ 2625 – 4500</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 3 stundas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="150" customHeight="1">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Data Privacy Specialist</t>
+          <t>Senior Java Developer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>scandiweb</t>
+          <t>Sapiens Software Solutions (Latvia) SIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -539,57 +532,128 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>€ 1600 – 2400</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 15.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
+          <t>€ 3200 – 4800</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sapiens International Corporation (NASDAQ and TASE: SPNS) empowers the financial sector, with a focus on insurance, to transform and become digital, innovative, and agile. Backed by 40 years of industry expertise, Sapiens offers a complete insurance platform, with pre-integrated, low-code solutions and a cloud-first approach that accelerates customers digital transformation. Serving more than 600 customers in 30 countries, Sapiens offers insurers across Property &amp; Casualty, Workers Compensation and Life markets the most comprehensive set of solutions, from core to complementary, including Reinsurance, Financial &amp; Compliance, Data &amp; Analytics, Digital, and Decision Management. Sapiens team of more than 5,000 employees operates through our offices in North America, the UK, EMEA and Asia Pacific.
+We're seeking for an experienced and creative Senior Java Developer to join our R&amp;D team.
+Roles and Responsibilities:
+Designing, development of core components/services which are flexible, extensible, multi-tier, scalable, high performance;
+Providing technical leadership and mentoring to junior developers;
+Developing use cases and design alternatives in accordance with business requirements;
+Interact with Product Owner and Business analyst across geographies to leverage expertise and take up development to the next level;
+Participating in code reviews, working with business analyst and testers to effectively document and validate all implementations;
+Ability to understand and discuss technical concepts, schedule tradeoffs and opportunistic new ideas with technical employees;
+Working with development methodologies used by the company such as Agile.
+ Desired Skills and Experience
+4+ years of experience in Web development;
+Proficiency with fundamental front-end languages such as HTML, CSS, and JavaScript;
+Experience with JavaScript frameworks such as NodeJs, React and Angular;
+Experience with W3C components, Custom Elements API , Templates, shadowDOM;
+Experienced working with XML and JSON, Spring, Hibernate and web services architecture, such as SOAP and/or REST;
+Experience working with relational database, such as MS-SQL and/or Oracle, PostgreSQL;
+Experience with NoSQL Databases such as MogoDB and/or Cassandra;
+Experience working with Open Source frameworks and Kubernetes clusters.
+ Advantage:
+Experience in Scala, Streaming, Functional programming, Data distribution, ElasticSearch;
+Experience in Micro-services architecture;
+Data experience with Kafka, Spark;
+Knowledge in Insurance;
+Test Driven Development.
+We offer:
+Annual bonus as 13th salary payment (in the amount of 1 salary calculated proportionally worked month during a year);
+Paid lunch in the lunch restaurant on the 1st floor of the office building (24/7 healthy snacks and beverages in our office canteen);
+Health insurance after the trial period;
+Possibility to gain professional experience and learn from global industry experts;
+Stable project &amp; diversified working environment;
+Employee engagement events globally and locally;
+Training budget to develop skills and expertise.
+ Join us and become part of our common success!
+ Sapiens is an E-Verified &amp; Equal Opportunity/Affirmative Action Employer, M/F/D/V.
+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 4 stundas | Beidzas: 29.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="150" customHeight="1">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>eCommerce Solutions Specialist (Business Developer)</t>
+          <t>Integration Developer (.NET and Azure)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>scandiweb</t>
+          <t>Evolution Latvia SIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rīga /  Attālināti</t>
+          <t>Rīga</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>€ 1500 – 2500</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 15.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
+          <t>€ 4000 – 5500</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Your main responsibilities will be to design and implement integrations and data flows between various business-critical systems and services. Refactor and maintain existing integrations according to business requirements. Ensure all integrations are secure and fault-tolerant.
+Your responsibilities:
+Build serverless applications with Azure App Services and Azure Functions (we
+use C#);
+Build ETL processes and flows with Azure Data Factory and connect systems
+via various APIs;
+Develop back-end sync services for data exchange;
+Stick to the best development practices, including ensuring good test coverage;
+Deploy and administer Azure resources and services required for integrations;
+Ensure systems and applications monitoring, problem analysis, troubleshooting and resolution;
+Keep solutions well-documented.
+To succeed in this role you should have:
+Solid experience in business systems and tools development in .NET and C#;
+Knowledge of TypeScript is a bonus;
+Familiarity with systems integration and development patterns;
+Knowledge of database technologies;
+Knowledge of Azure services and experience of building solutions based on a serverless cloud architecture;
+Knowledge of best DevOps practices;
+Ability to pick up and learn new technologies quickly.
+We offer:
+Challenging work with the latest technologies in a dynamic international team;
+A competitive, experience-based remuneration package;
+Opportunities to progress within the company;
+A healthy mix of startup-like culture of the company, which enables us to try new approaches and technologies and remain on the edge of technological development and enterprise, with stability and supporting functions to help you focus on your job;
+Being a part of an international team in a successful, publicly traded company;
+Health insurance, contemporary office environment, training, and other benefits and perks.
+</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 4 stundas | Beidzas: 12.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="150" customHeight="1">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Legal Specialist</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>scandiweb</t>
+          <t>SEHNER-International SIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -599,27 +663,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>€ 1000 – 2000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 9 stundas | Beidzas: 20.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
+          <t>€ 2500 – 4500</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sehner-International, SIA is looking for a software developer with a data focus to join our technical team to develop databases, web interfaces and other solutions for data exploration, data management and reporting.  
+  We gather, connect, enrich and manage data about companies in Germany, Austria, Switzerland, Spain and Italy. Our solutions help the Sehner Group offices in Hamburg, Vienna, Barcelona and Milan with M&amp;A consulting, target search, data management, research, analysis and data sales. We have a focus on companies in Care &amp; Support, Food &amp; Consumer, Healthcare, Industrial &amp; Commercial, and IT &amp; Software markets and are expanding to more data sources, countries and markets. 
+Technologies and tools we use:
+Python 
+PostgreSQL, Elasticsearch 
+JavaScript, React 
+Docker, AWS 
+JetBrains, GitLab, Jira
+Requirements:
+Experience with PostgreSQL (or other relational databases). 
+Experience with backend development (data processing, services, APIs). 
+Experience with Python (will be considered an advantage) or desire to learn it. 
+Experience with HTML, CSS, JavaScript, React will be considered an advantage. 
+Professional knowledge of the English language. 
+Knowledge of German is a plus, but not required.
+We value:
+Initiative and active participation. 
+Analytical approach to problem-solving. 
+Desire to learn and master new technologies.
+We offer:
+Salary from EUR 2500 to 4500 gross (depending on experience). 
+Friendly and professional team. 
+Flexible work schedule with remote/hybrid work options. 
+International work environment. 
+Office in the Riga city centre. 
+</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 1 diena | Beidzas: 04.02.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="150" customHeight="1">
       <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Junior PPC Specialist</t>
+          <t>Integration Lead</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>scandiweb</t>
+          <t>Sapiens Software Solutions (Latvia) SIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -629,57 +723,142 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>€ 700 – 1400</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 stundas | Beidzas: 06.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
+          <t>€ 3600 – 4700</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sapiens International Corporation (NASDAQ and TASE: SPNS) empowers the financial sector, with a focus on insurance, to transform and become digital, innovative, and agile. Backed by 40 years of industry expertise, Sapiens offers a complete insurance platform, with pre-integrated, low-code solutions and a cloud-first approach that accelerates customers digital transformation. Serving more than 600 customers in 30 countries, Sapiens offers insurers across Property &amp; Casualty, Workers Compensation and Life markets the most comprehensive set of solutions, from core to complementary, including Reinsurance, Financial &amp; Compliance, Data &amp; Analytics, Digital, and Decision Management. Sapiens team of more than 5,000 employees operates through our offices in North America, the UK, EMEA and Asia Pacific. 
+We are extending our Life &amp; Pension Division and looking for Integration Lead. You'll be giuding architectural solutions and leading an experienced technical integration Agile scrum team, including business analysts, developers, and QAs, to drive and operate both the planning and delivery of our integration in high-quality and great performances. This is an ideal opportunity for somebody with a software development background, strong business analysis skills, and proven customer-facing experience to be an important part of InsureTech Revolution.
+Integration Lead responsibilities:
+Writing up Requirements, Design, Interface, and Output Documents and ensuring they are delivered on time.
+Reviewing and Signoff all Requirements and Design Documents in tandem with Sapiens' clients.
+Attending, minuting, and occasionally leading requirement and design workshops internally and externally.
+Engaging with Delivery Manager and Project Director/PM on all project Actions, Assumptions, Risks, Issues, Decisions, Constraints.
+Writing and refining Agile stories and participating fully as a Scrum team member.
+Agreeing the design of refined stories with Developers and QA, including Acceptance Criteria and Estimates.
+Supporting Development throughout the build phase.
+Reviewing the Test Scripts and supporting testing throughout the test phase.
+Assisting the client to build "as is" and "to be" processes including demonstrating the system both face-to-face and over screen share.
+Assisting SBA and providing clients with functional analysis design advice guidance and consultancy in Sapiens solutions throughout the project
+Managing and participating in Peer Review activities, interacting with Business Analysts, to ensure quality and completeness of requirements and design work.
+Configuring/Supporting the configuration of the parameters that determine the functionality specified in the design documentation.
+Supporting the planning of the Requirement Specifications and Design phase, including sizing and phasing to allow the delivery of complete quality solutions to cost and schedule.
+Working on Sapiens processes and Sapiens best practices.
+ Skills and Experience required:
+At least 5 years of experience as an IT Technical product manager with delivering products.
+Background in Systems Design, Software Development, Infrastructure Architecture, and Data Engineering.
+Familiarity with the world of insurance and insurance systems.
+Strong analytical decision-making skills, business thinking, independence, and organization.
+Experience working with web services architecture (API), such as SOAP and/or REST. 
+Strong knowledge and technical understanding of integration solutions. 
+Strong SQL skills.
+Customer-facing experience.  
+Experience working with ETL interfaces (preferred Talend).
+Experience in cloud environment and services security methods. 
+Excellent presentation communication skills across technical stakeholders.
+Technical and Personal mentorship and support for helping level up the skills of colleagues on the team. 
+Experience working with Jira, Git. and Agile development methodologies (specifically Scrum). 
+Experience in Java development as an advantage.
+We offer:
+Annual bonus as 13th salary payment (in the amount of 1 salary calculated proportionally worked month during a year).
+Paid lunch in the lunch restaurant on the 1st floor of the office building (24/7 healthy snacks and beverages in our office canteen).
+Health insurance after the trial period.
+Possibility to gain professional experience and learn from global industry experts.
+Stable project &amp; diversified working environment.
+Employee engagement events globally and locally.
+Training budget to develop skills and expertise.
+ Join us and become part of our common success!
+ Sapiens is an E-Verified &amp; Equal Opportunity/Affirmative Action Employer, M/F/D/V.
+</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 2 dienas | Beidzas: 27.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="150" customHeight="1">
       <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sales Development Specialist</t>
+          <t>DevOps Integration Engineer</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>scandiweb</t>
+          <t>SOLNAMS SIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rīga /  Attālināti</t>
+          <t>Rīga</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>€ 700 – 1800</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 stundas | Beidzas: 06.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
+          <t>€ 4000 – 6500</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The role is advertised for: Cembra Technologies SIA, LV 40203462827
+ Cembra Technologies SIA is a new set-up in Riga, company registered in April 2023, as a software development hub for Cembra Pay AG.
+Cembra Technologies SIA provides nearshore support, such as Software Development and Management, Application Management and Administration to the partner organizations: Cembra Pay AG providing Buy now Pay, later (BNPL) solutions/ and its mother company Cembra, a Swiss bank.
+Cembra is not a bank in the traditional sense, but a financial services provider and provider of innovative, digital payment solutions. Cembra offers its customers simple and uncomplicated financing solutions for all life situations, such as personal loans, leasing and credit cards.
+ DevOps Integration Engineer
+(all genders)
+JOB DESCRIPTION:
+Responsible for the availability, performance tuning, deployments, monitoring, emergency response, lifecycle and capacity planning of integration services.
+Responsible for providing L2 production support and also for delivering support on project requests and related activities.
+Define availability targets, service level objectives, support budgets, rollback and fix forward strategies.
+Encouraging, proposing and building automated processes wherever possible
+Continuous delivery of platform capabilities in the areas of containerization, automation, securety, DevOps and CI/CD
+ REQUIREMENTS FOR THE ROLE:
+Computer Science or related engineering degree.
+Fluent English is a must; any Swiss official language is an advantage.
+4+ years of prior experience in a DevOps/Agile setup, ideally in a banking environment, in an operational role.
+Good experience managing (deploying, troubleshooting, monitoring, etc.) micro-services in a Kubernetes (ideally OpenShift) cluster and distributed applications in any virtualized environment, using CI/CD tools.
+Team player, with the right motivation and mindset to bring your team further as well as continuous development mentality.
+Solid understanding of enterprise backend programming languages and frameworks, ideally Java and Spring framework (will be considered as an advantage)
+ COMPANY OFFERS:
+A chance to become the part of a dynamic and growing and very friendly environment.
+Travel possibility to Swiss office, international environment, remote and on-site teams.
+Modern, well-equipped office in emerging Skanstes area.
+Health insurance competitive package.
+Mental health support program.
+3 supplementary days in order to support wellbeing of our employees.
+Birthday gifts for employees.
+Regular office events and team building support activities.
+ Office: Riga, Place 11
+Working conditions: Hybrid mode
+Parking place: will be provided if employee works most of the days from office.
+Working hours: regular, from 9AM to 6PM on business days, standby shifts (until 9PM) can be applicable for this role.
+ Salary: 4000 - 6500 EUR Gross Monthly
+</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 2 dienas | Beidzas: 13.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="150" customHeight="1">
       <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Web / Full Stack Software Engineer </t>
+          <t>Senior Front-End Developer (React)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SOLNAMS SIA</t>
+          <t>Arvato Systems Latvia SIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,27 +868,67 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>€ 4000 – 6500</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 1 diena | Beidzas: 05.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
+          <t>€ 3800 – 4800</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Responsibilities
+Contribute to architecture and design of components in React.js, testing strategy and deployments to test, integration and production systems
+Hands-on role requiring both production of design artifacts and coding of critical elements
+Interface with the product owner, team members, other teams, and stakeholders
+Take ownership of the team's deliverables, ensuring that the team produces high-quality deliverables
+Provide programming duties with an emphasis on requirements development, planning, analysis and design, testing &amp; acceptance phases of the application software
+Verify source code with testing strategy
+Participation in design and code reviews
+Requirements
+More than 5 years of relevant work experience in software frontend development
+Strong proficiency in JavaScript (ES5, ES6)
+Strong proficiency with JavaScript framework React and React hooks
+Strong proficiency with RESTful, Websockets
+Good knowledge of HTML5, CSS, Sass, and experience in UI/UX
+Experience in application testing Jest, writing unit tests
+Experience with backend tools Azure, Docker
+Experience in code versioning
+Having Experience with the Atomic Design approach
+Familiarity with modern front-end build pipelines and tools
+Experience with common front-end development tools such as Babel, Webpack, NPM, Yarn etc.
+High analytical skills as well as a structured, solution-oriented and independent way of working
+Fluent in English
+Strong team player skills, communication and interpersonal skills: kind, friendly, and cooperative
+Nice to have:
+Experience on Video Processing and Compression: Understanding video codecs, formats, and compression techniques, for example, with tools like FFmpeg or WebCodecs.
+Familiarity with Streaming Protocols: Knowledge of real-time streaming protocols such as RTMP, HLS, or DASH would be advantageous.
+Media File Management and Metadata Handling Experience: Experience in managing media files, handling metadata, and organizing large libraries of audio and video assets would be beneficial.
+We Offer
+Monthly gross salary from 3800 to 4800 EUR, depending on your level of expertise. 
+Hybrid way of working with cozy office space in the center of Riga, when needed, and flexible working hours opportunities, based on your own preferences. 
+Family-oriented company values and healthy attitude towards work and life balance - granting additional 4 vacation days, birthday leave, "Happy Land" space in the office for children, etc. 
+Individual development and learning plan, including yearly budget for external training. 
+Necessary essentials health insurance with dental services and sports coverage. 
+Possibility to work in mutual trust and positive team environment, to be creative and improve working flows by self-initiatives. 
+Friendly, multicultural and cooperation orientated colleagues. 
+</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 2 dienas | Beidzas: 20.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="150" customHeight="1">
       <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Web projektu vadītājs (mid-level / senior)</t>
+          <t>PHP Backend Developer / PHP Backend Izstrādātājs/-a</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>caballero | digital agency</t>
+          <t>AGCSOFT SIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -719,57 +938,59 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>€ 1700 – 3500</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 15 dienas | Beidzas: 18.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
+          <t>€ 2000 – 5000</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 3 dienas | Beidzas: 02.02.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="150" customHeight="1">
       <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Project manager at Portfolio and Project management team in SEB Baltics</t>
+          <t>Vecākais Back-End Izstrādātājs</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SEB</t>
+          <t>SAF TEHNIKA AS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rīga</t>
+          <t>Rīga /  Attālināti</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>€ 2300 – 4400</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 1 diena | Beidzas: 02.02.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
+          <t>€ 3500 – 4500</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 3 dienas | Beidzas: 02.02.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="150" customHeight="1">
       <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WEB satura administrators/-e</t>
+          <t>Back-end engineer</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tet SIA</t>
+          <t xml:space="preserve">Ubiquiti (Latvia) SIA </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -779,27 +1000,65 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>€ 1000 – 1400</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 12 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
+          <t>€ 2500 – 7000</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Responsibilities:
+Willing to share knowledge and code review;
+Actively participate in all projects and voice your ideas and solutions;
+Maintain a good programming style and stay up-to-date with the latest technology and trends;
+Design developer-friendly APIs that are secure, scalable, and well-documented;
+Communicate complex technical topics with stakeholders product managers, embedded, mobile and front-end developers, design UX.
+Requirements:
+3+ years of experience with NodeJS;
+Familiarity with latest ECMA-Script specifications. SQL (Postgres or similar);
+Working knowledge of web security (OWASP, browser security model, OAuth);
+Excellent debugging and testing skills, and an eye for defensive programming;
+Solid knowledge about programming, design patterns and web protocols;
+Familiar with Git, Unix / Linux;
+Fluent in English and Latvian.
+Nice to have:
+Familiarity with Docker;
+TypeScript;
+C++, Python;
+WebRTC.
+Our project stack:
+Services in NodeJS (TypeScript) with Postgresql DB;
+Services in C++;
+Frontend in React with real-time communication (WebRTC);
+iOS &amp; Android apps.
+Benefits:
+International work environment and work with global development teams;
+Ability to deliver software that is used by millions of people across the globe;
+Access to all Ubiquiti products;
+Medical insurance;
+Hybrid approach - office in Riga;
+Flexible work hours;
+Compensation package matching global standards, including competitive salary depending on your qualification and background (starting from 2500 up to 7000 Euro gross monthly);
+A-class office with all the necessities - snacks, drinks, free parking, etc!
+</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 3 dienas | Beidzas: 05.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="150" customHeight="1">
       <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Junior Web Developer</t>
+          <t>QA Automation Engineer</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>IDT Media SIA</t>
+          <t xml:space="preserve">Ubiquiti (Latvia) SIA </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -809,27 +1068,61 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>€ 850 – 1500</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
+          <t>€ 2500 – 5000</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Responsibilities:
+Day-to-day work with various kind of Network type devices;
+Create, maintain and execute automated test scripts;
+Identify and report bugs, ensuring proper follow-up;
+Perform front-end and back-end testing throughout the entire QA process;
+Analyse release notes, project documentation and other project artefacts to identify new or update existing test scenarios.
+Requirements:
+3+ years AQA experience in similar position;
+Jenkins pipelines + DSL (Groovy);
+Java + Selenium;
+Bash scripting;
+General understanding in Network (Internet, WiFi, VLAN, Firewall, VPN etc.);
+Strong understanding in MQA testing process;
+Fluent in English and Latvian.
+Nice to have:
+JavaScript;
+Python;
+System Administration;
+DevOps (CI/CD setup &amp; administration, Terraform scripts);
+Network administration.
+Benefits:
+International work environment and work with global development teams;
+Ability to deliver software that is used by millions of people across the globe;
+Access to all Ubiquiti products;
+Medical insurance;
+Hybrid approach - office in Riga;
+Flexible work hours;
+Compensation package matching global standards, including competitive salary depending on your qualification and background (starting from 2500 up to 5000 Euro gross monthly);
+A-class office with all the necessities - snacks, drinks, free parking, etc!
+</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 3 dienas | Beidzas: 19.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="150" customHeight="1">
       <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Senior Data &amp; AI Engineer (Python, PowerBI)</t>
+          <t>Back-End Developer</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Arvato Systems Latvia SIA</t>
+          <t>Atea Global Services</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -839,177 +1132,431 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>€ 3800 – 4800</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 10 stundas | Beidzas: 20.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
+          <t>€ 2200 – 3900</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 3 dienas | Beidzas: 02.02.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="150" customHeight="1">
       <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Scrum Master</t>
+          <t>Solution and Integration Engineer</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Swedbank AS</t>
+          <t>SOLNAMS SIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rīga /  Attālināti</t>
+          <t>Rīga</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>€ 2700 – 4100</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 05.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
+          <t>€ 5000 – 7500</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The role is advertised for: Cembra Technologies SIA, LV 40203462827
+Cembra Technologies SIA is a new set-up in Riga, company registered in April 2023, as a software development hub for Cembra Pay AG.
+Cembra Technologies SIA provides nearshore support, such as Software Development and Management, Application Management and Administration to the partner organizations: Cembra Pay AG providing Buy now Pay, later (BNPL) solutions/ and its mother company Cembra, a Swiss bank.
+Cembra is not a bank in the traditional sense, but a financial services provider and provider of innovative, digital payment solutions. Cembra offers its customers simple and uncomplicated financing solutions for all life situations, such as personal loans, leasing and credit cards.
+Solution and Integration Engineer
+(all genders)
+JOB DESCRIPTION:
+Prepare the solution design documentation for changes and also develop integrated solutions mainly for middleware and backend applications.
+Undertake the technical ownership of Cembras middleware and backend applications and micro services.
+Act as a SME and integrator with third parties providing designs specifications and also development of backend services.
+Contribute towards the timely completion of development tasks for change initiatives and projects.
+Liaise with production support and operations teams for Troubleshooting of production software and bug fixing (level 3 support).
+Continually learn and apply relevant software development practices, patterns, tools and technologies and actively contribute to the Banks technical selections/decisions.
+REQUIREMENTS FOR THE ROLE:
+Master or Bachelor degree in computer science (or equivalent).
+7+ years of backend or distributed systems Java development knowledge (EE/Spring).
+Knowledge of messaging systems and experience in designing and implementing ESB/Middleware solutions and applications integration.
+Web technologies (SOAP, REST) and Microservice (MSA) architecture and strong understanding of software design patterns &amp; object-oriented principles.
+Working experience with Java applications servers (WAS, JBoss, Tomcat) and relational databases and knowledge of common networking, infrastructure, operating systems and security fundamentals.
+A solid grasp on software engineering practices (e.g., thorough code reviews, unit tests, deep focus on quality, design documentation).
+Working experience with FE development and JavaScript frameworks is considered a plus.
+Fluent in English is a must, German is a plus.
+COMPANY OFFERS:
+A chance to become the part of a dynamic and growing and very friendly environment.
+Travel possibility to Swiss office, international environment, remote and on-site teams.
+Modern, well-equipped office in emerging Skanstes area.
+Health insurance competitive package.
+Mental health support program.
+3 supplementary days in order to support wellbeing of our employees.
+Birthday gifts for employees.
+Regular office events and team building support activities.
+Office: Riga, Place 11
+Working conditions: Hybrid mode
+Parking place: will be provided if employee works most of the days from office.
+Working hours: regular, from 9AM to 6PM on business days.
+Salary: 5000 - 7500 EUR Gross Monthly
+If you really interested in the role, but feel that salary range or some role requirements is an issue, we encourage you to get in touch with us.
+</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 3 dienas | Beidzas: 05.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="150" customHeight="1">
       <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Scrum Master to Group Business Intelligence</t>
+          <t xml:space="preserve">Web / Full Stack Software Engineer </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Swedbank AS</t>
+          <t>SOLNAMS SIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rīga /  Attālināti</t>
+          <t>Rīga</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>€ 2700 – 4200</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 6 stundas | Beidzas: 07.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
+          <t>€ 4000 – 6500</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The role is advertised for: Cembra Technologies SIA, LV 40203462827
+Cembra Technologies SIA is a new set-up in Riga, company registered in April 2023, as a software development hub for Cembra Pay AG.
+Cembra Technologies SIA provides nearshore support, such as Software Development and Management, Application Management and Administration to the partner organizations: Cembra Pay AG providing Buy now Pay, later (BNPL) solutions/ and its mother company Cembra, a Swiss bank.
+Cembra is not a bank in the traditional sense, but a financial services provider and provider of innovative, digital payment solutions. Cembra offers its customers simple and uncomplicated financing solutions for all life situations, such as personal loans, leasing and credit cards.
+Web / Full Stack Software Engineer
+(all genders)
+Being a member of the Customer &amp; Partner Solutions team of Cembra, you will actively participate in all stages of the software development lifecycle mainly focusing on requirements engineering, software design and development activities for the Banks existing and new web and mobile applications. If you are a self-starter with a strong desire to increase efficiency and make an impact to the Banks vision towards digital transformation, we look forward to receiving your application.
+JOB DESCRIPTION:
+Work with experienced engineers to design and develop web applications and backend services.
+Integrate with the existing applications portfolio as well as third parties software.
+Contribute towards the timely completion of development tasks for change initiatives and projects.
+Liaise with production support and operations teams for Troubleshooting of production software and bug fixing (level 3 support).
+Continually learn and apply relevant software development practices, patterns, tools and technologies and actively contribute to the Banks technical selections/decisions.
+REQUIREMENTS FOR THE ROLE:
+Master or Bachelor degree in computer science (or equivalent).
+5+ years working experience with JavaScript/TypeScript frameworks, preferably React.
+Hands on experience in developing Spring Boot backend services.
+Experience with Web technologies (SOAP, REST) and Microservice Architecture; strong understanding of software design patterns, object oriented principles and modern software engineering practices.
+Strong understanding of software design patterns, object-oriented principles and modern software engineering practices.
+Fluent in English is a must, German is a plus.
+COMPANY OFFERS:
+A chance to become the part of a dynamic and growing and very friendly environment.
+Travel possibility to Swiss office, international environment, remote and on-site teams.
+Modern, well-equipped office in emerging Skanstes area.
+Health insurance competitive package.
+Mental health support program.
+3 supplementary days in order to support wellbeing of our employees.
+Birthday gifts for employees.
+Regular office events and team building support activities.
+Office: Riga, Place 11
+Working conditions: Hybrid mode
+Parking place: will be provided if employee works most of the days from office.
+Working hours: regular, from 9AM to 6PM on business days.
+Salary: 4000 - 6500 EUR Gross Monthly
+If you really interested in the role, but feel that salary range or some role requirements is an issue, we encourage you to get in touch with us.
+</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 3 dienas | Beidzas: 05.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="150" customHeight="1">
       <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IT Business Analyst</t>
+          <t>Senior Node.js Developer</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Swedbank AS</t>
+          <t>SIA "Dynatech"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rīga /  Attālināti</t>
+          <t>Rīga</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>€ 2700 – 4100</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 05.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
+          <t>€ 3500</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trevolution Group focuses on agency sales of air tickets and travel services to both retail and corporate clients, and it now sells over 70,000 air tickets and package holidays every month and is the seventh-largest consolidator in the US. 
+With our fast-growing business projects, we are looking for experienced developers to join one of our nine highly skilled teams. 
+We can offer you a project that matches your interests: a back-end for an online reservation system, CRM with complex business logic, an accounting/anti-fraud system, or payment processing; simply let us know what you feel most comfortable working with. 
+This is the ideal role for a BE development professional who is looking for a job with the value context and possibility to see the impact of his/ her daily duty. 
+Requirements: 
+Proficient with Node.js and TypeScript, ES6; 
+Experience with Nest.js; 
+Experience with relational and document-oriented databases; 
+Knowledge of Kubernetes and Docker. 
+What will be considered an advantage: 
+Proficiency with cloud services; 
+Team leading experience. 
+There is no one-size-fits-all here, we are quite flexible and use an individual approach with every Candidate we meet. While getting familiar during our interview, we try to understand where your working experience, professional skills and future contribution to the company can be applied within our multiple business projects. 
+ We don't want to set any limits, but if we are naming the numbers, then the starting point for this position is not less than 3500 EUR gross per month. 
+ With us you will:  
+Be a part of a top-tier team of professionals, work on global projects that reach millions worldwide, create complex one-of-a-kind in-house products and solutions;  
+Get opportunities for professional development: learn new skills with online courses, broaden your network in local and international conferences, receive mentoring; 
+Enjoy our learning-oriented culture: learn and exchange ideas in lectures and workshops led by your colleagues and team leaders;  
+Have flexible working hours and plan your day - it's all about the teamwork and performance; 
+Get extra benefits for your health and well-being; we will fully cover your health insurance (dentistry, out-patient treatment, etc.), organize well-being lectures and workshops to promote and support self-care, arrange an office yoga class, offer to take part in vaccination days in the office, and much more;  
+Get treated with delicacies at the office with weekly snack days, monthly morning brunches, and daily supply of fresh fruit and delicious coffee;   
+Enjoy a variety of employee discount programs and have fun at monthly internal activities and celebrations;  
+Work from a spacious, modern, and well-equipped office in the very heart of Riga, with parking space for bike or scooter. 
+</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 7 dienas | Beidzas: 29.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="150" customHeight="1">
       <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ART Architect (Production Platform Services)</t>
+          <t>Senior Golang Developer</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Swedbank AS</t>
+          <t>SIA "Dynatech"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rīga /  Attālināti</t>
+          <t>Rīga</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>€ 3800 – 5700</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 6 dienas | Beidzas: 03.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
+          <t>€ 3500</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trevolution Group focuses on agency sales of air tickets and travel services to both retail and corporate clients, and it now sells over 70,000 air tickets and package holidays every month and is the seventh-largest consolidator in the US. 
+With our fast-growing business projects, we are looking for experienced developers to join one of our nine highly skilled teams. 
+We can offer you a project that matches your interests: a back-end for an online reservation system, CRM with complex business logic, an accounting/anti-fraud system, or payment processing; simply let us know what you feel most comfortable working with. 
+This is the ideal role for a BE development professional who is looking for the job with the value context and possibility to see the impact of his/ her daily duty. 
+Requirements: 
+Strong experience with GoLang;
+Good experience in system design and architecture;
+Experience with Redis and MySQL/MariaDB/PostgreSQL; 
+Background in web development; 
+Understanding of server-side and Linux. 
+What will be considered an advantage:
+Experience with CI/CD tools and Cloud platforms; 
+Experience with Kubernetes and Docker. 
+There is no one-size-fits-all here, we are quite flexible and use an individual approach with every candidate we meet. While getting familiar during our interview, we try to understand where your working experience, professional skills and future contribution to the company can be applied within our multiple business projects. 
+We don't want to set any limits, but if we are naming the numbers, then the starting point for this position is not less than 3500 gross per month. 
+With us you will:  
+Be a part of a top-tier team of professionals, work on global projects that reach millions worldwide, create complex one-of-a-kind in-house products and solutions; 
+Get opportunities for professional development: learn new skills with online courses, broaden your network in local and international conferences, receive mentoring; 
+Enjoy our learning-oriented culture: learn and exchange ideas in lectures and workshops led by your colleagues and team leaders; 
+Have flexible working hours and plan your day - it's all about the teamwork and performance; 
+Get extra benefits for your health and well-being; we will fully cover your health insurance (dentistry, out-patient treatment, etc.), organize well-being lectures and workshops to promote and support self-care, arrange an office yoga class, offer to take part in vaccination days in the office, and much more;  
+Get treated with delicacies at the office with weekly snack days, monthly morning brunches, and daily supply of fresh fruit and delicious coffee;   
+Enjoy a variety of employee discount programs and have fun at monthly internal activities and celebrations;  
+Work from a spacious, modern, and well-equipped office in the very heart of Riga, with parking space for bike or scooter. 
+</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 7 dienas | Beidzas: 29.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="150" customHeight="1">
       <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Programmētājs/-a</t>
+          <t>IT Project Manager/IT Projektu Vadītājs</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SAF TEHNIKA AS</t>
+          <t>SoftGamings | SIA SOCRATES</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rīga /  Attālināti</t>
+          <t>Rīga</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>€ 2200 – 2800</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 16 dienas | Beidzas: 18.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
+          <t>€ 2000 – 4000</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SoftGamings ir strauji augošs IT uzņēmums ar vairāk nekā 15 gadu pieredzi. Sakarā ar paplašināšanos un jauniem aizraujošiem projektiem mēs meklējam talantīgus cilvēkus savai komandai. Mēs augstu vērtējam savus darbiniekus un nodrošinām labvēlīgu vidi, kas veicina izaugsmi un attīstību, kā arī darām visu iespējamo, lai iedvesmotu mūsu komandas locekļus un veicinātu patīkamu atmosfēru birojā, nodrošinot, ka darbs ir patīkams un pilnvērtīgs. Kļūstiet par daļu no mūsu dinamiskās komandas, kurā varēsiet attīstīties un radīt pārmaiņas!
+SoftGamings is a rapidly growing IT company with over 15 years of proven experience. We are seeking talented individuals to join our team due to expansion and exciting new projects. At our company, we value our employees and provide a supportive environment that encourages growth and development. We go the extra mile to inspire our team members and foster a pleasant atmosphere in the office, ensuring that work is enjoyable and fulfilling. Come be a part of our dynamic team where you can thrive and make a difference!
+SoftGamings ir strauji augošs IT uzņēmums ar vairāk nekā 15 gadu pieredzi. Sakarā ar paplašināšanos un jauniem aizraujošiem projektiem mēs meklējam talantīgus cilvēkus savai komandai. Mēs augstu vērtējam savus darbiniekus un nodrošinām labvēlīgu vidi, kas veicina izaugsmi un attīstību, kā arī darām visu iespējamo, lai iedvesmotu mūsu komandas locekļus un veicinātu patīkamu atmosfēru birojā, nodrošinot, ka darbs ir patīkams un pilnvērtīgs. Kļūstiet par daļu no mūsu dinamiskās komandas, kurā varēsiet attīstīties un radīt pārmaiņas!
+SoftGamings is a rapidly growing IT company with over 15 years of proven experience. We are seeking talented individuals to join our team due to expansion and exciting new projects. At our company, we value our employees and provide a supportive environment that encourages growth and development. We go the extra mile to inspire our team members and foster a pleasant atmosphere in the office, ensuring that work is enjoyable and fulfilling. Come be a part of our dynamic team where you can thrive and make a difference!
+Pienākumi/Responsibilities:
+IT projektu vadība un i-Gaming projektu izstrāde.
+Projekta komandas, kas ietver programmētājus, HTML izvietojuma dizainerus, dizainerus, testētājus un aizmugursistēmu izstrādātājus, vadība.
+Atbildība par gala termiņiem, funkcionalitāti un projekta progresu.
+Komunikācija ar klientiem un projekta komandu.
+Projektam nepieciešamo cilvēkstundu aprēķins (ar projekta komandas locekļu palīdzību).
+Galaprodukta kvalitātes nodrošināšana (darbs ar testētājiem).
+Management of IT projects and development of i-Gaming projects.
+Management of the project team, consisting of programmers, HTML layout designers,
+designers, testers and backend developers.
+Responsibility for deadlines, functionality and project progress.
+Communication with customers and the project team.
+Estimation of man-hours required for a project (with a help of the project team members).
+Quality management of the final product (work with testers).
+IT projektu vadība un i-Gaming projektu izstrāde.
+Projekta komandas, kas ietver programmētājus, HTML izvietojuma dizainerus, dizainerus, testētājus un aizmugursistēmu izstrādātājus, vadība.
+Atbildība par gala termiņiem, funkcionalitāti un projekta progresu.
+Komunikācija ar klientiem un projekta komandu.
+Projektam nepieciešamo cilvēkstundu aprēķins (ar projekta komandas locekļu palīdzību).
+Galaprodukta kvalitātes nodrošināšana (darbs ar testētājiem).
+Management of IT projects and development of i-Gaming projects.
+Management of the project team, consisting of programmers, HTML layout designers,
+designers, testers and backend developers.
+Responsibility for deadlines, functionality and project progress.
+Communication with customers and the project team.
+Estimation of man-hours required for a project (with a help of the project team members).
+Quality management of the final product (work with testers).
+Prasības/Requirements:
+Pieredze IT vadītāja, projektu vadītāja amatā IT jomā.
+Darba pieredze i-Gaming jomā tiks uzskatīta par priekšrocību.
+Interneta lietotņu projektu izstrādes tehnoloģiju zināšana.
+Izstrādes vadības mūsdienu tehnoloģiju zināšana (SCRUM, KANBAN u.tml.) un faktiska pieredze minēto tehnoloģiju pielietošanā.
+Pieredze lietotņu projektu izstrādē klienta un servera pusē.
+Izpratne par darba principiem ar tīmekļa lietotnēm un fundamentālajām tīmekļa tehnoloģijām.
+Programmēšanas valodu, LAMP, HTML/CSS, MySQL u.c. pārzināšana tiek uzskatīta par priekšrocību.
+Analītiska domāšana un precizitāte darbā.
+Labas komunikācijas prasmes.
+Brīva angļu un krievu valodas pārvaldīšana rakstiski un mutiski.
+Experience as an IT manager, project manager in IT field.
+Experience in i-Gaming would be considered as an advantage.
+Knowledge of technologies behind web projects.
+Knowledge of contemporary methodologies for managing development (SCRUM,
+KANBAN etc.) and actual experience in applying said methodologies.
+Experience in full stack development projects.
+Understanding of principles of the work with web apps and fundamental web technologies.
+Command of programming languages, LAMP, HTML/CSS, MySQL etc. is considered an
+advantage.
+Analytic mind-set and preciseness in work.
+Good communication skills.
+Free command of English and Russian languages both written and verbal.
+Pieredze IT vadītāja, projektu vadītāja amatā IT jomā.
+Darba pieredze i-Gaming jomā tiks uzskatīta par priekšrocību.
+Interneta lietotņu projektu izstrādes tehnoloģiju zināšana.
+Izstrādes vadības mūsdienu tehnoloģiju zināšana (SCRUM, KANBAN u.tml.) un faktiska pieredze minēto tehnoloģiju pielietošanā.
+Pieredze lietotņu projektu izstrādē klienta un servera pusē.
+Izpratne par darba principiem ar tīmekļa lietotnēm un fundamentālajām tīmekļa tehnoloģijām.
+Programmēšanas valodu, LAMP, HTML/CSS, MySQL u.c. pārzināšana tiek uzskatīta par priekšrocību.
+Analītiska domāšana un precizitāte darbā.
+Labas komunikācijas prasmes.
+Brīva angļu un krievu valodas pārvaldīšana rakstiski un mutiski.
+Experience as an IT manager, project manager in IT field.
+Experience in i-Gaming would be considered as an advantage.
+Knowledge of technologies behind web projects.
+Knowledge of contemporary methodologies for managing development (SCRUM,
+KANBAN etc.) and actual experience in applying said methodologies.
+Experience in full stack development projects.
+Understanding of principles of the work with web apps and fundamental web technologies.
+Command of programming languages, LAMP, HTML/CSS, MySQL etc. is considered an
+advantage.
+Analytic mind-set and preciseness in work.
+Good communication skills.
+Free command of English and Russian languages both written and verbal.
+Mēs piedāvājam/We offer:
+Izaicinošus un interesantus darba uzdevumus.
+Apmācību un 360° atbalstu, sākot no pirmās dienas.
+Konkurētspējīgu atalgojumu un reālas izaugsmes iespējas.
+Modernu biroju un elastīgu darba dienas sākumu.
+Draudzīgu komandu un aizraujošus komandas pasākumus.
+Veselības apdrošināšanu pēc pārbaudes laika.
+Augļus, uzkodas un garšīgu kafiju.
+Challenging and interesting work tasks.
+Training and 360° support starting from the first day.
+Competitive salary and real growth opportunities.
+Modern office and flexible start of the working day.
+Friendly team and cool teambuilding events.
+Health insurance after the probationary period.
+Fruits, snacks and tasty coffee.
+Izaicinošus un interesantus darba uzdevumus.
+Apmācību un 360° atbalstu, sākot no pirmās dienas.
+Konkurētspējīgu atalgojumu un reālas izaugsmes iespējas.
+Modernu biroju un elastīgu darba dienas sākumu.
+Draudzīgu komandu un aizraujošus komandas pasākumus.
+Veselības apdrošināšanu pēc pārbaudes laika.
+Augļus, uzkodas un garšīgu kafiju.
+Challenging and interesting work tasks.
+Training and 360° support starting from the first day.
+Competitive salary and real growth opportunities.
+Modern office and flexible start of the working day.
+Friendly team and cool teambuilding events.
+Health insurance after the probationary period.
+Fruits, snacks and tasty coffee.
+Paldies par izrādīto interesi. Informējam, ka sazināsimies tikai ar 2. atlases kārtai izvirzītajiem kandidātiem.
+Thank you for your interest. Please be informed, that only shortlisted candidates will be contacted.
+Paldies par izrādīto interesi. Informējam, ka sazināsimies tikai ar 2. atlases kārtai izvirzītajiem kandidātiem.
+Thank you for your interest. Please be informed, that only shortlisted candidates will be contacted.
+</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 8 dienas | Beidzas: 28.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="150" customHeight="1">
       <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Microsoft Dynamics 365 Business Central izstrādātājs/-a</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CV-Online Recruitment</t>
+          <t>VISMA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1019,27 +1566,71 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>€ 3000 – 4500</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 14 stundas | Beidzas: 15.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
+          <t>€ 2500 – 4500</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Visma provides software solutions that cover HRM, Finance, Accounting, Talent Management and Payroll solutions with a diverse customer portfolio. Visma Labs is a team of more than 290 talented professionals in Latvia. We develop, test and support business systems, as part of an international organisation.
+Project: Visma Recruit
+Our flagship product, Visma Recruit, stands as a forefront recruitment solution in the Nordic and Dutch markets. It efficiently manages over 3 million job applications annually and provides essential support to over 30,000 monthly internal users, such as recruiters and hiring managers, in their day-to-day operations.
+Technology stack we use:
+Back-end: C#, .NET, MS SQL
+Front-end: Angular, Typescript, HTML, CSS/LESS, .NET
+Dev.environments: GIT, Octopus Deploy, TeamCity, Visual Studio, Azure DevOps
+Monitoring and visualisation: AppDynamics, Grafana
+Infra: Azure, Terraform, Packer, Windows VMs, IIS
+Other: Jira, Confluence, Slack
+Key responsibilities:
+Take ownership of the migration to the Public Cloud, Azure
+Configuring delivery pipeline and infrastructure
+Maintaining and continuously improving our existing infrastructure
+Coming up with architectural suggestions
+Monitoring and testing application performance for potential bottlenecks, identifying possible solutions and working with developers to implement those fixes
+We believe that you:
+Have experience and understanding of infrastructure as code
+Have a solution-oriented attitude to the challenges we face
+Have experience with programming and application development and can relate to the needs met in a development team that delivers services to customers
+Are very comfortable with the command line and are not afraid to familiarise yourself with unknown technologies and languages
+Have good verbal and written English skills
+Regardless of the long list of expectations mentioned above you do not need to be an expert in all areas. Equally important as all tech skills are how you fit into the group as a personality.
+We are offering:
+A company with strong values and a vision to create a better world. Leaders who balance a steady business focus and genuine concern for people.
+Modern, spacious A-class office in the center of Riga
+Remote work options
+Motivating salary from 2500 to 4500 EUR Gross depending on the competence level
+Year-end bonus
+Friendly, multicultural and cooperation-oriented team
+Talented and engaged colleagues in an international environment
+Health insurance
+Covered mobile phone bills
+Professional growth and internal development hubs
+Shortened working hours on Fridays
+Sports community (volleyball, participation at public sports events, etc.)
+Social events (monthly brunches, team building, parties and etc.)
+Company holiday apartments in Spain and France, fruits, and snacks in the office
+At Visma Labs we have a friendly and supportive company culture and we will do our best to make you feel welcome.
+</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 9 dienas | Beidzas: 26.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="150" customHeight="1">
       <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Norwegian Speaking Customer Service Specialist</t>
+          <t>Senior Fullstack Engineer with Solidus and NextJS experience, eCommerce Solution</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Transcom WorldWide Latvia SIA</t>
+          <t>DataArt Ltd</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1049,85 +1640,848 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>€ 1400 – 1750</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 27 dienas | Beidzas: 07.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
+          <t>€ 4000 – 4500</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 14 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="150" customHeight="1">
       <c r="A21" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Full Stack Engineer</t>
+          <t>Technical Leader Fullstack, AWS Services</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>DataArt Ltd</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Rīga /  Attālināti</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>€ 3900 – 4400</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 14 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="150" customHeight="1">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Strong Middle Golang Developer, AWS Services</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DataArt Ltd</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Rīga /  Attālināti</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>€ 3000 – 3400</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 14 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="150" customHeight="1">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Back-end programmētājs/a</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SIA DeskTime</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Rīga /  Attālināti</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>€ 2800 – 3500</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Darbs DeskTime noris dinamiskā un starptautiskā vidē. Tā ir iespēja iepazīt globālā tirgus specifiku, piedalīties projektu izstrādē un iegūt plašas zināšanas par SaaS jeb programmatūras kā pakalpojuma jomu. Tavs darbs ikdienā būs saistīts ar jaunu funkciju izveidi un esošo optimizāciju ciešā sadarbībā ar IT projektu vadītājiem, kā arī izstrādes, klientu atbalsta un mārketinga komandām.
+Pieteikumu izskatīšana tiks sākta 2024. gada 3. janvārī.
+Tavi pienākumi
+darbs ar jaunu funkciju izveidi un ieviešanu
+dalība visos projekta izstrādes posmos no idejas līdz gala risinājuma ieviešanai
+esošo risinājumu uzlabošana un optimizācija
+biznesa prasību analīze un jaunu funkciju izstrādes plānošana, piedāvājot savus ieteikumus un risinājumus
+Prasības, ko sagaidām
+pieredze un zināšanas PHP7
+pieredze un zināšanas MySQL
+pieredze un zināšanas Redis
+pieredze un zināšanas Git/Gitlab
+pieredze un zināšanas PHPUnit
+pieredze un zināšanas Laravel 6+
+Darba vide un rīki
+programmējam PHP/JavaScript
+strādājam ar JavaScript (ES5, ES6), Webpack, React
+rakstām CSS un izmantojam SCSS
+glabājam datus MySQL
+testējam kodu ar PHPUnit
+lietojam Laravel framework
+izmantojam Git/Gitlab, Jira
+sekojam OOP principiem sistēmas arhitektūrā
+ievērojam uzņēmumā ieviestos koda noformēšanas standartus
+Mēs piedāvājam
+ikmēneša atalgojumu no EUR 2800,- līdz EUR 3500,- bruto (viss būs atkarīgs no tavām zināšanām, prasmēm un līdzšinējās pieredzes)
+mūsdienīgu un labiekārtotu biroju Rīgā, Ojāra Vācieša ielā 6B, kā arī iespēju strādāt miksēti (attālināti/klātienē)
+35h darba nedēļu (vasaras periodā piektdienas ir saīsinātas par 2h)
+iespēju izvēlēties darbam nepieciešamo tehniku un platformu (Linux, Mac vai Windows)
+apmaksātas pusdienas birojā
+apmaksātu labumu karti tēriņiem ārpus biroja
+bezmaksas autostāvvietu pie biroja
+premium klases veselības apdrošināšanas polisi, visas sociālās garantijas
+sporta klubu abonementu neierobežotam apmeklējumu skaitam
+apmaksātu dzimšanas dienas brīvdienu, kā arī īpašas apmaksātas dienas veselības atjaunošanai
+iespēju pilnveidot zināšanas apmaksātās konferencēs un semināros
+jautrus komandas saliedēšanās pasākumus, iedvesmojošas vieslekcijas
+</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 16 dienas | Beidzas: 20.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="150" customHeight="1">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>If P&amp;C Insurance AS Latvijas filiāle</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>€ 3600 – 4400</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 21 dienas | Beidzas: 15.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="150" customHeight="1">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Senior Full-Stack Developer</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>VR Group Ltd</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>€ 4000 – 5000</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Requirements for candidates
+Bachelors degree in computer science, Information Technology, or related field (or equivalent work experience).
+Minimum 7 years of experience in the field of IT.
+Extensive experience as a Full Stack Developer, with a strong background in .NET technologies and hands-on experience with AWS services.
+Proficiency in front-end technologies such as HTML, CSS, JavaScript, and popular frameworks (e.g., React, Angular, or Vue.js).
+Strong understanding of back-end technologies, including C#, ASP.NET, and database management systems (SQL Server, MySQL, or similar).
+Experience with cloud platforms, especially AWS, including Lambda, API Gateway, S3, DynamoDB, and RDS.
+Excellent problem-solving skills, attention to detail, and ability to work collaboratively in a team environment.
+Strong communication skills, both written and verbal, with the ability to convey complex technical concepts to both technical and non-technical stakeholders.
+If you are a Senior Full Stack Developer with a passion for creating seamless end-to-end solutions using .NET and AWS technologies, and you thrive in a collaborative and challenging environment, we encourage you to apply. Join our team and contribute to building innovative and high-performing software applications that meet the needs of our users and clients.
+Nice to have
+Experience in Azure and AWS.
+Knowledge of other programming languages.
+Good communication skills in Swedish and/or Finnish.
+Certification
+AWS certification (or similar)
+Job description
+Would you like to work in a healthy IT environment? With people who like you are excited by new technology and challenges? To make a real difference in the future? Then you have found your way to the right team!
+Working with cloud solutions to leverage modern innovations with your unique talent for problem-solving and coding (if you are a developer), with others who are good at what they are doing. Being a part where ideas become reality, to change the way we think, work, and travel. That's what we do.
+About Digital Hub Riga
+We are a part of VR Group, a responsible provider of public transport for the future, with solid experience gained from 160 years of operations. The company provides passenger, logistics, and maintenance services in the Nordics. The Digital Hub is supporting the business in developing and managing modern IT solutions for MaaS (mobility-as-a-service) among other things.
+We develop innovative solutions and utilize the newest technologies to respond to all current and future needs. Everything from IoT, DaaS, MaaS, Location services, Machine Learning, AI, and much more are part of the work we do. And we play with buses, trucks, and trains!
+While keeping society moving, we are also promoting well-being and environmentally friendly solutions with green IT. By increasing the popularity of electric rail and city traffic, we are also paving the way for a carbon-neutral tomorrow.
+About the team
+The Digital Crew, e.g. the members of the Digital Hub, are organized into smaller teams that work with specific portfolios or workstreams. Each team has the ownership of one or more domains. Cross-team collaboration is common, and rotation within teams is done to ensure an overall level of knowledge sharing and competency. Typically, a team consists of a product owner, solution architect, lead developer, designer, developers, and testers. But any variation may exist. Teams are agile, working with scrum and two-week cycles. The majority of our solutions are cloud solutions, so working with AWS is a required must for all digital crew members.
+Job Description
+We are looking for a highly skilled Senior Full Stack Developer with expertise in both front-end and back-end technologies, specifically .NET and AWS. As a Senior Full Stack Developer, you will be responsible for designing, developing, and deploying robust and scalable software solutions that integrate seamlessly across both front-end and back-end environments. Your role will be pivotal in shaping our technology stack, ensuring optimal performance, security, and user experience for our applications.
+Key Responsibilities
+Full Stack Development: Utilize your proficiency in .NET technologies to develop back-end services, APIs, and databases, as well as your expertise in front-end technologies to create responsive, user-friendly interfaces for web applications.
+AWS Integration: Leverage your experience with AWS services to architect, develop, and deploy applications in the cloud, ensuring efficient utilization of AWS resources and scalability of the applications.
+Architecture and Design: Collaborate with architects and other developers to design software solutions, considering both functional and non-functional requirements, while adhering to best practices and architectural patterns.
+Database Management: Design and optimize database schemas, write complex queries and ensure data integrity and security, especially in cloud-based databases.
+API Development: Develop and maintain RESTful APIs, ensuring seamless communication between front-end and back-end components.
+Security and Compliance: Implement robust security measures, including encryption and access control, and ensure compliance with security standards and regulations in both front-end and back-end components.
+Collaboration: Work closely with cross-functional teams, including front-end developers, UX/UI designers, and DevOps engineers, to ensure the successful integration of front-end and back-end components.
+Testing and Quality Assurance: Write unit tests, conduct integration testing, and participate in code reviews to maintain code quality and ensure the reliability of the software.
+Documentation: Create technical documentation, including system architecture, API specifications, and deployment procedures, to facilitate efficient collaboration and knowledge sharing.
+Mentorship: Provide guidance and mentorship to junior developers, fostering a culture of continuous learning and improvement within the team.
+What we offer
+Salary from 4000 to 5000 EUR gross per month
+A full-time contract of employment with an ambitious team based in Riga.
+Hybrid work from our Digital hub in Riga
+Continuous learning and growth opportunities (Udemy)
+Your financial security: extensive health and life insurance
+Coverage for phone and home network.
+</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 23 dienas | Beidzas: 13.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="150" customHeight="1">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Middle Ruby / RoR developer</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>IT Camp</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>€ 3500 – 5000</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LevelPath (www.levelpath.com) - IT Camp partner - company that is focused on the public-facing enterprise applications that make enterprise sourcing/purchasing commerce faster, safer, and more transparent. The company was founded by a leadership team that previously built several meaningful software companies over the last decade. Theyre now turning their attention to building the next-gen enterprise system of record in a wide-open space. Its a huge opportunity and we need some amazing individuals to help make enterprises faster, safer and more transparent.
+We are looking for Middle Software engineer (Ruby on Rails) to build the strongest team.
+Stack: RoR, GraphQL, REST, React, PostgreSQL, AWS, Docker, K8s
+Team: international startup team with solid experience and wealth of knowledge
+Responsibilities:
+- Build our new amazing products (Ruby, Ruby On Rails, PostgreSQL, Docker);
+- Use your Back-end experience to improve the overall code quality, tools and processes;
+- Work with our frontend teams (Ruby on Rails backends) using GraphQL and REST.
+Requirements:
+- 3+ years using Ruby On Rails;
+- PostgreSQL, MySQL Knowledge;
+- Experience with Docker;
+- Excellent communication skills both verbal and written;
+- Enjoys working in a team and helping each other;
+- Knowledge in Front-end systems/frameworks like React/TS and similar is a plus.
+What company offers:
+- Flexible hours;
+- Agile working environment with short decision paths;
+- Your choice of devices and tools that make you work the best;
+- Popular tools: Slack, Google Meet, Github, AWS;
+- Salary up to 3500 EUR Net (on hand);
+- Stock options of the company as additional bonus.
+</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 24 dienas | Beidzas: 12.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="150" customHeight="1">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Senior Software engineer (React.js / TypeScript)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>IT Camp</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Rīga /  Attālināti</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>€ 5000 – 8000</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LevelPath (www.levelpath.com) - IT Camp partner - company that is focused on the public-facing enterprise applications that make enterprise sourcing/purchasing commerce faster, safer, and more transparent. The company was founded by a leadership team that previously built several meaningful software companies over the last decade. Theyre now turning their attention to building the next-gen enterprise system of record in a wide-open space. Its a huge opportunity and we need some amazing individuals to help make enterprises faster, safer and more transparent.
+We are looking for a Senior Software engineer (React.js / TypeScript) to build the strongest team.
+Stack: React, TypeScript,GraphQL, REST, Ruby, RoR, PostgreSQL, AWS, Docker, K8s
+Team: international startup team with solid experience and wealth of knowledge
+Responsibilities:
+- Build our new amazing applications (React/TS/GraphQL/REST);
+- Use your Front-end experience to improve the overall code quality, tools and processes;
+- Work with our backend teams (Ruby on Rails backends) using GraphQL and REST;
+- Work with our UI/UX designer to ensure the user experience is flawless.
+Requirements:
+- 3+ years using React and TypeScript;
+- Excellent communication skills both verbal and written;
+- Enjoys working in a team and helping each other;
+- Knowledge in Back-end systems/frameworks like Ruby On Rails/Django is a plus.
+What company offers:
+- Full remote working, flexible hours;
+- Agile working environment with short decision paths;
+- Your choice of devices and tools that make you work the best;
+- Popular tools: Slack, Google Meet, Github, AWS;
+- Salary up to 5500 EUR Net (on hand);
+- Stock options of the company as additional bonus.
+</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 24 dienas | Beidzas: 12.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="150" customHeight="1">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Senior PHP Developer (Trevolution)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SIA "Dynatech"</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>€ 3500</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trevolution Group focuses on agency sales of air tickets and travel services to both retail and corporate clients, and it now sells over 70,000 air tickets and package holidays every month and is the seventh-largest consolidator in the US. 
+With our fast-growing business projects, we are looking for experienced developers to join one of our nine highly skilled teams. 
+We can offer you a project that matches your interests: a back-end for an online reservation system, CRM with complex business logic, an accounting/anti-fraud system, or payment processing; simply let us know what you feel most comfortable working with. 
+This is the ideal role for a BE development professional who is looking for the job with the value context and possibility to see the impact of his/ her daily duty. 
+Requirements: 
+Experience with PHP, Symfony; 
+Good understanding of OOP and design patterns; 
+Experience with SQL, Memcached or Redis; 
+Background in web-development; 
+Understanding of server-side and Linux. 
+What will be considered an advantage:
+Experience with CI/CD tools and Cloud platforms; 
+Proficiency with MariaDB or MongoDB; 
+Experience with Kubernetes and Docker. 
+There is no one-size-fits-all here, we are quite flexible and use an individual approach with every candidate we meet. While getting familiar during our interview, we try to understand where your working experience, professional skills and future contribution to the company can be applied within our multiple business projects. 
+We don't want to set any limits, but if we are naming the numbers, then the starting point for this position not less than 3500 EUR gross per month. 
+With us you will:  
+Be a part of a top-tier team of professionals, work on global projects that reach millions worldwide, create complex one-of-a-kind in-house products and solutions;  
+Get opportunities for professional development: learn new skills with online courses, broaden your network in local and international conferences, receive mentoring; 
+Enjoy our learning-oriented culture: learn and exchange ideas in lectures and workshops led by your colleagues and team leaders;  
+Have flexible working hours and plan your day - it's all about the teamwork and performance; 
+Get extra benefits for your health and well-being; we will fully cover your health insurance (dentistry, out-patient treatment, etc.), organize well-being lectures and workshops to promote and support self-care, arrange an office yoga class, offer to take part in vaccination days in the office, and much more;  
+Get treated with delicacies at the office with weekly snack days, monthly morning brunches, and daily supply of fresh fruit and delicious coffee;   
+Enjoy a variety of employee discount programs and have fun at monthly internal activities and celebrations;  
+Work from a spacious, modern, and well-equipped office in the very heart of Riga, with parking space for bike or scooter. 
+</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 28 dienas | Beidzas: 08.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="150" customHeight="1">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Golang Developer</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SIA "Dynatech"</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>€ 2500 – 3500</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trevolution Group focuses on agency sales of air tickets and travel services to both retail and corporate clients, and it now sells over 70,000 air tickets and package holidays every month and is the seventh-largest consolidator in the US. 
+With our fast-growing business projects, we are looking for experienced developers to join one of our nine highly skilled teams. 
+We can offer you a project that matches your interests: a back-end for an online reservation system, CRM with complex business logic, an accounting/anti-fraud system, or payment processing; simply let us know what you feel most comfortable working with. 
+This is the ideal role for a BE development professional who is looking for a job with the value context and possibility to see the impact of his/ her daily duty. 
+Requirements: 
+Good knowledge of GoLang or another programming language and willingness to learn GoLang; 
+Good understanding of OOP and design patterns; 
+Experience with Redis and MySQL/MariaDB/PostgreSQL; 
+Background in web-development; 
+Understanding of server-side and Linux. 
+What will be considered an advantage:
+Experience with CI/CD tools and Cloud platforms; 
+Experience with Kubernetes and Docker. 
+There is no one-size-fits-all here, we are quite flexible and use an individual approach with every candidate we meet. While getting familiar during our interview, we try to understand where your working experience, professional skills and future contribution to the company can be applied within our multiple business projects. 
+We don't want to set any limits, but if we are naming the numbers, then the starting point for this position is not less than 2500 to 3500 Gross per month. 
+With us you will:  
+Be a part of a top-tier team of professionals, work on global projects that reach millions worldwide, create complex one-of-a-kind in-house products and solutions; 
+Get opportunities for professional development: learn new skills with online courses, broaden your network in local and international conferences, receive mentoring; 
+Enjoy our learning-oriented culture: learn and exchange ideas in lectures and workshops led by your colleagues and team leaders; 
+Have flexible working hours and plan your day - it's all about the teamwork and performance; 
+Get extra benefits for your health and well-being; we will fully cover your health insurance (dentistry, out-patient treatment, etc.), organize well-being lectures and workshops to promote and support self-care, arrange an office yoga class, offer to take part in vaccination days in the office, and much more;  
+Get treated with delicacies at the office with weekly snack days, monthly morning brunches, and daily supply of fresh fruit and delicious coffee;   
+Enjoy a variety of employee discount programs and have fun at monthly internal activities and celebrations;  
+Work from a spacious, modern, and well-equipped office in the very heart of Riga, with parking space for bike or scooter. 
+</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 28 dienas | Beidzas: 08.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="150" customHeight="1">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Software Development Engineer</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>GoCardless</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Rīga /  Attālināti</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>€ 5600 – 7590</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">About us
+At GoCardless we believe bank payments are the best way to pay and get paid. We also believe that bank account data is a powerful tool to make better, faster decisions. We are making it easy to use both- for businesses everywhere.
+GoCardless is used for domestic and international payments by 75,000+ organisations and counting, processing more than $30 billion across 30 countries. We're an award-winning London based fintech, with additional offices in Riga, Paris and Melbourne.
+The role
+As a software engineer in the Merchant Operations Group, you will be responsible for building solutions that help GC understand and mitigate any risk posed by the merchants we serve and unlock compliant growth, with minimal frictions for onboarding new merchants. We do it by gathering various data points both internally and externally and process them to feed them to ML models and also external toolings to create alerts when there are any adverse events and thus that are handled by various operational teams.
+Tech stack and tools:
+Ruby on Rails, PostgreSQL, BigQuery, and Google Cloud Storage. 
+Across GoCardless, our other technologies include: Golang, Python, React, Kubernetes, Elasticsearch, Prometheus, Google Cloud (GCP)
+What excites you
+Building tools and integrating solutions to fight bad actors and helping protect GoCardless.
+Working along with Data Scientists/BI Engineers, building data pipelines, backend APIs and predictive engines for turning large volumes of raw data into actionable insights.
+Working on problems affecting multiple teams and internal stakeholders like Risk and Finance organisations.
+Building a smarter organisation by automating manual processes and jobs, to do more and move faster.
+Transforming our systems to serve more customers and unlock new markets.
+What excites us
+Strong background in backend technologies like Ruby on Rails, Python, SQL, APIs
+Strong software development and design skills, ability to navigate complex code blocks and ambiguity while working with different teams.
+Good understanding of Financial Risk domain - Fraud, AML, Credit, Compliance
+Great team player, with the ability to work well across teams and the attitude to learn fast and do more.
+We don't expect you to meet every requirement. If you're excited by this role, we encourage you to apply. 
+(some of) The good stuff
+Wellbeing - stay healthy with dedicated support and medical cover
+Work away scheme - you can apply to work away from your country of residence for up to 90 days in any 12 month period
+Adaptive Working - allows you to work flexibly, around your lifestyle
+Equity - all permanently employed GCs get equity to help you make a valuable contribution 
+Parental leave - to suit everyone embarking on life's great adventure
+Time off - generous holiday allowance, + 3 annual volunteer days, + 4 annual business-wide wellness days (GC Fridays)
+Life at GoCardless
+We're an organisation defined by our values; We start with why before we begin any project, to ensure its aligned with our mission. We make it happen, working with urgency and taking personal accountability for getting things done. We act with integrity, always. We care deeply about what we do and we know it's essential that we be humble whilst we do it. Working this way creates the GC magic- the reason we all love showing up to work. 
+</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 28 dienas | Beidzas: 08.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="150" customHeight="1">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Senior Software Development Engineer</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GoCardless</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Rīga /  Attālināti</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>€ 5600 – 7590</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">About us
+At GoCardless we believe bank payments are the best way to pay and get paid. We also believe that bank account data is a powerful tool to make better, faster decisions. We are making it easy to use both- for businesses everywhere. 
+Bringing simple and secure direct bank payment solutions for people and businesses everywhere, as well as making open banking more accessible. GoCardless is used by 75,000+ organisations and counting, processing more than $30 billion of payments across 30 countries. 
+We are an award-winning London based fintech, with additional offices in Riga, Paris, Melbourne and the US. 
+The role
+As a Software Development Engineer at GoCardless, you'll be integral to our Bank Account Data team working to streamline experience for our customers.
+You'll collaborate closely with product and other teams to innovate, maintain, and optimise our product, marking a key role in operational efficiency for our merchants and internal users while ensuring smooth operation for the world's aspiring bank payments network.
+Our technologies
+We endeavour to build simple, reliable, and secure tooling and believe in using the most suitable technologies for each task. Joining the Bank Account Data group, you'll be working in a team that interacts with a diverse stack of technologies and services including Python, Django, JavaScript, Google Cloud (GCP).
+Across GoCardless, we use a broad range of additional technologies such as React, PostgreSQL, Kubernetes, Elasticsearch, and Prometheus.
+Proficiency in all of these technologies is not a prerequisite. If you're unsure, please apply.
+What excites you
+You are looking to foster an exceptional engineering culture within GoCardless and contribute to the larger engineering community
+You enjoy gaining insights and collaborating with people from diverse backgrounds and experiences
+You take pride in your work and the difference it can make
+Our engineers contribute to the engineering culture within and outside of GoCardless: they contribute to Open Source Software projects (see our Github), and share learnings in post-mortems, conferences and on our blog
+What excites us
+Professional experience of building web applications and a keen awareness of technologies across the stack
+Strong frontend foundations: ES6+, CSS (e.g. grid, flexbox, custom properties), event delegation, custom elements, web components etc.
+Understanding of backend technologies: Python, Django, PostgreSQL, REST API
+You adapt to new technologies and processes quickly
+You thrive in a collaborative environment and believe the best products are built through collaboration
+You enjoy solving problems and are happy to take the initiative to find better solutions
+You enjoy mentoring and supporting the development of team members and colleagues
+We don't expect you to meet every requirement. If you're excited by this role, we encourage you to apply.
+(some of) The good stuff
+Wellbeing - stay healthy with dedicated support and medical cover
+Work away scheme - gives you the option to work away from your country of residence for up to 90 days in any 12 month period
+Adaptive Working - allows you to work flexibly, around your lifestyle
+Equity - all permanently employed GCs get equity to help you make a valuable contribution 
+Parental leave - to suit everyone embarking on life's great adventure
+Time off - generous holiday allowance, + 3 annual volunteer days, + 4 annual business-wide wellness days (GC Fridays)
+Life at GoCardless
+We're an organisation defined by our values; We start with why before we begin any project, to ensure its aligned with our mission. We make it happen, working with urgency and taking personal accountability for getting things done. We act with integrity, always. We care deeply about what we do and we know it's essential that we be humble whilst we do it. Working this way creates the GC magic- the reason we all love showing up to work. 
+</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 28 dienas | Beidzas: 08.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="150" customHeight="1">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Product Manager (Trevolution)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SIA "Dynatech"</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>€ 3200 – 5100</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 2 dienas | Beidzas: 11.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1"/>
-    <row r="23" ht="18.75" customHeight="1"/>
-    <row r="24" ht="18.75" customHeight="1"/>
-    <row r="25" ht="18.75" customHeight="1"/>
-    <row r="26" ht="18.75" customHeight="1"/>
-    <row r="27" ht="18.75" customHeight="1"/>
-    <row r="28" ht="18.75" customHeight="1"/>
-    <row r="29" ht="18.75" customHeight="1"/>
-    <row r="30" ht="18.75" customHeight="1"/>
-    <row r="31" ht="18.75" customHeight="1"/>
-    <row r="32" ht="18.75" customHeight="1"/>
-    <row r="33" ht="18.75" customHeight="1"/>
-    <row r="34" ht="18.75" customHeight="1"/>
-    <row r="35" ht="18.75" customHeight="1"/>
-    <row r="36" ht="18.75" customHeight="1"/>
-    <row r="37" ht="18.75" customHeight="1"/>
-    <row r="38" ht="18.75" customHeight="1"/>
-    <row r="39" ht="18.75" customHeight="1"/>
-    <row r="40" ht="18.75" customHeight="1"/>
-    <row r="41" ht="18.75" customHeight="1"/>
-    <row r="42" ht="18.75" customHeight="1"/>
-    <row r="43" ht="18.75" customHeight="1"/>
-    <row r="44" ht="18.75" customHeight="1"/>
-    <row r="45" ht="18.75" customHeight="1"/>
-    <row r="46" ht="18.75" customHeight="1"/>
-    <row r="47" ht="18.75" customHeight="1"/>
-    <row r="48" ht="18.75" customHeight="1"/>
-    <row r="49" ht="18.75" customHeight="1"/>
-    <row r="50" ht="18.75" customHeight="1"/>
-    <row r="51" ht="18.75" customHeight="1"/>
-    <row r="52" ht="18.75" customHeight="1"/>
-    <row r="53" ht="18.75" customHeight="1"/>
-    <row r="54" ht="18.75" customHeight="1"/>
-    <row r="55" ht="18.75" customHeight="1"/>
-    <row r="56" ht="18.75" customHeight="1"/>
-    <row r="57" ht="18.75" customHeight="1"/>
-    <row r="58" ht="18.75" customHeight="1"/>
-    <row r="59" ht="18.75" customHeight="1"/>
-    <row r="60" ht="18.75" customHeight="1"/>
-    <row r="61" ht="18.75" customHeight="1"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>€ 3500 – 4300</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> At TreVolution Group, we're passionate about creating innovative solutions to simplify business travel for our clients. We're a global company with a mission to make corporate travel hassle-free, efficient and cost-effective. Our internal travel system is a crucial component of this mission, and we're looking for a talented Product Manager to join our team and help us take our platform to the next level. 
+Job Description:
+As a Product Manager for our internal travel systems, you'll be responsible for overseeing the development and delivery of our platform. You'll collaborate with cross-functional teams, including software engineers, designers, and stakeholders to identify new features, define product requirements, and prioritize initiatives. You'll use your analytical and strategic thinking skills to ensure that our product remains competitive, user-friendly, and aligned with our business objectives. 
+All projects and products are within the Travel Division, and include among others involuntary schedule change management, ticket coupon status monitoring, flight delay compensations. You will help define the future strategy and features, identify weaknesses and improve current processes.  
+Responsibilities: 
+Define the product vision and strategy for our internal travel system;
+Collaborate with cross-functional teams to gather and analyze user feedback, market research, and competitive intelligence to identify new product opportunities;
+Develop and prioritize product features, requirements, and roadmaps;
+Create detailed product specifications and work with the development team to ensure successful implementation; 
+Define and measure key performance indicators (KPIs) to track the success of product initiatives;
+Work closely with stakeholders to ensure that our product aligns with the company's overall strategy and goals; 
+Manage the product lifecycle, from ideation to launch and beyond.
+Requirements: 
+Good written and verbal English language; 
+3+ years of experience in Product Management of IT products (understanding of back-end, front-end development, good knowledge of user experience); 
+Experience with travel technology and/or corporate travel industry is highly preferred; 
+Strong analytical skills, with the ability to translate data into actionable insights; 
+Excellent communication and interpersonal skills, with the ability to collaborate effectively with cross-functional teams; 
+Strategic mindset with the ability to think creatively and critically to identify new product opportunities;
+Experience with Agile methodology and project management tools like Jira or Asana; 
+Ability to work independently and handle multiple priorities in a fast-paced, dynamic environment.
+There is no one-size-fits-all here, we are quite flexible and use an individual approach with every Candidate we meet. While getting familiar during our interview, we try to understand where your working experience, professional skills, and future contribution to the company can be applied within our multiple business projects.
+We don't want to set any limits, but if we are naming the numbers, then the salary range for this position is from 3500 EUR gross till 4300 EUR gross per month.   
+With us you will: 
+Be a part of a top-tier team of professionals, work on global projects that reach millions worldwide, create complex one-of-a-kind in-house products and solutions; 
+Get opportunities for professional development: learn new skills with online courses, broaden your network in local and international conferences, receive mentoring; 
+Enjoy our learning-oriented culture: learn and exchange ideas in lectures and workshops led by your colleagues and team leaders; 
+Have flexible working hours and plan your day its all about the teamwork and performance; 
+Get extra benefits for your health and well-being; we will fully cover your health insurance (dentistry, out-patient treatment, etc.), organize well-being lectures and workshops to promote and support self-care, arrange an office yoga class, offer to take part in vaccination days in the office, and much more; 
+Get treated with delicacies at the office with weekly snack days, monthly morning brunches, and daily supply of fresh fruit and delicious coffee; 
+Enjoy a variety of employee discount programs and have fun at monthly internal activities and celebrations; 
+Work from a spacious, modern, and well-equipped office in the very heart of Riga, with parking space for bikes or scooters. 
+</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 1 mēnesis | Beidzas: 06.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="150" customHeight="1">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Java Developer</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Citadele banka AS</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>€ 3000 – 5500</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 1 mēnesis | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1"/>
+    <row r="35" ht="30" customHeight="1"/>
+    <row r="36" ht="30" customHeight="1"/>
+    <row r="37" ht="30" customHeight="1"/>
+    <row r="38" ht="198.75" customHeight="1"/>
+    <row r="39" ht="30" customHeight="1"/>
+    <row r="40" ht="30" customHeight="1"/>
+    <row r="41" ht="30" customHeight="1"/>
+    <row r="42" ht="30" customHeight="1"/>
+    <row r="43" ht="409.5" customHeight="1"/>
+    <row r="44" ht="30" customHeight="1"/>
+    <row r="45" ht="30" customHeight="1"/>
+    <row r="46" ht="30" customHeight="1"/>
+    <row r="47" ht="30" customHeight="1"/>
+    <row r="48" ht="30" customHeight="1"/>
+    <row r="49" ht="30" customHeight="1"/>
+    <row r="50" ht="30" customHeight="1"/>
+    <row r="51" ht="30" customHeight="1"/>
+    <row r="52" ht="30" customHeight="1"/>
+    <row r="53" ht="30" customHeight="1"/>
+    <row r="54" ht="30" customHeight="1"/>
+    <row r="55" ht="30" customHeight="1"/>
+    <row r="56" ht="30" customHeight="1"/>
+    <row r="57" ht="30" customHeight="1"/>
+    <row r="58" ht="30" customHeight="1"/>
+    <row r="59" ht="30" customHeight="1"/>
+    <row r="60" ht="30" customHeight="1"/>
+    <row r="61" ht="30" customHeight="1"/>
+    <row r="62" ht="30" customHeight="1"/>
+    <row r="63" ht="30" customHeight="1"/>
+    <row r="64" ht="30" customHeight="1"/>
+    <row r="65" ht="30" customHeight="1"/>
+    <row r="66" ht="30" customHeight="1"/>
+    <row r="67" ht="30" customHeight="1"/>
+    <row r="68" ht="30" customHeight="1"/>
+    <row r="69" ht="30" customHeight="1"/>
+    <row r="70" ht="30" customHeight="1"/>
+    <row r="71" ht="30" customHeight="1"/>
+    <row r="72" ht="30" customHeight="1"/>
+    <row r="73" ht="30" customHeight="1"/>
+    <row r="74" ht="30" customHeight="1"/>
+    <row r="75" ht="30" customHeight="1"/>
+    <row r="76" ht="30" customHeight="1"/>
+    <row r="77" ht="30" customHeight="1"/>
+    <row r="78" ht="30" customHeight="1"/>
+    <row r="79" ht="30" customHeight="1"/>
+    <row r="80" ht="30" customHeight="1"/>
+    <row r="81" ht="30" customHeight="1"/>
+    <row r="82" ht="30" customHeight="1"/>
+    <row r="83" ht="30" customHeight="1"/>
+    <row r="84" ht="30" customHeight="1"/>
+    <row r="85" ht="30" customHeight="1"/>
+    <row r="86" ht="30" customHeight="1"/>
+    <row r="87" ht="30" customHeight="1"/>
+    <row r="88" ht="30" customHeight="1"/>
+    <row r="89" ht="30" customHeight="1"/>
+    <row r="90" ht="30" customHeight="1"/>
+    <row r="91" ht="30" customHeight="1"/>
+    <row r="92" ht="30" customHeight="1"/>
+    <row r="93" ht="30" customHeight="1"/>
+    <row r="94" ht="30" customHeight="1"/>
+    <row r="95" ht="30" customHeight="1"/>
+    <row r="96" ht="30" customHeight="1"/>
+    <row r="97" ht="30" customHeight="1"/>
+    <row r="98" ht="30" customHeight="1"/>
+    <row r="99" ht="30" customHeight="1"/>
+    <row r="100" ht="30" customHeight="1"/>
+    <row r="101" ht="30" customHeight="1"/>
+    <row r="102" ht="30" customHeight="1"/>
+    <row r="103" ht="30" customHeight="1"/>
+    <row r="104" ht="30" customHeight="1"/>
+    <row r="105" ht="30" customHeight="1"/>
+    <row r="106" ht="30" customHeight="1"/>
+    <row r="107" ht="30" customHeight="1"/>
+    <row r="108" ht="30" customHeight="1"/>
+    <row r="109" ht="30" customHeight="1"/>
+    <row r="110" ht="30" customHeight="1"/>
+    <row r="111" ht="30" customHeight="1"/>
+    <row r="112" ht="30" customHeight="1"/>
+    <row r="113" ht="30" customHeight="1"/>
+    <row r="114" ht="30" customHeight="1"/>
+    <row r="115" ht="30" customHeight="1"/>
+    <row r="116" ht="30" customHeight="1"/>
+    <row r="117" ht="30" customHeight="1"/>
+    <row r="118" ht="30" customHeight="1"/>
+    <row r="119" ht="30" customHeight="1"/>
+    <row r="120" ht="30" customHeight="1"/>
+    <row r="121" ht="30" customHeight="1"/>
+    <row r="122" ht="30" customHeight="1"/>
+    <row r="123" ht="30" customHeight="1"/>
+    <row r="124" ht="30" customHeight="1"/>
+    <row r="125" ht="30" customHeight="1"/>
+    <row r="126" ht="30" customHeight="1"/>
+    <row r="127" ht="30" customHeight="1"/>
+    <row r="128" ht="30" customHeight="1"/>
+    <row r="129" ht="30" customHeight="1"/>
+    <row r="130" ht="30" customHeight="1"/>
+    <row r="131" ht="30" customHeight="1"/>
+    <row r="132" ht="30" customHeight="1"/>
+    <row r="133" ht="30" customHeight="1"/>
+    <row r="134" ht="30" customHeight="1"/>
+    <row r="135" ht="30" customHeight="1"/>
+    <row r="136" ht="30" customHeight="1"/>
+    <row r="137" ht="30" customHeight="1"/>
+    <row r="138" ht="30" customHeight="1"/>
+    <row r="139" ht="30" customHeight="1"/>
+    <row r="140" ht="30" customHeight="1"/>
+    <row r="141" ht="30" customHeight="1"/>
+    <row r="142" ht="30" customHeight="1"/>
+    <row r="143" ht="30" customHeight="1"/>
+    <row r="144" ht="30" customHeight="1"/>
+    <row r="145" ht="30" customHeight="1"/>
+    <row r="146" ht="30" customHeight="1"/>
+    <row r="147" ht="30" customHeight="1"/>
+    <row r="148" ht="30" customHeight="1"/>
+    <row r="149" ht="30" customHeight="1"/>
+    <row r="150" ht="30" customHeight="1"/>
+    <row r="151" ht="30" customHeight="1"/>
+    <row r="152" ht="30" customHeight="1"/>
+    <row r="153" ht="30" customHeight="1"/>
+    <row r="154" ht="30" customHeight="1"/>
+    <row r="155" ht="30" customHeight="1"/>
+    <row r="156" ht="30" customHeight="1"/>
+    <row r="157" ht="409.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Atjaunināts pirms 1 diena | Beidzas: 29.01.2024</t>
+          <t>Atjaunināts pirms 2 dienas | Beidzas: 29.01.2024</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Atjaunināts pirms 1 diena | Beidzas: 12.01.2024</t>
+          <t>Atjaunināts pirms 2 dienas | Beidzas: 12.01.2024</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Atjaunināts pirms 3 dienas | Beidzas: 20.01.2024</t>
+          <t>Atjaunināts pirms 4 dienas | Beidzas: 20.01.2024</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="F5" s="4" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Publicēts pirms 4 dienas | Beidzas: 02.02.2024</t>
+          <t>Publicēts pirms 5 dienas | Beidzas: 02.02.2024</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Atjaunināts pirms 4 dienas | Beidzas: 19.01.2024</t>
+          <t>Atjaunināts pirms 5 dienas | Beidzas: 19.01.2024</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -818,7 +818,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1">
+    <row r="7" ht="300" customHeight="1">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -842,10 +842,60 @@
           <t>€ 3200 – 5100</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">About us
+At GoCardless we believe bank payments are the best way to pay and get paid. We also believe that bank account data is a powerful tool to make better, faster decisions. We're making it easy to use both - for businesses everywhere.
+GoCardless is used for domestic and international payments by 75,000+ organisations and counting, processing more than $30 billion across 30 countries. We're an award-winning London based fintech, with additional offices in Riga, Paris and Melbourne.
+The role
+As a Full Stack Engineer at GoCardless, you'll be integral to our newly formed Operational Interfaces team working to streamline secure tooling for Merchant Operations.
+You'll collaborate closely with Customer Support and other teams to innovate, maintain, and optimise our operational tools, marking a key role in operational efficiency for our merchants and internal users while ensuring robust security for the world's aspiring bank payments network.
+Our technologies
+We endeavour to build simple, reliable, and secure tooling and believe in using the most suitable technologies for each task. Joining the Merchant Operations Group, you'll be working in a team that interacts with a diverse stack of technologies and services including React, AngularJS, Ruby on Rails, Zendesk, Google Cloud (GCP) with unique opportunities for greenfield projects.
+Across GoCardless, we use a broad range of additional technologies such as Golang, Python, Kubernetes, Elasticsearch, and Prometheus.
+Proficiency in all of these technologies is not a prerequisite. If you're unsure, please apply.
+What excites you
+Your'e looking to foster an exceptional engineering culture within GoCardless and contribute to the larger engineering community
+You enjoy gaining insights and collaborating with people from diverse backgrounds and experiences
+You take pride in your work and the difference it can make
+Our engineers contribute to the engineering culture within and outside of GoCardless - they contribute to Open Source Software projects, and share learnings in post-mortems, conferences and on our blogs
+What excites us
+Professional experience of building web applications and a keen awareness of technologies across the stack
+Strong frontend foundations: ES6+, CSS (e.g. grid, flexbox, custom properties), event delegation, custom elements, etc.
+You adapt to new technologies and processes quickly
+You thrive in a collaborative environment and believe the best products are built through collaboration
+You enjoy solving problems and are happy to take the initiative to find better solutions
+You enjoy mentoring and supporting the development of team members and colleagues
+Salary Range: €3200 - €5100 monthly (Gross)
+We don't expect you to meet every requirement. If you're excited by this role, we encourage you to apply.
+(some of) The good stuff
+Wellbeing - stay healthy with dedicated support and medical cover
+Work away scheme - you can apply to work away from your country of residence for up to 90 days in any 12 month period
+Adaptive Working - allows you to work flexibly, around your lifestyle
+Equity - all permanently employed GCs get equity to help you make a valuable contribution
+Parental leave - to suit everyone embarking on life's great adventure
+Time off - generous holiday allowance, + 3 annual volunteer days, + 4 annual business-wide wellness days (GC Fridays)
+Life at GoCardless
+We're an organisation defined by our values; We start with why before we begin any project, to ensure its aligned with our mission. We make it happen, working with urgency and taking personal accountability for getting things done. We act with integrity, always. We care deeply about what we do and we know it's essential that we be humble whilst we do it. Working this way creates the GC magic - the reason we all love showing up to work.
+Diversity &amp; Inclusion
+We're building the bank payment network of the future and our ambition is to move money anywhere, for anything, for anyone. If were going to achieve this goal, we need to build a team of GeeCees that is as wonderfully diverse as the world we live in - with a multitude of perspectives, experiences &amp; backgrounds.
+We've got a long way to go, but heres how were doing as of June 2023:
+42% identify as women
+28% identify as Black, Asian, Mixed or Other
+9% identify as LGBTQIA+
+9% identify as neurodiverse
+2% identify as disabled
+We're rooting for you during your application and GoCardless aims to provide reasonable adjustments to make our recruitment process as remarkable and accessible as we can. Please speak to your Talent Partner if you need extra support.
+If you want to learn more, you can read about our Employee Resource Groups and objectives as well as our latest D&amp;I Report on our website.
+Sustainability
+We're committed to reducing our impact on the environment, leaving a more sustainable world for future generations. In 2021 we became co-founders of the Tech Zero coalition, a group of businesses committed to taking climate action as part of the UNFCCC Race to Zero. We aim to reduce our impact and to create positive change on the natural world. Check out our sustainability action plan on our website.
+Find out more about Life at GoCardless via Twitter, Instagram and LinkedIn.
+</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 11.01.2024</t>
+          <t>Atjaunināts pirms 6 dienas | Beidzas: 11.01.2024</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -914,7 +964,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Publicēts pirms 8 dienas | Beidzas: 29.01.2024</t>
+          <t>Publicēts pirms 9 dienas | Beidzas: 29.01.2024</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -972,7 +1022,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Publicēts pirms 8 dienas | Beidzas: 29.01.2024</t>
+          <t>Publicēts pirms 9 dienas | Beidzas: 29.01.2024</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1030,7 +1080,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Publicēts pirms 8 dienas | Beidzas: 29.01.2024</t>
+          <t>Publicēts pirms 9 dienas | Beidzas: 29.01.2024</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1109,7 +1159,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Publicēts pirms 10 dienas | Beidzas: 26.01.2024</t>
+          <t>Publicēts pirms 11 dienas | Beidzas: 26.01.2024</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1145,7 +1195,7 @@
       <c r="F12" s="4" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Publicēts pirms 15 dienas | Beidzas: 22.01.2024</t>
+          <t>Publicēts pirms 16 dienas | Beidzas: 22.01.2024</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1154,7 +1204,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1">
+    <row r="13" ht="300" customHeight="1">
       <c r="A13" t="n">
         <v>12</v>
       </c>
@@ -1178,10 +1228,43 @@
           <t>€ 4000 – 4500</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr"/>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job description
+Client
+Our client is a travel accessories company creating top-quality suitcases and bags. They seek to make traveling easier and enhance the whole experience. They are expanding the team to enhance and support their eCommerce solution.
+Position overview
+The client is growing the development team and looking for a Senior Fullstack Engineer to cover both backend and frontend tasks.
+Requirements
+Deep understanding of Solidus Proficiency and up-to-date experience with Next.js
+Proven experience as a Ruby Developer with a strong portfolio of successful projects
+Familiarity with front-end technologies such as HTML, CSS, and JavaScript
+Experience with version control systems (e.g., Git)
+Strong problem-solving and communication skills
+Ability to work collaboratively in a team environment
+Responsibilities
+Develop, test, and maintain scalable Ruby applications
+Collaborate with front-end developers to integrate user-facing elements using Next.js
+Customize and extend Solidus, ensuring seamless e-commerce functionality
+Participate in code reviews and provide constructive feedback to team members
+Troubleshoot, debug, and optimize application performance
+What we offer
+•Professional Development:
+Experienced colleagues who are ready to share knowledge;
+The ability to switch projects, technology stacks, and try yourself in different roles;
+More than 150 workplaces for advanced training;
+Study and practise English: courses and communication with colleagues and clients from different countries;
+Support of speakers who make presentations at conferences and meetings of technology communities;
+• Health insurance;
+• The ability to focus on your work: a lack of bureaucracy and micromanagement, and convenient corporate services;
+• Friendly atmosphere, concern for the comfort of specialists, contemporary office space;
+• Flexible schedule (there are core mandatory hours), the ability to work remotely upon agreement with colleagues.
+</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Publicēts pirms 15 dienas | Beidzas: 22.01.2024</t>
+          <t>Publicēts pirms 16 dienas | Beidzas: 22.01.2024</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1190,7 +1273,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="30" customHeight="1">
+    <row r="14" ht="300" customHeight="1">
       <c r="A14" t="n">
         <v>13</v>
       </c>
@@ -1214,10 +1297,44 @@
           <t>€ 3900 – 4400</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job description
+Client
+Our client is a startup with one of the major poker communities in the world . They connect poker enthusiasts all around the world providing top-of-the-art technology and resources.
+Project overview
+Our main objective is to identify the right people for covering several positions in multiple projects for our client. Each team will be integrated by members from DataArt as well as the client, including cross-cultural, multidisciplinary engineers. These teams will support a wide range of solutions, including mission-critical applications, client-face solutions, and internal developments. Our client is focusing on improving the AWS services utilization and developing their solutions under new development patterns, high standards, and secure code relaying on Golang, Next.js and React among other technologies. All this requires an extra effort to identify suitable candidates for the projects, take care of the people and create a motivated team.
+Position overview
+We are seeking a Technical Leader looking to continue growing his career around this role. We need a full stack specialist who can help back-end and front-end engineers to develop a sportsbook solution from scratch with a focus on AWS services.
+Requirements
+10+ years of experience in building scalable and distributed systems
+Solid understanding of microservices architecture, containerization and serverless computing
+Experience with SQL and NoSQL databases
+Experience with CI/CD pipelines, dev-ops practices and infrastructure as code (IaC)
+Experience with AWS infrastructure (Cloudfront, Shield, Aurora DB, RDS)
+Responsibilities
+Elicit business needs and requirements, determine the scope, team, and timelines for the project
+Lead the implementation of the solutions architecture from ideation to completion
+Serve as a top-level escalation point for technical and process concerns, which may arrive from either the implementation team or client (or both)
+Mentor everyone on your team (including developers, QAs, DevOps, and business stakeholders)
+Communicate with the client and coach the project team
+What we offer
+•Professional Development:
+Experienced colleagues who are ready to share knowledge;
+The ability to switch projects, technology stacks, and try yourself in different roles;
+More than 150 workplaces for advanced training;
+Study and practise English: courses and communication with colleagues and clients from different countries;
+Support of speakers who make presentations at conferences and meetings of technology communities;
+• Health insurance;
+• The ability to focus on your work: a lack of bureaucracy and micromanagement, and convenient corporate services;
+• Friendly atmosphere, concern for the comfort of specialists, contemporary office space;
+• Flexible schedule (there are core mandatory hours), the ability to work remotely upon agreement with colleagues.
+</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Publicēts pirms 15 dienas | Beidzas: 22.01.2024</t>
+          <t>Publicēts pirms 16 dienas | Beidzas: 22.01.2024</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1293,7 +1410,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Publicēts pirms 15 dienas | Beidzas: 22.01.2024</t>
+          <t>Publicēts pirms 16 dienas | Beidzas: 22.01.2024</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1368,7 +1485,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Publicēts pirms 18 dienas | Beidzas: 19.01.2024</t>
+          <t>Publicēts pirms 19 dienas | Beidzas: 19.01.2024</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1377,7 +1494,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1">
+    <row r="17" ht="300" customHeight="1">
       <c r="A17" t="n">
         <v>16</v>
       </c>
@@ -1401,10 +1518,42 @@
           <t>€ 4300 – 4900</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job description
+Client
+Our client is a travel accessories company creating top-quality suitcases and bags. They seek to make travelling easier and enhance the whole experience. They are expanding the team to build a Data warehouse.
+Position overview
+We are seeking a specialist for an ongoing project. The potential candidate will complement the client's team under their management.
+Requirements
+Strong experience in web front-end development
+Fluency with all core web technologies including HTML5, CSS3, SaaS, client-side scripting languages such as Javascript/ES6
+Experience with modern JavaScript libraries (ReactJS preferred, widely used in the app), and tooling - like NPM, etc.
+Experience with CMS solutions in general, with Adobe Experience Manager (AEM) - AEM 6.X / CQ5
+Experience working on HTML/Sightly
+Knowledge of extending AEM's authoring interface, experience creating custom AEM components, and using clientlibs.
+Experience with build and packaging tools like Webpack (preferable), Grunt, Bower, etc.
+Exceptional interpersonal skills, including teamwork, facilitation, and negotiation
+Proactiveness and ownership
+Excellent written and oral communication skills
+Good spoken English
+What we offer
+•Professional Development:
+Experienced colleagues who are ready to share knowledge;
+The ability to switch projects, technology stacks, and try yourself in different roles;
+More than 150 workplaces for advanced training;
+Study and practise English: courses and communication with colleagues and clients from different countries;
+Support of speakers who make presentations at conferences and meetings of technology communities;
+• Health insurance;
+• The ability to focus on your work: a lack of bureaucracy and micromanagement, and convenient corporate services;
+• Friendly atmosphere, concern for the comfort of specialists, contemporary office space;
+• Flexible schedule (there are core mandatory hours), the ability to work remotely upon agreement with colleagues.
+</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Publicēts pirms 19 dienas | Beidzas: 18.01.2024</t>
+          <t>Publicēts pirms 20 dienas | Beidzas: 18.01.2024</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1440,7 +1589,7 @@
       <c r="F18" s="4" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Publicēts pirms 22 dienas | Beidzas: 15.01.2024</t>
+          <t>Publicēts pirms 23 dienas | Beidzas: 15.01.2024</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1525,7 +1674,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Publicēts pirms 24 dienas | Beidzas: 13.01.2024</t>
+          <t>Publicēts pirms 25 dienas | Beidzas: 13.01.2024</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1587,7 +1736,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Publicēts pirms 25 dienas | Beidzas: 12.01.2024</t>
+          <t>Publicēts pirms 26 dienas | Beidzas: 12.01.2024</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1648,7 +1797,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Publicēts pirms 25 dienas | Beidzas: 12.01.2024</t>
+          <t>Publicēts pirms 26 dienas | Beidzas: 12.01.2024</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1722,7 +1871,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Publicēts pirms 29 dienas | Beidzas: 08.01.2024</t>
+          <t>Publicēts pirms 30 dienas | Beidzas: 08.01.2024</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1731,114 +1880,8 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="300" customHeight="1">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Product Manager (Trevolution)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>SIA "Dynatech"</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Rīga</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>€ 3500 – 4300</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> At TreVolution Group, we're passionate about creating innovative solutions to simplify business travel for our clients. We're a global company with a mission to make corporate travel hassle-free, efficient and cost-effective. Our internal travel system is a crucial component of this mission, and we're looking for a talented Product Manager to join our team and help us take our platform to the next level. 
-Job Description:
-As a Product Manager for our internal travel systems, you'll be responsible for overseeing the development and delivery of our platform. You'll collaborate with cross-functional teams, including software engineers, designers, and stakeholders to identify new features, define product requirements, and prioritize initiatives. You'll use your analytical and strategic thinking skills to ensure that our product remains competitive, user-friendly, and aligned with our business objectives. 
-All projects and products are within the Travel Division, and include among others involuntary schedule change management, ticket coupon status monitoring, flight delay compensations. You will help define the future strategy and features, identify weaknesses and improve current processes.  
-Responsibilities: 
-Define the product vision and strategy for our internal travel system;
-Collaborate with cross-functional teams to gather and analyze user feedback, market research, and competitive intelligence to identify new product opportunities;
-Develop and prioritize product features, requirements, and roadmaps;
-Create detailed product specifications and work with the development team to ensure successful implementation; 
-Define and measure key performance indicators (KPIs) to track the success of product initiatives;
-Work closely with stakeholders to ensure that our product aligns with the company's overall strategy and goals; 
-Manage the product lifecycle, from ideation to launch and beyond.
-Requirements: 
-Good written and verbal English language; 
-3+ years of experience in Product Management of IT products (understanding of back-end, front-end development, good knowledge of user experience); 
-Experience with travel technology and/or corporate travel industry is highly preferred; 
-Strong analytical skills, with the ability to translate data into actionable insights; 
-Excellent communication and interpersonal skills, with the ability to collaborate effectively with cross-functional teams; 
-Strategic mindset with the ability to think creatively and critically to identify new product opportunities;
-Experience with Agile methodology and project management tools like Jira or Asana; 
-Ability to work independently and handle multiple priorities in a fast-paced, dynamic environment.
-There is no one-size-fits-all here, we are quite flexible and use an individual approach with every Candidate we meet. While getting familiar during our interview, we try to understand where your working experience, professional skills, and future contribution to the company can be applied within our multiple business projects.
-We don't want to set any limits, but if we are naming the numbers, then the salary range for this position is from 3500 EUR gross till 4300 EUR gross per month.   
-With us you will: 
-Be a part of a top-tier team of professionals, work on global projects that reach millions worldwide, create complex one-of-a-kind in-house products and solutions; 
-Get opportunities for professional development: learn new skills with online courses, broaden your network in local and international conferences, receive mentoring; 
-Enjoy our learning-oriented culture: learn and exchange ideas in lectures and workshops led by your colleagues and team leaders; 
-Have flexible working hours and plan your day its all about the teamwork and performance; 
-Get extra benefits for your health and well-being; we will fully cover your health insurance (dentistry, out-patient treatment, etc.), organize well-being lectures and workshops to promote and support self-care, arrange an office yoga class, offer to take part in vaccination days in the office, and much more; 
-Get treated with delicacies at the office with weekly snack days, monthly morning brunches, and daily supply of fresh fruit and delicious coffee; 
-Enjoy a variety of employee discount programs and have fun at monthly internal activities and celebrations; 
-Work from a spacious, modern, and well-equipped office in the very heart of Riga, with parking space for bikes or scooters. 
-</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 1 mēnesis | Beidzas: 06.01.2024</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1119076/sia-dynatech/product-manager-trevolution</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="30" customHeight="1">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Senior Front-End Developer / Vecākais/-ā Front-End izstrādātājs/-a</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>WorkingDay Latvia</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Rīga /  Attālināti</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>€ 6000 – 8000</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 1 mēnesis | Beidzas: 06.01.2024</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1119006/workingday-latvia/senior-front-end-developer-vecakais-a-front-end-izstradatajs-a</t>
-        </is>
-      </c>
-    </row>
+    <row r="23" ht="300" customHeight="1"/>
+    <row r="24" ht="30" customHeight="1"/>
     <row r="25" ht="30" customHeight="1"/>
     <row r="26" ht="150" customHeight="1"/>
     <row r="27" ht="150" customHeight="1"/>
@@ -1995,8 +2038,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H20" r:id="rId19"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H21" r:id="rId20"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H22" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H23" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H24" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -3,26 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lapa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -58,21 +64,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -151,10 +177,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -192,71 +218,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -284,7 +310,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -307,11 +333,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -320,13 +346,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -336,7 +362,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -345,7 +371,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -354,7 +380,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -362,10 +388,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -435,61 +461,61 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.140625" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="37.140625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="23.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="16.140625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="14.7109375" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="150" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
-    <col width="44.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="32.5703125" customWidth="1" min="8" max="8"/>
+    <col width="5.147857142857143" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="37.14785714285715" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="23.71928571428571" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
+    <col width="16.14785714285714" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
+    <col width="14.71928571428571" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
+    <col width="150" bestFit="1" customWidth="1" style="9" min="6" max="6"/>
+    <col width="44.43357142857143" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="32.57642857142857" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Nr</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Virsraksts</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Uzņēmums</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Atrašanās vieta</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Alga</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Apraksts</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Atjaunots/Publicēts | Beidzas</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t>Sludinājuma saite</t>
         </is>
@@ -501,348 +527,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Senior Java Developer</t>
+          <t>Full Stack Engineer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sapiens Software Solutions (Latvia) SIA</t>
+          <t>GoCardless</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rīga /  Attālināti</t>
+          <t>Rīga</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>€ 3200 – 4800</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sapiens International Corporation (NASDAQ and TASE: SPNS) empowers the financial sector, with a focus on insurance, to transform and become digital, innovative, and agile. Backed by 40 years of industry expertise, Sapiens offers a complete insurance platform, with pre-integrated, low-code solutions and a cloud-first approach that accelerates customers digital transformation. Serving more than 600 customers in 30 countries, Sapiens offers insurers across Property &amp; Casualty, Workers Compensation and Life markets the most comprehensive set of solutions, from core to complementary, including Reinsurance, Financial &amp; Compliance, Data &amp; Analytics, Digital, and Decision Management. Sapiens team of more than 5,000 employees operates through our offices in North America, the UK, EMEA and Asia Pacific.
-We're seeking for an experienced and creative Senior Java Developer to join our R&amp;D team.
-Roles and Responsibilities:
-Designing, development of core components/services which are flexible, extensible, multi-tier, scalable, high performance;
-Providing technical leadership and mentoring to junior developers;
-Developing use cases and design alternatives in accordance with business requirements;
-Interact with Product Owner and Business analyst across geographies to leverage expertise and take up development to the next level;
-Participating in code reviews, working with business analyst and testers to effectively document and validate all implementations;
-Ability to understand and discuss technical concepts, schedule tradeoffs and opportunistic new ideas with technical employees;
-Working with development methodologies used by the company such as Agile.
- Desired Skills and Experience
-4+ years of experience in Web development;
-Proficiency with fundamental front-end languages such as HTML, CSS, and JavaScript;
-Experience with JavaScript frameworks such as NodeJs, React and Angular;
-Experience with W3C components, Custom Elements API , Templates, shadowDOM;
-Experienced working with XML and JSON, Spring, Hibernate and web services architecture, such as SOAP and/or REST;
-Experience working with relational database, such as MS-SQL and/or Oracle, PostgreSQL;
-Experience with NoSQL Databases such as MogoDB and/or Cassandra;
-Experience working with Open Source frameworks and Kubernetes clusters.
- Advantage:
-Experience in Scala, Streaming, Functional programming, Data distribution, ElasticSearch;
-Experience in Micro-services architecture;
-Data experience with Kafka, Spark;
-Knowledge in Insurance;
-Test Driven Development.
-We offer:
-Annual bonus as 13th salary payment (in the amount of 1 salary calculated proportionally worked month during a year);
-Paid lunch in the lunch restaurant on the 1st floor of the office building (24/7 healthy snacks and beverages in our office canteen);
-Health insurance after the trial period;
-Possibility to gain professional experience and learn from global industry experts;
-Stable project &amp; diversified working environment;
-Employee engagement events globally and locally;
-Training budget to develop skills and expertise.
- Join us and become part of our common success!
- Sapiens is an E-Verified &amp; Equal Opportunity/Affirmative Action Employer, M/F/D/V.
-</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 2 dienas | Beidzas: 29.01.2024</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1127462/sapiens-software-solutions-latvia-sia/senior-java-developer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="300" customHeight="1">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Frontend Engineer (JavaScript/TypeScript)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Evolution Latvia SIA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Rīga</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>€ 4000 – 7600</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Company Description
-Evolution is a leading international B2B provider of games and services in online casino. Operating in the forefront of our industry, we offer a turn-key solution for casino operators. Our licensees players can move flawlessly between mobile, tablet and desktop to play slots or live casino, which feature real tables with real dealers in real time. Our innovative and high-quality offer includes brands like Evolution Live, Red Tiger and NetEnt, and multiple award-winning international player product favorites, such as Crazy Time, Lightning Roulette and Gonzos Quest. Evolution is listed on Nasdaq Nordic with a MCAP of EUR 20+BN.
-We are now looking for an experienced and driven JavaScript/TypeScript Engineer! This is truly an exciting opportunity for a talented individual looking for a career in a dynamic and international work environment.
-As our JavaScript/TypeScript Engineer you will take an integral part in building a cross-platform web application used by hundreds of thousands of users world-wide on iOS, Android and desktop platforms. Our technology stack is modern and based on TypeScript, React, Babylon.js, and webpack.
-To succeed in this role you should have:
-Passion for our profession, in particular front-end development, and improving yourself technically;
-4+ years of experience in front-end development;
-Proven experience in delivering production software using JavaScript or Typescript;
-Highly proficient in spoken and written English;
-Solid knowledge and experience with HTML5 and CSS3;
-Excellent communication skills and a pragmatic approach to problem-solving.
-We will appreciate:
-Solid knowledge of TypeScript and ESNext;
-Experience in other strongly typed programming languages;
-Interest in contemporary programming trends such as functional and reactive programming, CSS preprocessing, alternative JavaScript languages, web components, touch user experiences, and responsive design;
-Experience with React, Redux, Lodash, RxJS, Babylon.js;
-Knowledge of modular CSS by using css-modules and post-css;
-Experience with testing and specifications libraries like Jest, Enzyme, Pupeteer, WebDriverIO, Cucumber, Mocha;
-Knowledge of JavaScript ecosystem tools, such as webpack, npm, yarn;
-Passion towards performance profiling and optimization, using GPU acceleration and maintaining 240 FPS for visually rich applications.
-We offer:
-Entrepreneur culture of the company, which allows you to try new approaches and technologies all the time;
-Recognition from the business which translates to very competitive salaries and a supportive attitude;
-Developing games featuring live video serving customers around the world;
-A healthy mix of startup-like culture of the company, which enables us to try new approaches and technologies and remain on the edge of technological development and enterprise, with stability and supporting functions to help you focus on your job;
-Modern and developer-friendly delivery processes, including Agile (Scrum / Kanban), JIRA issue tracking, Confluence wiki, GitLab source control, Jenkins continuous integration and delivery, modern hardware and software for development (an IDE of your choice);
-Being a part of an international team in a successful, publicly traded company;
-Health insurance, contemporary office environment, tech conference attendance, training, hackathons, 24/7 company gym, and other benefits and perks.
-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 2 dienas | Beidzas: 12.01.2024</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1121109/evolution-latvia-sia/frontend-engineer-javascript-typescript</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="300" customHeight="1">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Senior Front-End Developer (React)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Arvato Systems Latvia SIA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Rīga</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>€ 3800 – 4800</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Responsibilities
-Contribute to architecture and design of components in React.js, testing strategy and deployments to test, integration and production systems
-Hands-on role requiring both production of design artifacts and coding of critical elements
-Interface with the product owner, team members, other teams, and stakeholders
-Take ownership of the team's deliverables, ensuring that the team produces high-quality deliverables
-Provide programming duties with an emphasis on requirements development, planning, analysis and design, testing &amp; acceptance phases of the application software
-Verify source code with testing strategy
-Participation in design and code reviews
-Requirements
-More than 5 years of relevant work experience in software frontend development
-Strong proficiency in JavaScript (ES5, ES6)
-Strong proficiency with JavaScript framework React and React hooks
-Strong proficiency with RESTful, Websockets
-Good knowledge of HTML5, CSS, Sass, and experience in UI/UX
-Experience in application testing Jest, writing unit tests
-Experience with backend tools Azure, Docker
-Experience in code versioning
-Having Experience with the Atomic Design approach
-Familiarity with modern front-end build pipelines and tools
-Experience with common front-end development tools such as Babel, Webpack, NPM, Yarn etc.
-High analytical skills as well as a structured, solution-oriented and independent way of working
-Fluent in English
-Strong team player skills, communication and interpersonal skills: kind, friendly, and cooperative
-Nice to have:
-Experience on Video Processing and Compression: Understanding video codecs, formats, and compression techniques, for example, with tools like FFmpeg or WebCodecs.
-Familiarity with Streaming Protocols: Knowledge of real-time streaming protocols such as RTMP, HLS, or DASH would be advantageous.
-Media File Management and Metadata Handling Experience: Experience in managing media files, handling metadata, and organizing large libraries of audio and video assets would be beneficial.
-We Offer
-Monthly gross salary from 3800 to 4800 EUR, depending on your level of expertise. 
-Hybrid way of working with cozy office space in the center of Riga, when needed, and flexible working hours opportunities, based on your own preferences. 
-Family-oriented company values and healthy attitude towards work and life balance - granting additional 4 vacation days, birthday leave, "Happy Land" space in the office for children, etc. 
-Individual development and learning plan, including yearly budget for external training. 
-Necessary essentials health insurance with dental services and sports coverage. 
-Possibility to work in mutual trust and positive team environment, to be creative and improve working flows by self-initiatives. 
-Friendly, multicultural and cooperation orientated colleagues. 
-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 4 dienas | Beidzas: 20.01.2024</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1125175/arvato-systems-latvia-sia/senior-front-end-developer-react</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="30" customHeight="1">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Senior Front End Developer - Vecākais Frontend izstrādātājs/-a</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>AGCSOFT SIA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Rīga</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>€ 3650 – 5830</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 5 dienas | Beidzas: 02.02.2024</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1128150/agcsoft-sia/senior-front-end-developer-vecakais-frontend-izstradatajs-a</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="300" customHeight="1">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>QA Automation Engineer</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ubiquiti (Latvia) SIA </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Rīga /  Attālināti</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>€ 2500 – 5000</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Responsibilities:
-Day-to-day work with various kind of Network type devices;
-Create, maintain and execute automated test scripts;
-Identify and report bugs, ensuring proper follow-up;
-Perform front-end and back-end testing throughout the entire QA process;
-Analyse release notes, project documentation and other project artefacts to identify new or update existing test scenarios.
-Requirements:
-3+ years AQA experience in similar position;
-Jenkins pipelines + DSL (Groovy);
-Java + Selenium;
-Bash scripting;
-General understanding in Network (Internet, WiFi, VLAN, Firewall, VPN etc.);
-Strong understanding in MQA testing process;
-Fluent in English and Latvian.
-Nice to have:
-JavaScript;
-Python;
-System Administration;
-DevOps (CI/CD setup &amp; administration, Terraform scripts);
-Network administration.
-Benefits:
-International work environment and work with global development teams;
-Ability to deliver software that is used by millions of people across the globe;
-Access to all Ubiquiti products;
-Medical insurance;
-Hybrid approach - office in Riga;
-Flexible work hours;
-Compensation package matching global standards, including competitive salary depending on your qualification and background (starting from 2500 up to 5000 Euro gross monthly);
-A-class office with all the necessities - snacks, drinks, free parking, etc!
-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 19.01.2024</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/987343/ubiquiti-latvia-sia/qa-automation-engineer</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="300" customHeight="1">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Full Stack Engineer</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GoCardless</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Rīga</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>€ 3200 – 5100</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F2" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">About us
 At GoCardless we believe bank payments are the best way to pay and get paid. We also believe that bank account data is a powerful tool to make better, faster decisions. We're making it easy to use both - for businesses everywhere.
@@ -893,14 +596,340 @@
 </t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 1 stunda | Beidzas: 11.01.2024</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1120506/gocardless/full-stack-engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="300" customHeight="1">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Product Manager (Trevolution)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SIA "Dynatech"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>€ 3500 – 4300</t>
+        </is>
+      </c>
+      <c r="F3" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> At TreVolution Group, we're passionate about creating innovative solutions to simplify business travel for our clients. We're a global company with a mission to make corporate travel hassle-free, efficient and cost-effective. Our internal travel system is a crucial component of this mission, and we're looking for a talented Product Manager to join our team and help us take our platform to the next level. 
+Job Description:
+As a Product Manager for our internal travel systems, you'll be responsible for overseeing the development and delivery of our platform. You'll collaborate with cross-functional teams, including software engineers, designers, and stakeholders to identify new features, define product requirements, and prioritize initiatives. You'll use your analytical and strategic thinking skills to ensure that our product remains competitive, user-friendly, and aligned with our business objectives. 
+All projects and products are within the Travel Division, and include among others involuntary schedule change management, ticket coupon status monitoring, flight delay compensations. You will help define the future strategy and features, identify weaknesses and improve current processes.  
+Responsibilities: 
+Define the product vision and strategy for our internal travel system;
+Collaborate with cross-functional teams to gather and analyze user feedback, market research, and competitive intelligence to identify new product opportunities;
+Develop and prioritize product features, requirements, and roadmaps;
+Create detailed product specifications and work with the development team to ensure successful implementation; 
+Define and measure key performance indicators (KPIs) to track the success of product initiatives;
+Work closely with stakeholders to ensure that our product aligns with the company's overall strategy and goals; 
+Manage the product lifecycle, from ideation to launch and beyond.
+Requirements: 
+Good written and verbal English language; 
+3+ years of experience in Product Management of IT products (understanding of back-end, front-end development, good knowledge of user experience); 
+Experience with travel technology and/or corporate travel industry is highly preferred; 
+Strong analytical skills, with the ability to translate data into actionable insights; 
+Excellent communication and interpersonal skills, with the ability to collaborate effectively with cross-functional teams; 
+Strategic mindset with the ability to think creatively and critically to identify new product opportunities;
+Experience with Agile methodology and project management tools like Jira or Asana; 
+Ability to work independently and handle multiple priorities in a fast-paced, dynamic environment.
+There is no one-size-fits-all here, we are quite flexible and use an individual approach with every Candidate we meet. While getting familiar during our interview, we try to understand where your working experience, professional skills, and future contribution to the company can be applied within our multiple business projects.
+We don't want to set any limits, but if we are naming the numbers, then the salary range for this position is from 3500 EUR gross till 4300 EUR gross per month.   
+With us you will: 
+Be a part of a top-tier team of professionals, work on global projects that reach millions worldwide, create complex one-of-a-kind in-house products and solutions; 
+Get opportunities for professional development: learn new skills with online courses, broaden your network in local and international conferences, receive mentoring; 
+Enjoy our learning-oriented culture: learn and exchange ideas in lectures and workshops led by your colleagues and team leaders; 
+Have flexible working hours and plan your day its all about the teamwork and performance; 
+Get extra benefits for your health and well-being; we will fully cover your health insurance (dentistry, out-patient treatment, etc.), organize well-being lectures and workshops to promote and support self-care, arrange an office yoga class, offer to take part in vaccination days in the office, and much more; 
+Get treated with delicacies at the office with weekly snack days, monthly morning brunches, and daily supply of fresh fruit and delicious coffee; 
+Enjoy a variety of employee discount programs and have fun at monthly internal activities and celebrations; 
+Work from a spacious, modern, and well-equipped office in the very heart of Riga, with parking space for bikes or scooters. 
+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 1 stunda | Beidzas: 08.02.2024</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1130460/sia-dynatech/product-manager-trevolution</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="300" customHeight="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Senior Java Developer</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sapiens Software Solutions (Latvia) SIA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rīga /  Attālināti</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>€ 3200 – 4800</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sapiens International Corporation (NASDAQ and TASE: SPNS) empowers the financial sector, with a focus on insurance, to transform and become digital, innovative, and agile. Backed by 40 years of industry expertise, Sapiens offers a complete insurance platform, with pre-integrated, low-code solutions and a cloud-first approach that accelerates customers digital transformation. Serving more than 600 customers in 30 countries, Sapiens offers insurers across Property &amp; Casualty, Workers Compensation and Life markets the most comprehensive set of solutions, from core to complementary, including Reinsurance, Financial &amp; Compliance, Data &amp; Analytics, Digital, and Decision Management. Sapiens team of more than 5,000 employees operates through our offices in North America, the UK, EMEA and Asia Pacific.
+We're seeking for an experienced and creative Senior Java Developer to join our R&amp;D team.
+Roles and Responsibilities:
+Designing, development of core components/services which are flexible, extensible, multi-tier, scalable, high performance;
+Providing technical leadership and mentoring to junior developers;
+Developing use cases and design alternatives in accordance with business requirements;
+Interact with Product Owner and Business analyst across geographies to leverage expertise and take up development to the next level;
+Participating in code reviews, working with business analyst and testers to effectively document and validate all implementations;
+Ability to understand and discuss technical concepts, schedule tradeoffs and opportunistic new ideas with technical employees;
+Working with development methodologies used by the company such as Agile.
+ Desired Skills and Experience
+4+ years of experience in Web development;
+Proficiency with fundamental front-end languages such as HTML, CSS, and JavaScript;
+Experience with JavaScript frameworks such as NodeJs, React and Angular;
+Experience with W3C components, Custom Elements API , Templates, shadowDOM;
+Experienced working with XML and JSON, Spring, Hibernate and web services architecture, such as SOAP and/or REST;
+Experience working with relational database, such as MS-SQL and/or Oracle, PostgreSQL;
+Experience with NoSQL Databases such as MogoDB and/or Cassandra;
+Experience working with Open Source frameworks and Kubernetes clusters.
+ Advantage:
+Experience in Scala, Streaming, Functional programming, Data distribution, ElasticSearch;
+Experience in Micro-services architecture;
+Data experience with Kafka, Spark;
+Knowledge in Insurance;
+Test Driven Development.
+We offer:
+Annual bonus as 13th salary payment (in the amount of 1 salary calculated proportionally worked month during a year);
+Paid lunch in the lunch restaurant on the 1st floor of the office building (24/7 healthy snacks and beverages in our office canteen);
+Health insurance after the trial period;
+Possibility to gain professional experience and learn from global industry experts;
+Stable project &amp; diversified working environment;
+Employee engagement events globally and locally;
+Training budget to develop skills and expertise.
+ Join us and become part of our common success!
+ Sapiens is an E-Verified &amp; Equal Opportunity/Affirmative Action Employer, M/F/D/V.
+</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 3 dienas | Beidzas: 29.01.2024</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1127462/sapiens-software-solutions-latvia-sia/senior-java-developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="300" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frontend Engineer (JavaScript/TypeScript)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Evolution Latvia SIA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>€ 4000 – 7600</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Company Description
+Evolution is a leading international B2B provider of games and services in online casino. Operating in the forefront of our industry, we offer a turn-key solution for casino operators. Our licensees players can move flawlessly between mobile, tablet and desktop to play slots or live casino, which feature real tables with real dealers in real time. Our innovative and high-quality offer includes brands like Evolution Live, Red Tiger and NetEnt, and multiple award-winning international player product favorites, such as Crazy Time, Lightning Roulette and Gonzos Quest. Evolution is listed on Nasdaq Nordic with a MCAP of EUR 20+BN.
+We are now looking for an experienced and driven JavaScript/TypeScript Engineer! This is truly an exciting opportunity for a talented individual looking for a career in a dynamic and international work environment.
+As our JavaScript/TypeScript Engineer you will take an integral part in building a cross-platform web application used by hundreds of thousands of users world-wide on iOS, Android and desktop platforms. Our technology stack is modern and based on TypeScript, React, Babylon.js, and webpack.
+To succeed in this role you should have:
+Passion for our profession, in particular front-end development, and improving yourself technically;
+4+ years of experience in front-end development;
+Proven experience in delivering production software using JavaScript or Typescript;
+Highly proficient in spoken and written English;
+Solid knowledge and experience with HTML5 and CSS3;
+Excellent communication skills and a pragmatic approach to problem-solving.
+We will appreciate:
+Solid knowledge of TypeScript and ESNext;
+Experience in other strongly typed programming languages;
+Interest in contemporary programming trends such as functional and reactive programming, CSS preprocessing, alternative JavaScript languages, web components, touch user experiences, and responsive design;
+Experience with React, Redux, Lodash, RxJS, Babylon.js;
+Knowledge of modular CSS by using css-modules and post-css;
+Experience with testing and specifications libraries like Jest, Enzyme, Pupeteer, WebDriverIO, Cucumber, Mocha;
+Knowledge of JavaScript ecosystem tools, such as webpack, npm, yarn;
+Passion towards performance profiling and optimization, using GPU acceleration and maintaining 240 FPS for visually rich applications.
+We offer:
+Entrepreneur culture of the company, which allows you to try new approaches and technologies all the time;
+Recognition from the business which translates to very competitive salaries and a supportive attitude;
+Developing games featuring live video serving customers around the world;
+A healthy mix of startup-like culture of the company, which enables us to try new approaches and technologies and remain on the edge of technological development and enterprise, with stability and supporting functions to help you focus on your job;
+Modern and developer-friendly delivery processes, including Agile (Scrum / Kanban), JIRA issue tracking, Confluence wiki, GitLab source control, Jenkins continuous integration and delivery, modern hardware and software for development (an IDE of your choice);
+Being a part of an international team in a successful, publicly traded company;
+Health insurance, contemporary office environment, tech conference attendance, training, hackathons, 24/7 company gym, and other benefits and perks.
+</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 3 dienas | Beidzas: 12.01.2024</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1121109/evolution-latvia-sia/frontend-engineer-javascript-typescript</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="300" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Senior Front-End Developer (React)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Arvato Systems Latvia SIA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>€ 3800 – 4800</t>
+        </is>
+      </c>
+      <c r="F6" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Responsibilities
+Contribute to architecture and design of components in React.js, testing strategy and deployments to test, integration and production systems
+Hands-on role requiring both production of design artifacts and coding of critical elements
+Interface with the product owner, team members, other teams, and stakeholders
+Take ownership of the team's deliverables, ensuring that the team produces high-quality deliverables
+Provide programming duties with an emphasis on requirements development, planning, analysis and design, testing &amp; acceptance phases of the application software
+Verify source code with testing strategy
+Participation in design and code reviews
+Requirements
+More than 5 years of relevant work experience in software frontend development
+Strong proficiency in JavaScript (ES5, ES6)
+Strong proficiency with JavaScript framework React and React hooks
+Strong proficiency with RESTful, Websockets
+Good knowledge of HTML5, CSS, Sass, and experience in UI/UX
+Experience in application testing Jest, writing unit tests
+Experience with backend tools Azure, Docker
+Experience in code versioning
+Having Experience with the Atomic Design approach
+Familiarity with modern front-end build pipelines and tools
+Experience with common front-end development tools such as Babel, Webpack, NPM, Yarn etc.
+High analytical skills as well as a structured, solution-oriented and independent way of working
+Fluent in English
+Strong team player skills, communication and interpersonal skills: kind, friendly, and cooperative
+Nice to have:
+Experience on Video Processing and Compression: Understanding video codecs, formats, and compression techniques, for example, with tools like FFmpeg or WebCodecs.
+Familiarity with Streaming Protocols: Knowledge of real-time streaming protocols such as RTMP, HLS, or DASH would be advantageous.
+Media File Management and Metadata Handling Experience: Experience in managing media files, handling metadata, and organizing large libraries of audio and video assets would be beneficial.
+We Offer
+Monthly gross salary from 3800 to 4800 EUR, depending on your level of expertise. 
+Hybrid way of working with cozy office space in the center of Riga, when needed, and flexible working hours opportunities, based on your own preferences. 
+Family-oriented company values and healthy attitude towards work and life balance - granting additional 4 vacation days, birthday leave, "Happy Land" space in the office for children, etc. 
+Individual development and learning plan, including yearly budget for external training. 
+Necessary essentials health insurance with dental services and sports coverage. 
+Possibility to work in mutual trust and positive team environment, to be creative and improve working flows by self-initiatives. 
+Friendly, multicultural and cooperation orientated colleagues. 
+</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 5 dienas | Beidzas: 20.01.2024</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1125175/arvato-systems-latvia-sia/senior-front-end-developer-react</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Senior Front End Developer - Vecākais Frontend izstrādātājs/-a</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AGCSOFT SIA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>€ 3650 – 5830</t>
+        </is>
+      </c>
+      <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Atjaunināts pirms 6 dienas | Beidzas: 11.01.2024</t>
+          <t>Publicēts pirms 6 dienas | Beidzas: 02.02.2024</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.cv.lv/lv/vacancy/1120506/gocardless/full-stack-engineer</t>
+          <t>https://www.cv.lv/lv/vacancy/1128150/agcsoft-sia/senior-front-end-developer-vecakais-frontend-izstradatajs-a</t>
         </is>
       </c>
     </row>
@@ -910,25 +939,94 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>QA Automation Engineer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ubiquiti (Latvia) SIA </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rīga /  Attālināti</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>€ 2500 – 5000</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Responsibilities:
+Day-to-day work with various kind of Network type devices;
+Create, maintain and execute automated test scripts;
+Identify and report bugs, ensuring proper follow-up;
+Perform front-end and back-end testing throughout the entire QA process;
+Analyse release notes, project documentation and other project artefacts to identify new or update existing test scenarios.
+Requirements:
+3+ years AQA experience in similar position;
+Jenkins pipelines + DSL (Groovy);
+Java + Selenium;
+Bash scripting;
+General understanding in Network (Internet, WiFi, VLAN, Firewall, VPN etc.);
+Strong understanding in MQA testing process;
+Fluent in English and Latvian.
+Nice to have:
+JavaScript;
+Python;
+System Administration;
+DevOps (CI/CD setup &amp; administration, Terraform scripts);
+Network administration.
+Benefits:
+International work environment and work with global development teams;
+Ability to deliver software that is used by millions of people across the globe;
+Access to all Ubiquiti products;
+Medical insurance;
+Hybrid approach - office in Riga;
+Flexible work hours;
+Compensation package matching global standards, including competitive salary depending on your qualification and background (starting from 2500 up to 5000 Euro gross monthly);
+A-class office with all the necessities - snacks, drinks, free parking, etc!
+</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 6 dienas | Beidzas: 19.01.2024</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/987343/ubiquiti-latvia-sia/qa-automation-engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="300" customHeight="1">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Senior Software Developer - React</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Emergn</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>€ 3500 – 4500</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F9" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">From ideas to impact
 We are a global digital business services organization with a mission to improve the way people and companies work. Forever. Our Consulting, Delivery and Learning teams design and deliver transformational digital products and experiences that add value to our clients businesses and to their customers' lives.
@@ -962,42 +1060,42 @@
 </t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 9 dienas | Beidzas: 29.01.2024</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 10 dienas | Beidzas: 29.01.2024</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1127687/emergn/senior-software-developer-react</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="300" customHeight="1">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="10" ht="300" customHeight="1">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Front-end Developer</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>SIA "Dynatech"</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>€ 2500 – 3500</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">This is the ideal role for a seasoned front-end development professional who is ready to take on new challenges in development projects that have no equivalents in the Latvian market.
 We are able to offer you a project that matches your interest: whether it be an online reservation system, CRM with difficult business logic, an accounting/ anti-fraud system or payment processing. Let us know where your heart lies.
@@ -1020,42 +1118,42 @@
 </t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 9 dienas | Beidzas: 29.01.2024</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 10 dienas | Beidzas: 29.01.2024</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1127439/sia-dynatech/front-end-developer</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="300" customHeight="1">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="11" ht="300" customHeight="1">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Senior Front-end Developer</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>SIA "Dynatech"</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>€ 3500</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F11" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">This is the ideal role for a seasoned front-end development professional who is ready to take on new challenges in development projects that have no equivalents in the Latvian market.
 We are able to offer you a project that matches your interest: whether it be an online reservation system, CRM with difficult business logic, an accounting/ anti-fraud system or payment processing. Let us know where your heart lies.
@@ -1078,42 +1176,42 @@
 </t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 9 dienas | Beidzas: 29.01.2024</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 10 dienas | Beidzas: 29.01.2024</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1127438/sia-dynatech/senior-front-end-developer</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="300" customHeight="1">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="12" ht="300" customHeight="1">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>DevOps Engineer</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>VISMA</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>€ 2500 – 4500</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F12" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Visma provides software solutions that cover HRM, Finance, Accounting, Talent Management and Payroll solutions with a diverse customer portfolio. Visma Labs is a team of more than 290 talented professionals in Latvia. We develop, test and support business systems, as part of an international organisation.
 Project: Visma Recruit
@@ -1157,78 +1255,78 @@
 </t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 11 dienas | Beidzas: 26.01.2024</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 12 dienas | Beidzas: 26.01.2024</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1126713/visma/devops-engineer</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="30" customHeight="1">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Front-End Developer (Senior OR Lead)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PICHE SIA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Rīgas rajons /  Attālināti</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>€ 3000 – 5000</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 16 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1126561/piche-sia/front-end-developer-senior-or-lead</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="300" customHeight="1">
+    <row r="13" ht="30" customHeight="1">
       <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Front-End Developer (Senior OR Lead)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PICHE SIA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Rīgas rajons /  Attālināti</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>€ 3000 – 5000</t>
+        </is>
+      </c>
+      <c r="F13" s="10" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 17 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1126561/piche-sia/front-end-developer-senior-or-lead</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="300" customHeight="1">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Senior Fullstack Engineer with Solidus and NextJS experience, eCommerce Solution</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>DataArt Ltd</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>€ 4000 – 4500</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F14" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Job description
 Client
@@ -1262,42 +1360,42 @@
 </t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 16 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 17 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1126479/dataart-ltd/senior-fullstack-engineer-with-solidus-and-nextjs-experience-ecommerce-solution</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="300" customHeight="1">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="15" ht="300" customHeight="1">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Technical Leader Fullstack, AWS Services</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>DataArt Ltd</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>€ 3900 – 4400</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F15" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Job description
 Client
@@ -1332,42 +1430,42 @@
 </t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 16 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 17 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1126475/dataart-ltd/technical-leader-fullstack-aws-services</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="300" customHeight="1">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
+    <row r="16" ht="300" customHeight="1">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Programmatūras testētājs(-a)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Printful Latvia AS</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>€ 1500 – 2300</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Printful ir globāls līderis apdrukas industrijā, kas sadarbojas ar tādiem pasaulē pazīstamiem zīmoliem kā Coca-Cola, Spotify un MTV. Mūsu bizness turpina augt, tāpēc mūsu Design Maker komanda dizaina nodaļā meklē kvalificētu programmatūras testētāju, kas vēlas stāties pretī aizraujošiem izaicinājumiem un palīdzēt mums sasniegt labākos rezultātus sistēmas izstrādē.
 Mūsu veidotais Printful Design Maker dod iespēju tūkstošiem e-komercijas veikalu īpašnieku visā pasaulē izveidot unikālus personalizētus produktus. Dizaina programmas progresīvās tehnoloģijas šo procesu padara vienkāršu, taču ļauj radīt reālistiskus un precīzus produktu attēlus. 
@@ -1408,42 +1506,42 @@
 </t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 16 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 17 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1126363/printful-latvia-as/programmaturas-testetajs-a</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="300" customHeight="1">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="17" ht="300" customHeight="1">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Middle Front-end Developer (Angular) for Swisscom</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>IT Camp</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>€ 2500 – 4500</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F17" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">IT Camp partner -SWISSCOM- Switzerland's leading telco company and one of leading Swiss IT companies. Over 19000 employees are working for Swisscom in Switzerland, Italy and Netherlands and it is one of Switzerland's most sustainable and innovative companies, one of the top 3 Swiss employers for IT specialists one league with worldwide giants like Google and Microsoft.
 Due to the growth of the company, a brand new DevOps centre has been established in Riga, Latvia last year, and we invite you to join it.
@@ -1483,42 +1581,42 @@
 </t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 19 dienas | Beidzas: 19.01.2024</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 20 dienas | Beidzas: 19.01.2024</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1123517/it-camp/middle-front-end-developer-angular-for-swisscom</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="300" customHeight="1">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="18" ht="300" customHeight="1">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>AEM Frontend Developer, Reporting System</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>DataArt Ltd</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>€ 4300 – 4900</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F18" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Job description
 Client
@@ -1551,78 +1649,78 @@
 </t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 20 dienas | Beidzas: 18.01.2024</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 21 dienas | Beidzas: 18.01.2024</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1123061/dataart-ltd/aem-frontend-developer-reporting-system</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="30" customHeight="1">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Software Developer</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>If P&amp;C Insurance AS Latvijas filiāle</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Rīga</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>€ 3600 – 4400</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 23 dienas | Beidzas: 15.01.2024</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1122460/if-p-un-c-insurance-as-latvijas-filiale/software-developer</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="300" customHeight="1">
+    <row r="19" ht="30" customHeight="1">
       <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>If P&amp;C Insurance AS Latvijas filiāle</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>€ 3600 – 4400</t>
+        </is>
+      </c>
+      <c r="F19" s="10" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 24 dienas | Beidzas: 15.01.2024</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1122460/if-p-un-c-insurance-as-latvijas-filiale/software-developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="300" customHeight="1">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Senior Full-Stack Developer</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>VR Group Ltd</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>€ 4000 – 5000</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F20" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Requirements for candidates
 Bachelors degree in computer science, Information Technology, or related field (or equivalent work experience).
@@ -1672,42 +1770,42 @@
 </t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 25 dienas | Beidzas: 13.01.2024</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 26 dienas | Beidzas: 13.01.2024</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1121724/vr-group-ltd/senior-full-stack-developer</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="300" customHeight="1">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
+    <row r="21" ht="300" customHeight="1">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Middle Ruby / RoR developer</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>IT Camp</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>€ 3500 – 5000</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F21" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">LevelPath (www.levelpath.com) - IT Camp partner - company that is focused on the public-facing enterprise applications that make enterprise sourcing/purchasing commerce faster, safer, and more transparent. The company was founded by a leadership team that previously built several meaningful software companies over the last decade. Theyre now turning their attention to building the next-gen enterprise system of record in a wide-open space. Its a huge opportunity and we need some amazing individuals to help make enterprises faster, safer and more transparent.
 We are looking for Middle Software engineer (Ruby on Rails) to build the strongest team.
@@ -1734,42 +1832,42 @@
 </t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 26 dienas | Beidzas: 12.01.2024</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 27 dienas | Beidzas: 12.01.2024</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1121184/it-camp/middle-ruby-ror-developer</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="300" customHeight="1">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="22" ht="300" customHeight="1">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Senior Software engineer (React.js / TypeScript)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>IT Camp</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>€ 5000 – 8000</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F22" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">LevelPath (www.levelpath.com) - IT Camp partner - company that is focused on the public-facing enterprise applications that make enterprise sourcing/purchasing commerce faster, safer, and more transparent. The company was founded by a leadership team that previously built several meaningful software companies over the last decade. Theyre now turning their attention to building the next-gen enterprise system of record in a wide-open space. Its a huge opportunity and we need some amazing individuals to help make enterprises faster, safer and more transparent.
 We are looking for a Senior Software engineer (React.js / TypeScript) to build the strongest team.
@@ -1795,42 +1893,42 @@
 </t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 26 dienas | Beidzas: 12.01.2024</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 27 dienas | Beidzas: 12.01.2024</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1121180/it-camp/senior-software-engineer-react-js-typescript</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="300" customHeight="1">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="23" ht="300" customHeight="1">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Senior Software Development Engineer</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>GoCardless</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>€ 5600 – 7590</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F23" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">About us
 At GoCardless we believe bank payments are the best way to pay and get paid. We also believe that bank account data is a powerful tool to make better, faster decisions. We are making it easy to use both- for businesses everywhere. 
@@ -1869,18 +1967,17 @@
 </t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 30 dienas | Beidzas: 08.01.2024</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 1 mēnesis | Beidzas: 08.01.2024</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1120302/gocardless/senior-software-development-engineer</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="300" customHeight="1"/>
     <row r="24" ht="30" customHeight="1"/>
     <row r="25" ht="30" customHeight="1"/>
     <row r="26" ht="150" customHeight="1"/>
@@ -2038,6 +2135,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H20" r:id="rId19"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H21" r:id="rId20"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H23" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lapa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -64,41 +64,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -177,10 +160,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -218,71 +201,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -310,7 +293,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -333,11 +316,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -346,13 +329,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -362,7 +345,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -371,7 +354,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -380,7 +363,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -388,10 +371,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -461,22 +444,22 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.147857142857143" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="37.14785714285715" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="23.71928571428571" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="16.14785714285714" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="14.71928571428571" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
-    <col width="150" bestFit="1" customWidth="1" style="9" min="6" max="6"/>
-    <col width="44.43357142857143" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
-    <col width="32.57642857142857" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="5.140625" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="37.140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="23.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="14.7109375" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="150" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="44.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="32.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -485,37 +468,37 @@
           <t>Nr</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Virsraksts</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Uzņēmums</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Atrašanās vieta</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Alga</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Apraksts</t>
         </is>
       </c>
-      <c r="G1" s="8" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Atjaunots/Publicēts | Beidzas</t>
         </is>
       </c>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Sludinājuma saite</t>
         </is>
@@ -527,25 +510,354 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Senior Front-End Developer (React)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Arvato Systems Latvia SIA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>€ 3800 – 4800</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Responsibilities
+Contribute to architecture and design of components in React.js, testing strategy and deployments to test, integration and production systems
+Hands-on role requiring both production of design artifacts and coding of critical elements
+Interface with the product owner, team members, other teams, and stakeholders
+Take ownership of the team's deliverables, ensuring that the team produces high-quality deliverables
+Provide programming duties with an emphasis on requirements development, planning, analysis and design, testing &amp; acceptance phases of the application software
+Verify source code with testing strategy
+Participation in design and code reviews
+Requirements
+More than 5 years of relevant work experience in software frontend development
+Strong proficiency in JavaScript (ES5, ES6)
+Strong proficiency with JavaScript framework React and React hooks
+Strong proficiency with RESTful, Websockets
+Good knowledge of HTML5, CSS, Sass, and experience in UI/UX
+Experience in application testing Jest, writing unit tests
+Experience with backend tools Azure, Docker
+Experience in code versioning
+Having Experience with the Atomic Design approach
+Familiarity with modern front-end build pipelines and tools
+Experience with common front-end development tools such as Babel, Webpack, NPM, Yarn etc.
+High analytical skills as well as a structured, solution-oriented and independent way of working
+Fluent in English
+Strong team player skills, communication and interpersonal skills: kind, friendly, and cooperative
+Nice to have:
+Experience on Video Processing and Compression: Understanding video codecs, formats, and compression techniques, for example, with tools like FFmpeg or WebCodecs.
+Familiarity with Streaming Protocols: Knowledge of real-time streaming protocols such as RTMP, HLS, or DASH would be advantageous.
+Media File Management and Metadata Handling Experience: Experience in managing media files, handling metadata, and organizing large libraries of audio and video assets would be beneficial.
+We Offer
+Monthly gross salary from 3800 to 4800 EUR, depending on your level of expertise. 
+Hybrid way of working with cozy office space in the center of Riga, when needed, and flexible working hours opportunities, based on your own preferences. 
+Family-oriented company values and healthy attitude towards work and life balance - granting additional 4 vacation days, birthday leave, "Happy Land" space in the office for children, etc. 
+Individual development and learning plan, including yearly budget for external training. 
+Necessary essentials health insurance with dental services and sports coverage. 
+Possibility to work in mutual trust and positive team environment, to be creative and improve working flows by self-initiatives. 
+Friendly, multicultural and cooperation orientated colleagues. 
+</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 4 stundas | Beidzas: 20.01.2024</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1125175/arvato-systems-latvia-sia/senior-front-end-developer-react</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Senior Front End Developer - Vecākais Frontend izstrādātājs/-a</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AGCSOFT SIA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>€ 3650 – 5830</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 20 stundas | Beidzas: 02.02.2024</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1128150/agcsoft-sia/senior-front-end-developer-vecakais-frontend-izstradatajs-a</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="300" customHeight="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Site Reliability Engineer</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cognizant Latvia</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>€ 2200 – 4200</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cognizant is one of the world's leading professional services companies, transforming clients' business, operating, and technology models for the digital era. Our unique industry-based, consultative approach helps clients envision, build, and run more innovative and efficient businesses. Headquartered in the U.S., Cognizant, a member of the NASDAQ-100, is ranked 195 on the Fortune 500 and is consistently listed among the most admired companies in the world. 
+ At Cognizant, together with your colleagues globally, you will collaborate on crafting solutions for prestigious companies and help them become more flexible, innovative, and successful. 
+This is your chance to join the success story: We are looking for a Site Reliability Engineer to join our Application Development and Management Team. 
+ About ADM  
+Our vision is to engineer applications for modern businesses and thereby accelerate customers digital transformation through industry expertise, modern software engineering, and partnerships with Cloud, SaaS, and product partners. We follow a strategy that leverages a forward-looking approach to help our customers by delivering future-proof applications and ensuring they are Fit for Use, Fit for Purpose, and Fit for Future. 
+We work with the worlds leading organizations to provide collaborative solutions to their business and IT challenges with innovative ideas that are embraced by their customers. 
+ More information? https://www.cognizant.com/us/en/services/application-services-and-modernization 
+About the role  
+The Site Reliability Engineer is responsible for building and maintaining the resilience, availability, scalability, and performance of applications. You will work closely with Developers to identify and fix issues proactively. You will be responsible for system performance monitoring, system capacity planning, and performance tuning. 
+  Our ideal candidate  
+Software engineer with strong application and infrastructure monitoring skills 
+Solid experience working with industry-standard observability and monitoring tools like AppDynamics, Dynatrace etc. 
+Hands-on knowledge of Linux, Kubernetes 
+Relevant knowledge about front-end and back-end applications, integrations and application logging 
+Automation, scripting skills 
+Experience working with API 
+Experience working with databases (relational, NoSQL) 
+Experience with debugging production performance issues 
+Familiar with Agile way of working. 
+Strong analytical, problem solving, documentation and dashboarding skills 
+Quick learner, excellent communication skills. 
+What you can expect 
+The competitive compensation package consists of a base salary starting from 2200 EUR gross/monthly. 
+Please note that the offer for the final candidate will depend on the experience and competencies of the candidate for the required job
+ An annual bonus, and monetary recognition. 
+Benefits package that encourages healthy living, well-being, and desire to learn and grow: 
+from the first working day available Life insurance and Health insurance plans which also include dentistry, pharmacy coverage, various sports; 
+compensation of optical glasses or contact lenses up to 180 EUR; 
+accessing a smartphone and mobile subscription, as well as free car parking or bike shelter; 
+individual life coaching and mindfulness sessions; 
+hybrid work, the ability to work from home; 
+various learning platforms with over 50,000 self-paced courses, books, and other training resources; 
+self-realization opportunities through outreach, committees, and communities. 
+Cognizant as a digital company, makes employee health and safety its top priority. With that in mind, we are implementing virtual hiring and work practices which means interviews will be conducted online. 
+Stay up to date with our website https://careers.cognizant.com/global/en 
+We are an equal-opportunity employer and value diversity at our company. We do not discriminate based on race, religion, color, national origin, sex, gender, gender expression, sexual orientation, age, marital status, veteran status, or disability status. 
+</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 20 stundas | Beidzas: 09.02.2024</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1131638/cognizant-latvia/site-reliability-engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="300" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>QA Automation Engineer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ubiquiti (Latvia) SIA </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rīga /  Attālināti</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>€ 2500 – 5000</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Responsibilities:
+Day-to-day work with various kind of Network type devices;
+Create, maintain and execute automated test scripts;
+Identify and report bugs, ensuring proper follow-up;
+Perform front-end and back-end testing throughout the entire QA process;
+Analyse release notes, project documentation and other project artefacts to identify new or update existing test scenarios.
+Requirements:
+3+ years AQA experience in similar position;
+Jenkins pipelines + DSL (Groovy);
+Java + Selenium;
+Bash scripting;
+General understanding in Network (Internet, WiFi, VLAN, Firewall, VPN etc.);
+Strong understanding in MQA testing process;
+Fluent in English and Latvian.
+Nice to have:
+JavaScript;
+Python;
+System Administration;
+DevOps (CI/CD setup &amp; administration, Terraform scripts);
+Network administration.
+Benefits:
+International work environment and work with global development teams;
+Ability to deliver software that is used by millions of people across the globe;
+Access to all Ubiquiti products;
+Medical insurance;
+Hybrid approach - office in Riga;
+Flexible work hours;
+Compensation package matching global standards, including competitive salary depending on your qualification and background (starting from 2500 up to 5000 Euro gross monthly);
+A-class office with all the necessities - snacks, drinks, free parking, etc!
+</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 22 stundas | Beidzas: 19.01.2024</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/987343/ubiquiti-latvia-sia/qa-automation-engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="300" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Java programmētājs/-a (Java Developer)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Confero Technologies, SIA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Rīga /  Attālināti</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>€ 2800 – 4200</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Confero Technologies meklē pieredzējušu Java programmētāju FinTech programmproduktu attīstībai lieliskā komandā. Ja Tevi aizrauj inovatīvi programmatūras risinājumi klientu attālinātai apkalpošanai un Tev ir pieredze ar programmatūras izstrādi Java valodā, gaidīsim pieteikumu!
+Prasības kandidātiem
+augstākā izglītība IT jomā vai turpina studijas IT jomā;
+vismaz divu gadu darba pieredze IT jomā un pieredze darbā ar Java tehnoloģijām;
+spēja strādāt dinamiskos apstākļos, ievērojot stingrus termiņus un saglabājot pozitīvu attieksmi;
+komunikācijas prasmes latviešu, krievu un angļu valodā.
+pieredze ar sekojošam tehnoloģijām:
+-Java, Spring Boot, Spring Cloud,
+- Relāciju datu bāzes (Oracle, MySQL, Postgres), SQL un ORM (Hibernate),
+-TDD, SOLID, OOP, Event-driven dizaina principi,
+-Microservices un REST,
+-zināšanas par tīkla drošību un ievainojamībām, autentifikācijas autorizācijas veidiem,
+-Docker
+par priekšrocību tiks uzskatīta/-as:
+-pieredze ar AWS/Azure/GCP cloud platformām,
+-Devops un CI/CD iemaņas, IaC (Infrastructure as code),
+-Linux, command line scripting,
+-pieredze ar Frontend Vue.js/Anguar/React, JavaScript/TypeScript;
+-message brokeri (piem. ActiveMQ), JMS, Kafka.
+Pienākumi
+prasību analīze un programmatūras arhitektūras izveide;
+jaunās programmatūras izstrāde;
+esošās programmatūras attīstība.
+Mēs piedavājam
+interesantus un ambiciozus darba uzdevumus;
+profesionālās izaugsmes iespējas ātri augošajā uzņēmumā;
+draudzīgus kolēģus ar milzīgu pieredzi un tiekšanos uz kopējiem mērķiem;
+hibrīddarba režīmu (klātienē un attālināti);
+patīkamu atmosfēru, uzkodas un kafiju skaistā birojā Rīgas centrā;
+izdevīgus nosacījumus automašīnas stāvvietai biroja tuvumā;
+veselības apdrošināšanas polisi;
+jautrus komandas saliedēšanas pasākumus;
+mēneša darba alga pirms nodokļu nomaksas sākot no 2 800.00 līdz 4 200.00 EUR, atkarībā no pieredzes, zināšanām un kompetences.
+</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 1 diena | Beidzas: 08.02.2024</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1130936/confero-technologies-sia/java-programmetajs-a-java-developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="300" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Full Stack Engineer</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>GoCardless</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>€ 3200 – 5100</t>
         </is>
       </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">About us
 At GoCardless we believe bank payments are the best way to pay and get paid. We also believe that bank account data is a powerful tool to make better, faster decisions. We're making it easy to use both - for businesses everywhere.
@@ -596,42 +908,42 @@
 </t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 1 stunda | Beidzas: 11.01.2024</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 2 dienas | Beidzas: 11.01.2024</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1120506/gocardless/full-stack-engineer</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="300" customHeight="1">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="8" ht="300" customHeight="1">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Product Manager (Trevolution)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>SIA "Dynatech"</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>€ 3500 – 4300</t>
         </is>
       </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> At TreVolution Group, we're passionate about creating innovative solutions to simplify business travel for our clients. We're a global company with a mission to make corporate travel hassle-free, efficient and cost-effective. Our internal travel system is a crucial component of this mission, and we're looking for a talented Product Manager to join our team and help us take our platform to the next level. 
 Job Description:
@@ -668,42 +980,42 @@
 </t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 1 stunda | Beidzas: 08.02.2024</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 2 dienas | Beidzas: 08.02.2024</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1130460/sia-dynatech/product-manager-trevolution</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="300" customHeight="1">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9" ht="300" customHeight="1">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Senior Java Developer</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Sapiens Software Solutions (Latvia) SIA</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>€ 3200 – 4800</t>
         </is>
       </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sapiens International Corporation (NASDAQ and TASE: SPNS) empowers the financial sector, with a focus on insurance, to transform and become digital, innovative, and agile. Backed by 40 years of industry expertise, Sapiens offers a complete insurance platform, with pre-integrated, low-code solutions and a cloud-first approach that accelerates customers digital transformation. Serving more than 600 customers in 30 countries, Sapiens offers insurers across Property &amp; Casualty, Workers Compensation and Life markets the most comprehensive set of solutions, from core to complementary, including Reinsurance, Financial &amp; Compliance, Data &amp; Analytics, Digital, and Decision Management. Sapiens team of more than 5,000 employees operates through our offices in North America, the UK, EMEA and Asia Pacific.
 We're seeking for an experienced and creative Senior Java Developer to join our R&amp;D team.
@@ -743,42 +1055,42 @@
 </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 3 dienas | Beidzas: 29.01.2024</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 5 dienas | Beidzas: 29.01.2024</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1127462/sapiens-software-solutions-latvia-sia/senior-java-developer</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="300" customHeight="1">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10" ht="300" customHeight="1">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Frontend Engineer (JavaScript/TypeScript)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Evolution Latvia SIA</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>€ 4000 – 7600</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Company Description
 Evolution is a leading international B2B provider of games and services in online casino. Operating in the forefront of our industry, we offer a turn-key solution for casino operators. Our licensees players can move flawlessly between mobile, tablet and desktop to play slots or live casino, which feature real tables with real dealers in real time. Our innovative and high-quality offer includes brands like Evolution Live, Red Tiger and NetEnt, and multiple award-winning international player product favorites, such as Crazy Time, Lightning Roulette and Gonzos Quest. Evolution is listed on Nasdaq Nordic with a MCAP of EUR 20+BN.
@@ -811,222 +1123,42 @@
 </t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 3 dienas | Beidzas: 12.01.2024</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 5 dienas | Beidzas: 12.01.2024</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1121109/evolution-latvia-sia/frontend-engineer-javascript-typescript</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="300" customHeight="1">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Senior Front-End Developer (React)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Arvato Systems Latvia SIA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Rīga</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>€ 3800 – 4800</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Responsibilities
-Contribute to architecture and design of components in React.js, testing strategy and deployments to test, integration and production systems
-Hands-on role requiring both production of design artifacts and coding of critical elements
-Interface with the product owner, team members, other teams, and stakeholders
-Take ownership of the team's deliverables, ensuring that the team produces high-quality deliverables
-Provide programming duties with an emphasis on requirements development, planning, analysis and design, testing &amp; acceptance phases of the application software
-Verify source code with testing strategy
-Participation in design and code reviews
-Requirements
-More than 5 years of relevant work experience in software frontend development
-Strong proficiency in JavaScript (ES5, ES6)
-Strong proficiency with JavaScript framework React and React hooks
-Strong proficiency with RESTful, Websockets
-Good knowledge of HTML5, CSS, Sass, and experience in UI/UX
-Experience in application testing Jest, writing unit tests
-Experience with backend tools Azure, Docker
-Experience in code versioning
-Having Experience with the Atomic Design approach
-Familiarity with modern front-end build pipelines and tools
-Experience with common front-end development tools such as Babel, Webpack, NPM, Yarn etc.
-High analytical skills as well as a structured, solution-oriented and independent way of working
-Fluent in English
-Strong team player skills, communication and interpersonal skills: kind, friendly, and cooperative
-Nice to have:
-Experience on Video Processing and Compression: Understanding video codecs, formats, and compression techniques, for example, with tools like FFmpeg or WebCodecs.
-Familiarity with Streaming Protocols: Knowledge of real-time streaming protocols such as RTMP, HLS, or DASH would be advantageous.
-Media File Management and Metadata Handling Experience: Experience in managing media files, handling metadata, and organizing large libraries of audio and video assets would be beneficial.
-We Offer
-Monthly gross salary from 3800 to 4800 EUR, depending on your level of expertise. 
-Hybrid way of working with cozy office space in the center of Riga, when needed, and flexible working hours opportunities, based on your own preferences. 
-Family-oriented company values and healthy attitude towards work and life balance - granting additional 4 vacation days, birthday leave, "Happy Land" space in the office for children, etc. 
-Individual development and learning plan, including yearly budget for external training. 
-Necessary essentials health insurance with dental services and sports coverage. 
-Possibility to work in mutual trust and positive team environment, to be creative and improve working flows by self-initiatives. 
-Friendly, multicultural and cooperation orientated colleagues. 
-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 20.01.2024</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1125175/arvato-systems-latvia-sia/senior-front-end-developer-react</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Senior Front End Developer - Vecākais Frontend izstrādātājs/-a</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AGCSOFT SIA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Rīga</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>€ 3650 – 5830</t>
-        </is>
-      </c>
-      <c r="F7" s="10" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 6 dienas | Beidzas: 02.02.2024</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1128150/agcsoft-sia/senior-front-end-developer-vecakais-frontend-izstradatajs-a</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="300" customHeight="1">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>QA Automation Engineer</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ubiquiti (Latvia) SIA </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+    <row r="11" ht="300" customHeight="1">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Senior Software Developer - React</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Emergn</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>€ 2500 – 5000</t>
-        </is>
-      </c>
-      <c r="F8" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Responsibilities:
-Day-to-day work with various kind of Network type devices;
-Create, maintain and execute automated test scripts;
-Identify and report bugs, ensuring proper follow-up;
-Perform front-end and back-end testing throughout the entire QA process;
-Analyse release notes, project documentation and other project artefacts to identify new or update existing test scenarios.
-Requirements:
-3+ years AQA experience in similar position;
-Jenkins pipelines + DSL (Groovy);
-Java + Selenium;
-Bash scripting;
-General understanding in Network (Internet, WiFi, VLAN, Firewall, VPN etc.);
-Strong understanding in MQA testing process;
-Fluent in English and Latvian.
-Nice to have:
-JavaScript;
-Python;
-System Administration;
-DevOps (CI/CD setup &amp; administration, Terraform scripts);
-Network administration.
-Benefits:
-International work environment and work with global development teams;
-Ability to deliver software that is used by millions of people across the globe;
-Access to all Ubiquiti products;
-Medical insurance;
-Hybrid approach - office in Riga;
-Flexible work hours;
-Compensation package matching global standards, including competitive salary depending on your qualification and background (starting from 2500 up to 5000 Euro gross monthly);
-A-class office with all the necessities - snacks, drinks, free parking, etc!
-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 6 dienas | Beidzas: 19.01.2024</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/987343/ubiquiti-latvia-sia/qa-automation-engineer</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="300" customHeight="1">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Senior Software Developer - React</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Emergn</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Rīga /  Attālināti</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>€ 3500 – 4500</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">From ideas to impact
 We are a global digital business services organization with a mission to improve the way people and companies work. Forever. Our Consulting, Delivery and Learning teams design and deliver transformational digital products and experiences that add value to our clients businesses and to their customers' lives.
@@ -1060,42 +1192,42 @@
 </t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 10 dienas | Beidzas: 29.01.2024</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 12 dienas | Beidzas: 29.01.2024</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1127687/emergn/senior-software-developer-react</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="300" customHeight="1">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="12" ht="300" customHeight="1">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Front-end Developer</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>SIA "Dynatech"</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>€ 2500 – 3500</t>
         </is>
       </c>
-      <c r="F10" s="10" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">This is the ideal role for a seasoned front-end development professional who is ready to take on new challenges in development projects that have no equivalents in the Latvian market.
 We are able to offer you a project that matches your interest: whether it be an online reservation system, CRM with difficult business logic, an accounting/ anti-fraud system or payment processing. Let us know where your heart lies.
@@ -1118,42 +1250,42 @@
 </t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 10 dienas | Beidzas: 29.01.2024</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 12 dienas | Beidzas: 29.01.2024</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1127439/sia-dynatech/front-end-developer</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="300" customHeight="1">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="13" ht="300" customHeight="1">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Senior Front-end Developer</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>SIA "Dynatech"</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>€ 3500</t>
         </is>
       </c>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">This is the ideal role for a seasoned front-end development professional who is ready to take on new challenges in development projects that have no equivalents in the Latvian market.
 We are able to offer you a project that matches your interest: whether it be an online reservation system, CRM with difficult business logic, an accounting/ anti-fraud system or payment processing. Let us know where your heart lies.
@@ -1176,42 +1308,42 @@
 </t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 10 dienas | Beidzas: 29.01.2024</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 12 dienas | Beidzas: 29.01.2024</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1127438/sia-dynatech/senior-front-end-developer</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="300" customHeight="1">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="14" ht="300" customHeight="1">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>DevOps Engineer</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>VISMA</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>€ 2500 – 4500</t>
         </is>
       </c>
-      <c r="F12" s="10" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Visma provides software solutions that cover HRM, Finance, Accounting, Talent Management and Payroll solutions with a diverse customer portfolio. Visma Labs is a team of more than 290 talented professionals in Latvia. We develop, test and support business systems, as part of an international organisation.
 Project: Visma Recruit
@@ -1255,78 +1387,78 @@
 </t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 12 dienas | Beidzas: 26.01.2024</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 14 dienas | Beidzas: 26.01.2024</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1126713/visma/devops-engineer</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Front-End Developer (Senior OR Lead)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>PICHE SIA</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Rīgas rajons /  Attālināti</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>€ 3000 – 5000</t>
         </is>
       </c>
-      <c r="F13" s="10" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 17 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 19 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1126561/piche-sia/front-end-developer-senior-or-lead</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="300" customHeight="1">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="16" ht="300" customHeight="1">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Senior Fullstack Engineer with Solidus and NextJS experience, eCommerce Solution</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>DataArt Ltd</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>€ 4000 – 4500</t>
         </is>
       </c>
-      <c r="F14" s="10" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Job description
 Client
@@ -1360,42 +1492,42 @@
 </t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 17 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 19 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1126479/dataart-ltd/senior-fullstack-engineer-with-solidus-and-nextjs-experience-ecommerce-solution</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="300" customHeight="1">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
+    <row r="17" ht="300" customHeight="1">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Technical Leader Fullstack, AWS Services</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>DataArt Ltd</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>€ 3900 – 4400</t>
         </is>
       </c>
-      <c r="F15" s="10" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Job description
 Client
@@ -1430,42 +1562,42 @@
 </t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 17 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 19 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1126475/dataart-ltd/technical-leader-fullstack-aws-services</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="300" customHeight="1">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="18" ht="300" customHeight="1">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Programmatūras testētājs(-a)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Printful Latvia AS</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>€ 1500 – 2300</t>
         </is>
       </c>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Printful ir globāls līderis apdrukas industrijā, kas sadarbojas ar tādiem pasaulē pazīstamiem zīmoliem kā Coca-Cola, Spotify un MTV. Mūsu bizness turpina augt, tāpēc mūsu Design Maker komanda dizaina nodaļā meklē kvalificētu programmatūras testētāju, kas vēlas stāties pretī aizraujošiem izaicinājumiem un palīdzēt mums sasniegt labākos rezultātus sistēmas izstrādē.
 Mūsu veidotais Printful Design Maker dod iespēju tūkstošiem e-komercijas veikalu īpašnieku visā pasaulē izveidot unikālus personalizētus produktus. Dizaina programmas progresīvās tehnoloģijas šo procesu padara vienkāršu, taču ļauj radīt reālistiskus un precīzus produktu attēlus. 
@@ -1506,42 +1638,42 @@
 </t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 17 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 19 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1126363/printful-latvia-as/programmaturas-testetajs-a</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="300" customHeight="1">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="19" ht="300" customHeight="1">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Middle Front-end Developer (Angular) for Swisscom</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>IT Camp</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>€ 2500 – 4500</t>
         </is>
       </c>
-      <c r="F17" s="10" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">IT Camp partner -SWISSCOM- Switzerland's leading telco company and one of leading Swiss IT companies. Over 19000 employees are working for Swisscom in Switzerland, Italy and Netherlands and it is one of Switzerland's most sustainable and innovative companies, one of the top 3 Swiss employers for IT specialists one league with worldwide giants like Google and Microsoft.
 Due to the growth of the company, a brand new DevOps centre has been established in Riga, Latvia last year, and we invite you to join it.
@@ -1581,42 +1713,42 @@
 </t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 20 dienas | Beidzas: 19.01.2024</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 22 dienas | Beidzas: 19.01.2024</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1123517/it-camp/middle-front-end-developer-angular-for-swisscom</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="300" customHeight="1">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
+    <row r="20" ht="300" customHeight="1">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>AEM Frontend Developer, Reporting System</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>DataArt Ltd</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>€ 4300 – 4900</t>
         </is>
       </c>
-      <c r="F18" s="10" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Job description
 Client
@@ -1649,78 +1781,78 @@
 </t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 21 dienas | Beidzas: 18.01.2024</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 23 dienas | Beidzas: 18.01.2024</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1123061/dataart-ltd/aem-frontend-developer-reporting-system</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="30" customHeight="1">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Software Developer</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>If P&amp;C Insurance AS Latvijas filiāle</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>€ 3600 – 4400</t>
         </is>
       </c>
-      <c r="F19" s="10" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 24 dienas | Beidzas: 15.01.2024</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 26 dienas | Beidzas: 15.01.2024</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1122460/if-p-un-c-insurance-as-latvijas-filiale/software-developer</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="300" customHeight="1">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
+    <row r="22" ht="300" customHeight="1">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Senior Full-Stack Developer</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>VR Group Ltd</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>€ 4000 – 5000</t>
         </is>
       </c>
-      <c r="F20" s="10" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Requirements for candidates
 Bachelors degree in computer science, Information Technology, or related field (or equivalent work experience).
@@ -1770,42 +1902,42 @@
 </t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 26 dienas | Beidzas: 13.01.2024</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 28 dienas | Beidzas: 13.01.2024</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1121724/vr-group-ltd/senior-full-stack-developer</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="300" customHeight="1">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="23" ht="300" customHeight="1">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Middle Ruby / RoR developer</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>IT Camp</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>€ 3500 – 5000</t>
         </is>
       </c>
-      <c r="F21" s="10" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">LevelPath (www.levelpath.com) - IT Camp partner - company that is focused on the public-facing enterprise applications that make enterprise sourcing/purchasing commerce faster, safer, and more transparent. The company was founded by a leadership team that previously built several meaningful software companies over the last decade. Theyre now turning their attention to building the next-gen enterprise system of record in a wide-open space. Its a huge opportunity and we need some amazing individuals to help make enterprises faster, safer and more transparent.
 We are looking for Middle Software engineer (Ruby on Rails) to build the strongest team.
@@ -1832,42 +1964,42 @@
 </t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 27 dienas | Beidzas: 12.01.2024</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 29 dienas | Beidzas: 12.01.2024</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1121184/it-camp/middle-ruby-ror-developer</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="300" customHeight="1">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="24" ht="300" customHeight="1">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Senior Software engineer (React.js / TypeScript)</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>IT Camp</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>€ 5000 – 8000</t>
         </is>
       </c>
-      <c r="F22" s="10" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">LevelPath (www.levelpath.com) - IT Camp partner - company that is focused on the public-facing enterprise applications that make enterprise sourcing/purchasing commerce faster, safer, and more transparent. The company was founded by a leadership team that previously built several meaningful software companies over the last decade. Theyre now turning their attention to building the next-gen enterprise system of record in a wide-open space. Its a huge opportunity and we need some amazing individuals to help make enterprises faster, safer and more transparent.
 We are looking for a Senior Software engineer (React.js / TypeScript) to build the strongest team.
@@ -1893,92 +2025,17 @@
 </t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 27 dienas | Beidzas: 12.01.2024</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 29 dienas | Beidzas: 12.01.2024</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1121180/it-camp/senior-software-engineer-react-js-typescript</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="300" customHeight="1">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Senior Software Development Engineer</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>GoCardless</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Rīga /  Attālināti</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>€ 5600 – 7590</t>
-        </is>
-      </c>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">About us
-At GoCardless we believe bank payments are the best way to pay and get paid. We also believe that bank account data is a powerful tool to make better, faster decisions. We are making it easy to use both- for businesses everywhere. 
-Bringing simple and secure direct bank payment solutions for people and businesses everywhere, as well as making open banking more accessible. GoCardless is used by 75,000+ organisations and counting, processing more than $30 billion of payments across 30 countries. 
-We are an award-winning London based fintech, with additional offices in Riga, Paris, Melbourne and the US. 
-The role
-As a Software Development Engineer at GoCardless, you'll be integral to our Bank Account Data team working to streamline experience for our customers.
-You'll collaborate closely with product and other teams to innovate, maintain, and optimise our product, marking a key role in operational efficiency for our merchants and internal users while ensuring smooth operation for the world's aspiring bank payments network.
-Our technologies
-We endeavour to build simple, reliable, and secure tooling and believe in using the most suitable technologies for each task. Joining the Bank Account Data group, you'll be working in a team that interacts with a diverse stack of technologies and services including Python, Django, JavaScript, Google Cloud (GCP).
-Across GoCardless, we use a broad range of additional technologies such as React, PostgreSQL, Kubernetes, Elasticsearch, and Prometheus.
-Proficiency in all of these technologies is not a prerequisite. If you're unsure, please apply.
-What excites you
-You are looking to foster an exceptional engineering culture within GoCardless and contribute to the larger engineering community
-You enjoy gaining insights and collaborating with people from diverse backgrounds and experiences
-You take pride in your work and the difference it can make
-Our engineers contribute to the engineering culture within and outside of GoCardless: they contribute to Open Source Software projects (see our Github), and share learnings in post-mortems, conferences and on our blog
-What excites us
-Professional experience of building web applications and a keen awareness of technologies across the stack
-Strong frontend foundations: ES6+, CSS (e.g. grid, flexbox, custom properties), event delegation, custom elements, web components etc.
-Understanding of backend technologies: Python, Django, PostgreSQL, REST API
-You adapt to new technologies and processes quickly
-You thrive in a collaborative environment and believe the best products are built through collaboration
-You enjoy solving problems and are happy to take the initiative to find better solutions
-You enjoy mentoring and supporting the development of team members and colleagues
-We don't expect you to meet every requirement. If you're excited by this role, we encourage you to apply.
-(some of) The good stuff
-Wellbeing - stay healthy with dedicated support and medical cover
-Work away scheme - gives you the option to work away from your country of residence for up to 90 days in any 12 month period
-Adaptive Working - allows you to work flexibly, around your lifestyle
-Equity - all permanently employed GCs get equity to help you make a valuable contribution 
-Parental leave - to suit everyone embarking on life's great adventure
-Time off - generous holiday allowance, + 3 annual volunteer days, + 4 annual business-wide wellness days (GC Fridays)
-Life at GoCardless
-We're an organisation defined by our values; We start with why before we begin any project, to ensure its aligned with our mission. We make it happen, working with urgency and taking personal accountability for getting things done. We act with integrity, always. We care deeply about what we do and we know it's essential that we be humble whilst we do it. Working this way creates the GC magic- the reason we all love showing up to work. 
-</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 1 mēnesis | Beidzas: 08.01.2024</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1120302/gocardless/senior-software-development-engineer</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="30" customHeight="1"/>
     <row r="25" ht="30" customHeight="1"/>
     <row r="26" ht="150" customHeight="1"/>
     <row r="27" ht="150" customHeight="1"/>
@@ -2136,6 +2193,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H21" r:id="rId20"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H22" r:id="rId21"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H24" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lapa1" sheetId="1" state="visible" r:id="rId1"/>
@@ -510,87 +510,76 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Senior Front-End Developer (React)</t>
+          <t>Full-stack programmētājs/-a</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Arvato Systems Latvia SIA</t>
+          <t>ZZ Dats SIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rīga</t>
+          <t>Rīga /  Attālināti</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>€ 3800 – 4800</t>
+          <t>€ 2600 – 5100</t>
         </is>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Responsibilities
-Contribute to architecture and design of components in React.js, testing strategy and deployments to test, integration and production systems
-Hands-on role requiring both production of design artifacts and coding of critical elements
-Interface with the product owner, team members, other teams, and stakeholders
-Take ownership of the team's deliverables, ensuring that the team produces high-quality deliverables
-Provide programming duties with an emphasis on requirements development, planning, analysis and design, testing &amp; acceptance phases of the application software
-Verify source code with testing strategy
-Participation in design and code reviews
-Requirements
-More than 5 years of relevant work experience in software frontend development
-Strong proficiency in JavaScript (ES5, ES6)
-Strong proficiency with JavaScript framework React and React hooks
-Strong proficiency with RESTful, Websockets
-Good knowledge of HTML5, CSS, Sass, and experience in UI/UX
-Experience in application testing Jest, writing unit tests
-Experience with backend tools Azure, Docker
-Experience in code versioning
-Having Experience with the Atomic Design approach
-Familiarity with modern front-end build pipelines and tools
-Experience with common front-end development tools such as Babel, Webpack, NPM, Yarn etc.
-High analytical skills as well as a structured, solution-oriented and independent way of working
-Fluent in English
-Strong team player skills, communication and interpersonal skills: kind, friendly, and cooperative
-Nice to have:
-Experience on Video Processing and Compression: Understanding video codecs, formats, and compression techniques, for example, with tools like FFmpeg or WebCodecs.
-Familiarity with Streaming Protocols: Knowledge of real-time streaming protocols such as RTMP, HLS, or DASH would be advantageous.
-Media File Management and Metadata Handling Experience: Experience in managing media files, handling metadata, and organizing large libraries of audio and video assets would be beneficial.
-We Offer
-Monthly gross salary from 3800 to 4800 EUR, depending on your level of expertise. 
-Hybrid way of working with cozy office space in the center of Riga, when needed, and flexible working hours opportunities, based on your own preferences. 
-Family-oriented company values and healthy attitude towards work and life balance - granting additional 4 vacation days, birthday leave, "Happy Land" space in the office for children, etc. 
-Individual development and learning plan, including yearly budget for external training. 
-Necessary essentials health insurance with dental services and sports coverage. 
-Possibility to work in mutual trust and positive team environment, to be creative and improve working flows by self-initiatives. 
-Friendly, multicultural and cooperation orientated colleagues. 
+          <t xml:space="preserve">Aicinām pievienoties ZZ Dats komandai pieredzējušu un pašmotivētu web lietojumprogrammu programmētāju. Risinājumi pārsvarā tiek izstrādāti C# programmēšanas valodā, dati glabājas PostgreSQL vai Oracle datu bāzēs, un lietotāja saskarnes veidojam ar Vue.js, React, Angular vai .NET MVC ietvariem.
+Prasības:
+pieredze web izstrādē darbā ar .NET / .NET Core, Golang
+pieredze darbā ar kādu no Front-End ietvariem: React, Vue.js, Angular (2+);
+iemaņas darbā ar datu bāzēm (PostgreSQL, Oracle), par priekšrocību tiks uzskatītas PL/SQL vai PL/pgSQL zināšanas;
+zināšanas par konteinerizētu risinājumu piegādi un uzstādīšanu (CI/CD);
+labas zināšanas par REST API izstrādes principiem;
+analītiska domāšana;
+spēja ātri apgūt jaunu informāciju;
+latviešu valodas zināšanas;
+vēlama augstākā izglītība informācijas tehnoloģiju zinātnēs.
+Uzdevumi:
+programmēt jaunu funkcionalitāti;
+pielāgot un modificēt esošo funkcionalitāti;
+piedāvāt risinājumu tehnoloģiskas alternatīvas un to pamatojumu.
+Mēs piedāvājam:
+stabilitāti;
+iespēju strādāt birojā Rīgas centrā, būt daļai no draudzīga kolektīva;
+apmaksātu autostāvvietu;
+mazas un lielas ballītes;
+snaudas istabu;
+tiešām labu veselības apdrošināšanas polisi pēc pārbaudes laika. Vienāda gan direktoram, gan studentam.
+apmācības un profesionālu izaugsmi.
+Sazināsimies ar tiem kandidātiem, kurus aicināsim uz otro atlases kārtu. Pretendentiem, kuri netiks aicināti uz otro atlases kārtu, pateicamies par izrādīto interesi un vēlam panākumus!
 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Atjaunināts pirms 4 stundas | Beidzas: 20.01.2024</t>
+          <t>Publicēts pirms 2 stundas | Beidzas: 31.01.2024</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.cv.lv/lv/vacancy/1125175/arvato-systems-latvia-sia/senior-front-end-developer-react</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="30" customHeight="1">
+          <t>https://www.cv.lv/lv/vacancy/1133517/zz-dats-sia/full-stack-programmetajs-a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="300" customHeight="1">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Senior Front End Developer - Vecākais Frontend izstrādātājs/-a</t>
+          <t>Frontend Engineer (JavaScript/TypeScript)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AGCSOFT SIA</t>
+          <t>Evolution Latvia SIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -600,18 +589,50 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>€ 3650 – 5830</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr"/>
+          <t>€ 4000 – 7600</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Company Description
+Evolution is a leading international B2B provider of games and services in online casino. Operating in the forefront of our industry, we offer a turn-key solution for casino operators. Our licensees players can move flawlessly between mobile, tablet and desktop to play slots or live casino, which feature real tables with real dealers in real time. Our innovative and high-quality offer includes brands like Evolution Live, Red Tiger and NetEnt, and multiple award-winning international player product favorites, such as Crazy Time, Lightning Roulette and Gonzos Quest. Evolution is listed on Nasdaq Nordic with a MCAP of EUR 20+BN.
+We are now looking for an experienced and driven JavaScript/TypeScript Engineer! This is truly an exciting opportunity for a talented individual looking for a career in a dynamic and international work environment.
+As our JavaScript/TypeScript Engineer you will take an integral part in building a cross-platform web application used by hundreds of thousands of users world-wide on iOS, Android and desktop platforms. Our technology stack is modern and based on TypeScript, React, Babylon.js, and webpack.
+To succeed in this role you should have:
+Passion for our profession, in particular front-end development, and improving yourself technically;
+4+ years of experience in front-end development;
+Proven experience in delivering production software using JavaScript or Typescript;
+Highly proficient in spoken and written English;
+Solid knowledge and experience with HTML5 and CSS3;
+Excellent communication skills and a pragmatic approach to problem-solving.
+We will appreciate:
+Solid knowledge of TypeScript and ESNext;
+Experience in other strongly typed programming languages;
+Interest in contemporary programming trends such as functional and reactive programming, CSS preprocessing, alternative JavaScript languages, web components, touch user experiences, and responsive design;
+Experience with React, Redux, Lodash, RxJS, Babylon.js;
+Knowledge of modular CSS by using css-modules and post-css;
+Experience with testing and specifications libraries like Jest, Enzyme, Pupeteer, WebDriverIO, Cucumber, Mocha;
+Knowledge of JavaScript ecosystem tools, such as webpack, npm, yarn;
+Passion towards performance profiling and optimization, using GPU acceleration and maintaining 240 FPS for visually rich applications.
+We offer:
+Entrepreneur culture of the company, which allows you to try new approaches and technologies all the time;
+Recognition from the business which translates to very competitive salaries and a supportive attitude;
+Developing games featuring live video serving customers around the world;
+A healthy mix of startup-like culture of the company, which enables us to try new approaches and technologies and remain on the edge of technological development and enterprise, with stability and supporting functions to help you focus on your job;
+Modern and developer-friendly delivery processes, including Agile (Scrum / Kanban), JIRA issue tracking, Confluence wiki, GitLab source control, Jenkins continuous integration and delivery, modern hardware and software for development (an IDE of your choice);
+Being a part of an international team in a successful, publicly traded company;
+Health insurance, contemporary office environment, tech conference attendance, training, hackathons, 24/7 company gym, and other benefits and perks.
+</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Atjaunināts pirms 20 stundas | Beidzas: 02.02.2024</t>
+          <t>Atjaunināts pirms 4 stundas | Beidzas: 12.01.2024</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.cv.lv/lv/vacancy/1128150/agcsoft-sia/senior-front-end-developer-vecakais-frontend-izstradatajs-a</t>
+          <t>https://www.cv.lv/lv/vacancy/1121109/evolution-latvia-sia/frontend-engineer-javascript-typescript</t>
         </is>
       </c>
     </row>
@@ -621,25 +642,220 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Rust programmētājs/a</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AOX Trade</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>€ 2555 – 5500</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AOX Trade
+-inovatīvi domājošs, ambiciozs un strauji augošs uzņēmums enerģētikas nozarē piedāvā darbu cilvēkam, kuram programmēšana ir sirdslieta un kurš vērsts uz komandas panākumiem. Novērtējam zināšanas, radošu pieeju un vēlmi sekot līdzi jaunām tehnoloģijām un mākslīgā intelekta iespējām, lai sasniegtu izcilību. Mūsu kolektīva Top vērtības ir Izaugsme, Godīgums, Ģimene, Atbildība, Cieņa.
+Kas Tevi sagaida pie mums:
+Izaicinoši uzdevumi: Strādāsim kopā pie inovatīviem projektu risinājumiem. Jaunu funkciju arhitektūras plānošana un ieviešana esošajās sistēmās.
+Profesionāla izaugsme: Tev būs iespēja piedāvāt savus radošos risinājumus, kā arī dalīties pieredzē un darboties kopā ar gudriem un pieredzējušiem kolēģiem.
+Komanda: Kopā mēs varam vairāk nekā katrs atsevišķi, tāpēc veiksmīgs komandas darbs palīdzēs nodrošināt augstu kvalitāti un sasniegt virsotnes. Tevi sagaida draudzīgs kolektīvs un atsaucīgs vadītājs.
+Tikai iekšējie projekti: Piedāvājam darbu pie iekšējo sistēmu izstrādes un uzturēšanas. Tev nebūs jāstrādā ar nekādiem klientiem/ pasūtītājiem ārpus uzņēmuma.  
+Startup atmosfēra: Darbs ir dinamisks, idejas daudz un lēmumi tiek pieņemti ātri, bez liekām birokrātiskām procedūrām.
+Lieliska darba vide: Nodrošināsim darba vietu modernā A+++ klases birojā centrā ar Penthouse cienīgu skatu pāri Rīgai, kā arī Tev vēlamo aparatūru un programmnodrošinājumu, tēju, kafiju, augļus u.c.
+Ko mēs vēlētos redzēt Tavā profilā:
+Vairāk kā gada pieredze Rust programmēšanas valodā un spēja efektīvi pielietot tās priekšrocības.
+Vismaz 3 gadi kopējā profesionālā pieredze programmēšanā.
+Pieredze ar striktu tipu valodām. Pieredze ar SQL / NoSQL datubazēm. Sapratne par Node.js, Nginx un REST API izstrādi.
+Vēlme sekot līdzi savas jomas jaunumiem un apgūt jaunus risinājumus un tehnoloģijas.
+Izcilas analīzes un problēmu risināšanas prasmes.
+Spēja strādāt efektīvi gan individuāli, gan komandā un liela atbildības sajūta.
+Vēlme piedalīties produktu attīstībā no idejas līdz izlaidumam.
+Sapratne par frontend un backend izstrādi (Full stack prasmes), tiks vērtēta kā priekšrocība.
+ Ikdienas darbs, atkarībā no projekta, var iekļaut strādāšanu ar šīm tehnoloģijām:
+Rust / Go; Frontenda izveide ar Svelte frameworku (pieredze ar React, Vue, Angular derēs); RabbitMq; Mongodb; Docker; Python priekš datu modelēšanas.
+Atalgojums atkarīgs no Tavas pieredzes, prasmēm un pienesuma: no 2555 € līdz 5500 € bruto pēc pārbaudes laika. Kā arī uzņēmums nodrošina dažādus motivācijas paaugstināšanas un darbinieku saliedēšanas pasākumus. 
+Pievienojies mums un palīdzi veidot nākotnes tehnoloģijas enerģētikas nozarē kopā ar AOX Trade jaudīgo komandu! Savā pieteikumā vai CV obligāti iekļauj atsauci uz saviem github projektiem!
+</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 2 dienas | Beidzas: 10.02.2024</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1132150/aox-trade/rust-programmetajs-a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="300" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Customer Support Representative    </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NewTech Mobile SIA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>€ 2000 – 2300</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Requirements
+Perfect Russian and English ( both spoken and written) 
+Good communication skills 
+Ability to work in team 
+Good analyzing skills
+Job description
+Raising support tickets to enable tracking and resolution of customer requests
+Investigating and resolving customer complaints then closing support tickets
+Maintaining a database of customer information
+Escalating inquiries to the appropriate team, when necessary
+Checking product or service availability
+Assisting customers with registration or account creation
+Passing customer feedback onto the product or sales team to improve the organisations offerings
+We offer
+Be a part of professional and ambitious team
+Participate in large and complex projects
+Competitive salary
+Health insurance
+Modern looking office, up-to-date hardware and workplaces
+Don't starve, we have free lunches
+Free parking 
+</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 2 dienas | Beidzas: 10.02.2024</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1132148/newtech-mobile-sia/customer-support-representative</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Senior Front-End Developer (React)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Arvato Systems Latvia SIA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>€ 3800 – 4800</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 2 dienas | Beidzas: 20.01.2024</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1125175/arvato-systems-latvia-sia/senior-front-end-developer-react</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Senior Front End Developer - Vecākais Frontend izstrādātājs/-a</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AGCSOFT SIA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rīga</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>€ 3650 – 5830</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 3 dienas | Beidzas: 02.02.2024</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1128150/agcsoft-sia/senior-front-end-developer-vecakais-frontend-izstradatajs-a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="300" customHeight="1">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Site Reliability Engineer</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Cognizant Latvia</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>€ 2200 – 4200</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cognizant is one of the world's leading professional services companies, transforming clients' business, operating, and technology models for the digital era. Our unique industry-based, consultative approach helps clients envision, build, and run more innovative and efficient businesses. Headquartered in the U.S., Cognizant, a member of the NASDAQ-100, is ranked 195 on the Fortune 500 and is consistently listed among the most admired companies in the world. 
  At Cognizant, together with your colleagues globally, you will collaborate on crafting solutions for prestigious companies and help them become more flexible, innovative, and successful. 
@@ -680,111 +896,78 @@
 </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 20 stundas | Beidzas: 09.02.2024</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 3 dienas | Beidzas: 09.02.2024</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1131638/cognizant-latvia/site-reliability-engineer</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="300" customHeight="1">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>QA Automation Engineer</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">Ubiquiti (Latvia) SIA </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>€ 2500 – 5000</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Responsibilities:
-Day-to-day work with various kind of Network type devices;
-Create, maintain and execute automated test scripts;
-Identify and report bugs, ensuring proper follow-up;
-Perform front-end and back-end testing throughout the entire QA process;
-Analyse release notes, project documentation and other project artefacts to identify new or update existing test scenarios.
-Requirements:
-3+ years AQA experience in similar position;
-Jenkins pipelines + DSL (Groovy);
-Java + Selenium;
-Bash scripting;
-General understanding in Network (Internet, WiFi, VLAN, Firewall, VPN etc.);
-Strong understanding in MQA testing process;
-Fluent in English and Latvian.
-Nice to have:
-JavaScript;
-Python;
-System Administration;
-DevOps (CI/CD setup &amp; administration, Terraform scripts);
-Network administration.
-Benefits:
-International work environment and work with global development teams;
-Ability to deliver software that is used by millions of people across the globe;
-Access to all Ubiquiti products;
-Medical insurance;
-Hybrid approach - office in Riga;
-Flexible work hours;
-Compensation package matching global standards, including competitive salary depending on your qualification and background (starting from 2500 up to 5000 Euro gross monthly);
-A-class office with all the necessities - snacks, drinks, free parking, etc!
-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 22 stundas | Beidzas: 19.01.2024</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Atjaunināts pirms 3 dienas | Beidzas: 19.01.2024</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/987343/ubiquiti-latvia-sia/qa-automation-engineer</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="300" customHeight="1">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10" ht="300" customHeight="1">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Java programmētājs/-a (Java Developer)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Confero Technologies, SIA</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>€ 2800 – 4200</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Confero Technologies meklē pieredzējušu Java programmētāju FinTech programmproduktu attīstībai lieliskā komandā. Ja Tevi aizrauj inovatīvi programmatūras risinājumi klientu attālinātai apkalpošanai un Tev ir pieredze ar programmatūras izstrādi Java valodā, gaidīsim pieteikumu!
 Prasības kandidātiem
@@ -822,128 +1005,42 @@
 </t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 1 diena | Beidzas: 08.02.2024</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 4 dienas | Beidzas: 08.02.2024</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1130936/confero-technologies-sia/java-programmetajs-a-java-developer</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="300" customHeight="1">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Full Stack Engineer</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GoCardless</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+    <row r="11" ht="300" customHeight="1">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Product Manager (Trevolution)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SIA "Dynatech"</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>€ 3200 – 5100</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">About us
-At GoCardless we believe bank payments are the best way to pay and get paid. We also believe that bank account data is a powerful tool to make better, faster decisions. We're making it easy to use both - for businesses everywhere.
-GoCardless is used for domestic and international payments by 75,000+ organisations and counting, processing more than $30 billion across 30 countries. We're an award-winning London based fintech, with additional offices in Riga, Paris and Melbourne.
-The role
-As a Full Stack Engineer at GoCardless, you'll be integral to our newly formed Operational Interfaces team working to streamline secure tooling for Merchant Operations.
-You'll collaborate closely with Customer Support and other teams to innovate, maintain, and optimise our operational tools, marking a key role in operational efficiency for our merchants and internal users while ensuring robust security for the world's aspiring bank payments network.
-Our technologies
-We endeavour to build simple, reliable, and secure tooling and believe in using the most suitable technologies for each task. Joining the Merchant Operations Group, you'll be working in a team that interacts with a diverse stack of technologies and services including React, AngularJS, Ruby on Rails, Zendesk, Google Cloud (GCP) with unique opportunities for greenfield projects.
-Across GoCardless, we use a broad range of additional technologies such as Golang, Python, Kubernetes, Elasticsearch, and Prometheus.
-Proficiency in all of these technologies is not a prerequisite. If you're unsure, please apply.
-What excites you
-Your'e looking to foster an exceptional engineering culture within GoCardless and contribute to the larger engineering community
-You enjoy gaining insights and collaborating with people from diverse backgrounds and experiences
-You take pride in your work and the difference it can make
-Our engineers contribute to the engineering culture within and outside of GoCardless - they contribute to Open Source Software projects, and share learnings in post-mortems, conferences and on our blogs
-What excites us
-Professional experience of building web applications and a keen awareness of technologies across the stack
-Strong frontend foundations: ES6+, CSS (e.g. grid, flexbox, custom properties), event delegation, custom elements, etc.
-You adapt to new technologies and processes quickly
-You thrive in a collaborative environment and believe the best products are built through collaboration
-You enjoy solving problems and are happy to take the initiative to find better solutions
-You enjoy mentoring and supporting the development of team members and colleagues
-Salary Range: €3200 - €5100 monthly (Gross)
-We don't expect you to meet every requirement. If you're excited by this role, we encourage you to apply.
-(some of) The good stuff
-Wellbeing - stay healthy with dedicated support and medical cover
-Work away scheme - you can apply to work away from your country of residence for up to 90 days in any 12 month period
-Adaptive Working - allows you to work flexibly, around your lifestyle
-Equity - all permanently employed GCs get equity to help you make a valuable contribution
-Parental leave - to suit everyone embarking on life's great adventure
-Time off - generous holiday allowance, + 3 annual volunteer days, + 4 annual business-wide wellness days (GC Fridays)
-Life at GoCardless
-We're an organisation defined by our values; We start with why before we begin any project, to ensure its aligned with our mission. We make it happen, working with urgency and taking personal accountability for getting things done. We act with integrity, always. We care deeply about what we do and we know it's essential that we be humble whilst we do it. Working this way creates the GC magic - the reason we all love showing up to work.
-Diversity &amp; Inclusion
-We're building the bank payment network of the future and our ambition is to move money anywhere, for anything, for anyone. If were going to achieve this goal, we need to build a team of GeeCees that is as wonderfully diverse as the world we live in - with a multitude of perspectives, experiences &amp; backgrounds.
-We've got a long way to go, but heres how were doing as of June 2023:
-42% identify as women
-28% identify as Black, Asian, Mixed or Other
-9% identify as LGBTQIA+
-9% identify as neurodiverse
-2% identify as disabled
-We're rooting for you during your application and GoCardless aims to provide reasonable adjustments to make our recruitment process as remarkable and accessible as we can. Please speak to your Talent Partner if you need extra support.
-If you want to learn more, you can read about our Employee Resource Groups and objectives as well as our latest D&amp;I Report on our website.
-Sustainability
-We're committed to reducing our impact on the environment, leaving a more sustainable world for future generations. In 2021 we became co-founders of the Tech Zero coalition, a group of businesses committed to taking climate action as part of the UNFCCC Race to Zero. We aim to reduce our impact and to create positive change on the natural world. Check out our sustainability action plan on our website.
-Find out more about Life at GoCardless via Twitter, Instagram and LinkedIn.
-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 2 dienas | Beidzas: 11.01.2024</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1120506/gocardless/full-stack-engineer</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="300" customHeight="1">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Product Manager (Trevolution)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SIA "Dynatech"</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rīga</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>€ 3500 – 4300</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>€ 3500 – 5300</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> At TreVolution Group, we're passionate about creating innovative solutions to simplify business travel for our clients. We're a global company with a mission to make corporate travel hassle-free, efficient and cost-effective. Our internal travel system is a crucial component of this mission, and we're looking for a talented Product Manager to join our team and help us take our platform to the next level. 
 Job Description:
@@ -967,7 +1064,7 @@
 Experience with Agile methodology and project management tools like Jira or Asana; 
 Ability to work independently and handle multiple priorities in a fast-paced, dynamic environment.
 There is no one-size-fits-all here, we are quite flexible and use an individual approach with every Candidate we meet. While getting familiar during our interview, we try to understand where your working experience, professional skills, and future contribution to the company can be applied within our multiple business projects.
-We don't want to set any limits, but if we are naming the numbers, then the salary range for this position is from 3500 EUR gross till 4300 EUR gross per month.   
+We don't want to set any limits, but if we are naming the numbers, then the salary range for this position is from 3500 EUR gross till 5300 EUR gross per month.   
 With us you will: 
 Be a part of a top-tier team of professionals, work on global projects that reach millions worldwide, create complex one-of-a-kind in-house products and solutions; 
 Get opportunities for professional development: learn new skills with online courses, broaden your network in local and international conferences, receive mentoring; 
@@ -980,185 +1077,42 @@
 </t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 2 dienas | Beidzas: 08.02.2024</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 4 dienas | Beidzas: 08.02.2024</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1130460/sia-dynatech/product-manager-trevolution</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="300" customHeight="1">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Senior Java Developer</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sapiens Software Solutions (Latvia) SIA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+    <row r="12" ht="300" customHeight="1">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Senior Software Developer - React</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Emergn</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>€ 3200 – 4800</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sapiens International Corporation (NASDAQ and TASE: SPNS) empowers the financial sector, with a focus on insurance, to transform and become digital, innovative, and agile. Backed by 40 years of industry expertise, Sapiens offers a complete insurance platform, with pre-integrated, low-code solutions and a cloud-first approach that accelerates customers digital transformation. Serving more than 600 customers in 30 countries, Sapiens offers insurers across Property &amp; Casualty, Workers Compensation and Life markets the most comprehensive set of solutions, from core to complementary, including Reinsurance, Financial &amp; Compliance, Data &amp; Analytics, Digital, and Decision Management. Sapiens team of more than 5,000 employees operates through our offices in North America, the UK, EMEA and Asia Pacific.
-We're seeking for an experienced and creative Senior Java Developer to join our R&amp;D team.
-Roles and Responsibilities:
-Designing, development of core components/services which are flexible, extensible, multi-tier, scalable, high performance;
-Providing technical leadership and mentoring to junior developers;
-Developing use cases and design alternatives in accordance with business requirements;
-Interact with Product Owner and Business analyst across geographies to leverage expertise and take up development to the next level;
-Participating in code reviews, working with business analyst and testers to effectively document and validate all implementations;
-Ability to understand and discuss technical concepts, schedule tradeoffs and opportunistic new ideas with technical employees;
-Working with development methodologies used by the company such as Agile.
- Desired Skills and Experience
-4+ years of experience in Web development;
-Proficiency with fundamental front-end languages such as HTML, CSS, and JavaScript;
-Experience with JavaScript frameworks such as NodeJs, React and Angular;
-Experience with W3C components, Custom Elements API , Templates, shadowDOM;
-Experienced working with XML and JSON, Spring, Hibernate and web services architecture, such as SOAP and/or REST;
-Experience working with relational database, such as MS-SQL and/or Oracle, PostgreSQL;
-Experience with NoSQL Databases such as MogoDB and/or Cassandra;
-Experience working with Open Source frameworks and Kubernetes clusters.
- Advantage:
-Experience in Scala, Streaming, Functional programming, Data distribution, ElasticSearch;
-Experience in Micro-services architecture;
-Data experience with Kafka, Spark;
-Knowledge in Insurance;
-Test Driven Development.
-We offer:
-Annual bonus as 13th salary payment (in the amount of 1 salary calculated proportionally worked month during a year);
-Paid lunch in the lunch restaurant on the 1st floor of the office building (24/7 healthy snacks and beverages in our office canteen);
-Health insurance after the trial period;
-Possibility to gain professional experience and learn from global industry experts;
-Stable project &amp; diversified working environment;
-Employee engagement events globally and locally;
-Training budget to develop skills and expertise.
- Join us and become part of our common success!
- Sapiens is an E-Verified &amp; Equal Opportunity/Affirmative Action Employer, M/F/D/V.
-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 29.01.2024</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1127462/sapiens-software-solutions-latvia-sia/senior-java-developer</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="300" customHeight="1">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Frontend Engineer (JavaScript/TypeScript)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Evolution Latvia SIA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Rīga</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>€ 4000 – 7600</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Company Description
-Evolution is a leading international B2B provider of games and services in online casino. Operating in the forefront of our industry, we offer a turn-key solution for casino operators. Our licensees players can move flawlessly between mobile, tablet and desktop to play slots or live casino, which feature real tables with real dealers in real time. Our innovative and high-quality offer includes brands like Evolution Live, Red Tiger and NetEnt, and multiple award-winning international player product favorites, such as Crazy Time, Lightning Roulette and Gonzos Quest. Evolution is listed on Nasdaq Nordic with a MCAP of EUR 20+BN.
-We are now looking for an experienced and driven JavaScript/TypeScript Engineer! This is truly an exciting opportunity for a talented individual looking for a career in a dynamic and international work environment.
-As our JavaScript/TypeScript Engineer you will take an integral part in building a cross-platform web application used by hundreds of thousands of users world-wide on iOS, Android and desktop platforms. Our technology stack is modern and based on TypeScript, React, Babylon.js, and webpack.
-To succeed in this role you should have:
-Passion for our profession, in particular front-end development, and improving yourself technically;
-4+ years of experience in front-end development;
-Proven experience in delivering production software using JavaScript or Typescript;
-Highly proficient in spoken and written English;
-Solid knowledge and experience with HTML5 and CSS3;
-Excellent communication skills and a pragmatic approach to problem-solving.
-We will appreciate:
-Solid knowledge of TypeScript and ESNext;
-Experience in other strongly typed programming languages;
-Interest in contemporary programming trends such as functional and reactive programming, CSS preprocessing, alternative JavaScript languages, web components, touch user experiences, and responsive design;
-Experience with React, Redux, Lodash, RxJS, Babylon.js;
-Knowledge of modular CSS by using css-modules and post-css;
-Experience with testing and specifications libraries like Jest, Enzyme, Pupeteer, WebDriverIO, Cucumber, Mocha;
-Knowledge of JavaScript ecosystem tools, such as webpack, npm, yarn;
-Passion towards performance profiling and optimization, using GPU acceleration and maintaining 240 FPS for visually rich applications.
-We offer:
-Entrepreneur culture of the company, which allows you to try new approaches and technologies all the time;
-Recognition from the business which translates to very competitive salaries and a supportive attitude;
-Developing games featuring live video serving customers around the world;
-A healthy mix of startup-like culture of the company, which enables us to try new approaches and technologies and remain on the edge of technological development and enterprise, with stability and supporting functions to help you focus on your job;
-Modern and developer-friendly delivery processes, including Agile (Scrum / Kanban), JIRA issue tracking, Confluence wiki, GitLab source control, Jenkins continuous integration and delivery, modern hardware and software for development (an IDE of your choice);
-Being a part of an international team in a successful, publicly traded company;
-Health insurance, contemporary office environment, tech conference attendance, training, hackathons, 24/7 company gym, and other benefits and perks.
-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Atjaunināts pirms 5 dienas | Beidzas: 12.01.2024</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1121109/evolution-latvia-sia/frontend-engineer-javascript-typescript</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="300" customHeight="1">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Senior Software Developer - React</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Emergn</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Rīga /  Attālināti</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>€ 3500 – 4500</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">From ideas to impact
 We are a global digital business services organization with a mission to improve the way people and companies work. Forever. Our Consulting, Delivery and Learning teams design and deliver transformational digital products and experiences that add value to our clients businesses and to their customers' lives.
@@ -1192,42 +1146,42 @@
 </t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 12 dienas | Beidzas: 29.01.2024</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 14 dienas | Beidzas: 29.01.2024</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1127687/emergn/senior-software-developer-react</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="300" customHeight="1">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="13" ht="300" customHeight="1">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Front-end Developer</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>SIA "Dynatech"</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>€ 2500 – 3500</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">This is the ideal role for a seasoned front-end development professional who is ready to take on new challenges in development projects that have no equivalents in the Latvian market.
 We are able to offer you a project that matches your interest: whether it be an online reservation system, CRM with difficult business logic, an accounting/ anti-fraud system or payment processing. Let us know where your heart lies.
@@ -1250,42 +1204,42 @@
 </t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 12 dienas | Beidzas: 29.01.2024</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 14 dienas | Beidzas: 29.01.2024</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1127439/sia-dynatech/front-end-developer</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="300" customHeight="1">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="14" ht="300" customHeight="1">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Senior Front-end Developer</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>SIA "Dynatech"</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Rīga</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>€ 3500</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">This is the ideal role for a seasoned front-end development professional who is ready to take on new challenges in development projects that have no equivalents in the Latvian market.
 We are able to offer you a project that matches your interest: whether it be an online reservation system, CRM with difficult business logic, an accounting/ anti-fraud system or payment processing. Let us know where your heart lies.
@@ -1308,42 +1262,42 @@
 </t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 12 dienas | Beidzas: 29.01.2024</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 14 dienas | Beidzas: 29.01.2024</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1127438/sia-dynatech/senior-front-end-developer</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="300" customHeight="1">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="15" ht="300" customHeight="1">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>DevOps Engineer</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>VISMA</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>€ 2500 – 4500</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Visma provides software solutions that cover HRM, Finance, Accounting, Talent Management and Payroll solutions with a diverse customer portfolio. Visma Labs is a team of more than 290 talented professionals in Latvia. We develop, test and support business systems, as part of an international organisation.
 Project: Visma Recruit
@@ -1387,78 +1341,78 @@
 </t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 14 dienas | Beidzas: 26.01.2024</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 16 dienas | Beidzas: 26.01.2024</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1126713/visma/devops-engineer</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="30" customHeight="1">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Front-End Developer (Senior OR Lead)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>PICHE SIA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Rīgas rajons /  Attālināti</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>€ 3000 – 5000</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 19 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1126561/piche-sia/front-end-developer-senior-or-lead</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="300" customHeight="1">
+    <row r="16" ht="30" customHeight="1">
       <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Front-End Developer (Senior OR Lead)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PICHE SIA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Rīgas rajons /  Attālināti</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>€ 3000 – 5000</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 21 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1126561/piche-sia/front-end-developer-senior-or-lead</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="300" customHeight="1">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Senior Fullstack Engineer with Solidus and NextJS experience, eCommerce Solution</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>DataArt Ltd</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>€ 4000 – 4500</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Job description
 Client
@@ -1492,42 +1446,42 @@
 </t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 19 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 21 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1126479/dataart-ltd/senior-fullstack-engineer-with-solidus-and-nextjs-experience-ecommerce-solution</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="300" customHeight="1">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="18" ht="300" customHeight="1">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Technical Leader Fullstack, AWS Services</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>DataArt Ltd</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>€ 3900 – 4400</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Job description
 Client
@@ -1562,118 +1516,78 @@
 </t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 19 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 21 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1126475/dataart-ltd/technical-leader-fullstack-aws-services</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="300" customHeight="1">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Programmatūras testētājs(-a)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Printful Latvia AS</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Rīga /  Attālināti</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>€ 1500 – 2300</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Printful ir globāls līderis apdrukas industrijā, kas sadarbojas ar tādiem pasaulē pazīstamiem zīmoliem kā Coca-Cola, Spotify un MTV. Mūsu bizness turpina augt, tāpēc mūsu Design Maker komanda dizaina nodaļā meklē kvalificētu programmatūras testētāju, kas vēlas stāties pretī aizraujošiem izaicinājumiem un palīdzēt mums sasniegt labākos rezultātus sistēmas izstrādē.
-Mūsu veidotais Printful Design Maker dod iespēju tūkstošiem e-komercijas veikalu īpašnieku visā pasaulē izveidot unikālus personalizētus produktus. Dizaina programmas progresīvās tehnoloģijas šo procesu padara vienkāršu, taču ļauj radīt reālistiskus un precīzus produktu attēlus. 
-Apmēram 80% sava darba laika varēsi veltīt manuālajai testēšanai, savukārt atlikušos 20% testēšanas automatizācijai un testēšanas stratēģijas ieviešanai.
-Tavi pienākumi:
-manuāli testēt dažādus Design Maker komandas projektus (galvenokārt Front-end, bet reizēm arī Back-end);
-novērst kļūdas un ziņot par problēmām;
-strādāt ar testu automatizāciju un dokumentāciju.
-Darbs ir izaicinošs un aizraujošs. Tas ļaus saprast, cik svarīgi ir uzticēties komandai un savām profesionālajām zināšanām.
-No tevis sagaidām:
-vismaz 2 gadu pieredzi programmatūras testētāja amatā;
-zināšanas par programmatūras testēšanas metodēm, procesiem un rīkiem;
-pieredzi darbā ar datu bāzēm (piemēram, MySQL);
-interesi un pamatzināšanas par testu automatizāciju;
-spēju pārbaudīt prasības, izveidot, uzturēt testēšanas plānus un testa gadījumus, kas aptvers izstrādāto funkciju;
-spēju efektīvi komunicēt ar projektu komandām un vienkāršos vārdos izskaidrot sarežģītus konceptus;
-elastību un spēju mainīt virzienu testēšanas plānā, ja tas ir nepieciešams;
-pašdisciplīnu, analītisku domāšanu, spēju ievērot detaļas, kā arī izpratni par veiksmīgu UI/UX;
-labas angļu valodas zināšanas.
-Pieredze rakstīt automatizētus testus tīkla lietotnēm tiks uzskatīta par priekšrocību. 
-Mēs piedāvājam:
-mēnešalgu 1500-2300 eiro bruto atkarībā no pieredzes un prasmēm;
-elastīgu darba dienas sākumu (darbā varēsi ierasties līdz plkst. 11.00);
-iespēju izvēlēties datortehniku un aprīkojumu strādā Windows vai Mac vidē;
-iespēju strādāt attālināti vai mūsdienīgā un labiekārtotā birojā Rīgā;
-siltas, veselīgas bezmaksas pusdienas birojā;
-veselības apdrošināšanu, kurā iekļauta garīgās veselības veicināšanas programma;
-dzimšanas dienas brīvdienu;
-sporta kluba abonementu;
-iespēju katru gadu 90 dienas strādāt ārzemēs;
-darbinieku atlaides vairāk nekā 300 produktiem;
-veicināt profesionālo izaugsmi (konferences, semināri, mentorings, vieslekcijas);
-interesantus komandas saliedēšanās pasākumus un neaizmirstamas ballītes!
-Printful nodrošina vienlīdzīgas iespējas ikvienam. Mēs atbalstām dažādību un iekļaujošu darba vidi, un kandidātus(-es) izvērtējam, balstoties vienīgi uz sasniegumiem, kvalifikācijām un darba pieredzi.
-Ja esi gatavs(-a) pieņemt šo izaicinājumu, sūti mums savu CV un īsu aprakstu par sevi angļu valodā!
-Esi ieinteresēts(-a), bet šķiet, ka šis nav tavs lauciņš? Iesaki vakanci draugiem un ieskaties citos Printful darba piedāvājumos. Mēs vienmēr meklējam radošus un mērķtiecīgus cilvēkus, kuri papildinātu mūsu strauji augošo komandu!
-AS Printful Latvia (Reģ.nr. LV40203050078)
-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 19 dienas | Beidzas: 22.01.2024</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1126363/printful-latvia-as/programmaturas-testetajs-a</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="300" customHeight="1">
+    <row r="19" ht="30" customHeight="1">
       <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Programmatūras testētājs(-a)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Printful Latvia AS</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Rīga /  Attālināti</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>€ 1500 – 2300</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 21 dienas | Beidzas: 22.01.2024</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://www.cv.lv/lv/vacancy/1126363/printful-latvia-as/programmaturas-testetajs-a</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="300" customHeight="1">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Middle Front-end Developer (Angular) for Swisscom</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>IT Camp</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>€ 2500 – 4500</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">IT Camp partner -SWISSCOM- Switzerland's leading telco company and one of leading Swiss IT companies. Over 19000 employees are working for Swisscom in Switzerland, Italy and Netherlands and it is one of Switzerland's most sustainable and innovative companies, one of the top 3 Swiss employers for IT specialists one league with worldwide giants like Google and Microsoft.
 Due to the growth of the company, a brand new DevOps centre has been established in Riga, Latvia last year, and we invite you to join it.
@@ -1713,42 +1627,42 @@
 </t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 22 dienas | Beidzas: 19.01.2024</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 24 dienas | Beidzas: 19.01.2024</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1123517/it-camp/middle-front-end-developer-angular-for-swisscom</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="300" customHeight="1">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
+    <row r="21" ht="300" customHeight="1">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>AEM Frontend Developer, Reporting System</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>DataArt Ltd</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Rīga /  Attālināti</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>€ 4300 – 4900</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Job description
 Client
@@ -1781,50 +1695,14 @@
 </t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 23 dienas | Beidzas: 18.01.2024</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Publicēts pirms 25 dienas | Beidzas: 18.01.2024</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://www.cv.lv/lv/vacancy/1123061/dataart-ltd/aem-frontend-developer-reporting-system</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="30" customHeight="1">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Software Developer</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>If P&amp;C Insurance AS Latvijas filiāle</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Rīga</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>€ 3600 – 4400</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Publicēts pirms 26 dienas | Beidzas: 15.01.2024</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>https://www.cv.lv/lv/vacancy/1122460/if-p-un-c-insurance-as-latvijas-filiale/software-developer</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1782,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Publicēts pirms 28 dienas | Beidzas: 13.01.2024</t>
+          <t>Publicēts pirms 30 dienas | Beidzas: 13.01.2024</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1966,7 +1844,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Publicēts pirms 29 dienas | Beidzas: 12.01.2024</t>
+          <t>Publicēts pirms 1 mēnesis | Beidzas: 12.01.2024</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2027,7 +1905,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Publicēts pirms 29 dienas | Beidzas: 12.01.2024</t>
+          <t>Publicēts pirms 1 mēnesis | Beidzas: 12.01.2024</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
